--- a/exo_control/neural_network_parameters/excel/timestamps_cp_lstm.xlsx
+++ b/exo_control/neural_network_parameters/excel/timestamps_cp_lstm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,4082 +467,4082 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31.81916618347168</v>
+        <v>30.71520233154297</v>
       </c>
       <c r="B2" t="n">
-        <v>34.19028472900391</v>
+        <v>23.64204406738281</v>
       </c>
       <c r="C2" t="n">
-        <v>4.11110258102417</v>
+        <v>13.44729900360107</v>
       </c>
       <c r="D2" t="n">
-        <v>7.893968105316162</v>
+        <v>15.2436351776123</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.683309555053711</v>
+        <v>-6.103468418121338</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.619775533676147</v>
+        <v>-5.664198875427246</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>29.99094390869141</v>
+        <v>29.5199031829834</v>
       </c>
       <c r="B3" t="n">
-        <v>32.98707962036133</v>
+        <v>24.77532386779785</v>
       </c>
       <c r="C3" t="n">
-        <v>2.384484529495239</v>
+        <v>11.55820465087891</v>
       </c>
       <c r="D3" t="n">
-        <v>6.79859733581543</v>
+        <v>13.64948844909668</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.076088905334473</v>
+        <v>-4.900455951690674</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.386329650878906</v>
+        <v>-6.504446029663086</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28.36003112792969</v>
+        <v>28.59464263916016</v>
       </c>
       <c r="B4" t="n">
-        <v>31.4218578338623</v>
+        <v>26.84866714477539</v>
       </c>
       <c r="C4" t="n">
-        <v>2.384484529495239</v>
+        <v>10.16953277587891</v>
       </c>
       <c r="D4" t="n">
-        <v>6.79859733581543</v>
+        <v>13.64948844909668</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.148444652557373</v>
+        <v>-3.832979202270508</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.712236404418945</v>
+        <v>-6.922012329101562</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26.8780403137207</v>
+        <v>27.29340171813965</v>
       </c>
       <c r="B5" t="n">
-        <v>30.29081344604492</v>
+        <v>28.41649627685547</v>
       </c>
       <c r="C5" t="n">
-        <v>2.842550992965698</v>
+        <v>10.16953277587891</v>
       </c>
       <c r="D5" t="n">
-        <v>9.741521835327148</v>
+        <v>12.35146999359131</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.148444652557373</v>
+        <v>-2.584873676300049</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.712236404418945</v>
+        <v>-5.013740539550781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25.18436431884766</v>
+        <v>25.83558654785156</v>
       </c>
       <c r="B6" t="n">
-        <v>28.99855422973633</v>
+        <v>28.41649627685547</v>
       </c>
       <c r="C6" t="n">
-        <v>4.39693546295166</v>
+        <v>8.527400016784668</v>
       </c>
       <c r="D6" t="n">
-        <v>9.741521835327148</v>
+        <v>13.43080902099609</v>
       </c>
       <c r="E6" t="n">
-        <v>-7.496873378753662</v>
+        <v>-1.156487941741943</v>
       </c>
       <c r="F6" t="n">
-        <v>-4.890700817108154</v>
+        <v>-2.94720196723938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>23.13064956665039</v>
+        <v>22.70098876953125</v>
       </c>
       <c r="B7" t="n">
-        <v>26.13053131103516</v>
+        <v>27.33099365234375</v>
       </c>
       <c r="C7" t="n">
-        <v>4.32814884185791</v>
+        <v>8.343356132507324</v>
       </c>
       <c r="D7" t="n">
-        <v>11.66948127746582</v>
+        <v>14.79328346252441</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.990907192230225</v>
+        <v>0.2116622924804688</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.386568546295166</v>
+        <v>-0.5259734988212585</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20.82025146484375</v>
+        <v>20.4926643371582</v>
       </c>
       <c r="B8" t="n">
-        <v>24.38430213928223</v>
+        <v>24.78336334228516</v>
       </c>
       <c r="C8" t="n">
-        <v>3.126400709152222</v>
+        <v>8.038628578186035</v>
       </c>
       <c r="D8" t="n">
-        <v>11.54627132415771</v>
+        <v>15.61828804016113</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.603599071502686</v>
+        <v>1.315861701965332</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.909194827079773</v>
+        <v>1.540137648582458</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18.43222808837891</v>
+        <v>17.66557312011719</v>
       </c>
       <c r="B9" t="n">
-        <v>22.27228546142578</v>
+        <v>21.81788635253906</v>
       </c>
       <c r="C9" t="n">
-        <v>1.576317548751831</v>
+        <v>7.451972007751465</v>
       </c>
       <c r="D9" t="n">
-        <v>10.84433364868164</v>
+        <v>15.38330173492432</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.580794811248779</v>
+        <v>2.12132740020752</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6189042329788208</v>
+        <v>2.846965551376343</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16.09037399291992</v>
+        <v>14.52506732940674</v>
       </c>
       <c r="B10" t="n">
-        <v>19.99759864807129</v>
+        <v>19.0103645324707</v>
       </c>
       <c r="C10" t="n">
-        <v>0.155255138874054</v>
+        <v>5.184545516967773</v>
       </c>
       <c r="D10" t="n">
-        <v>9.771525382995605</v>
+        <v>12.85875988006592</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.779629230499268</v>
+        <v>2.675220489501953</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4750102162361145</v>
+        <v>2.846965551376343</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13.86374473571777</v>
+        <v>11.34081268310547</v>
       </c>
       <c r="B11" t="n">
-        <v>17.69580841064453</v>
+        <v>16.66573715209961</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9798385500907898</v>
+        <v>3.34246301651001</v>
       </c>
       <c r="D11" t="n">
-        <v>8.487124443054199</v>
+        <v>11.04617881774902</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.963906764984131</v>
+        <v>3.069398880004883</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4750102162361145</v>
+        <v>3.953972816467285</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.78434753417969</v>
+        <v>8.34722900390625</v>
       </c>
       <c r="B12" t="n">
-        <v>15.47033023834229</v>
+        <v>14.78939437866211</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.723363161087036</v>
+        <v>1.162482976913452</v>
       </c>
       <c r="D12" t="n">
-        <v>7.184548377990723</v>
+        <v>9.041414260864258</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.9986200928688049</v>
+        <v>3.478075981140137</v>
       </c>
       <c r="F12" t="n">
-        <v>2.393181562423706</v>
+        <v>3.52320671081543</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9.857355117797852</v>
+        <v>5.693271636962891</v>
       </c>
       <c r="B13" t="n">
-        <v>13.39266014099121</v>
+        <v>13.15629196166992</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.055571794509888</v>
+        <v>-0.9097421169281006</v>
       </c>
       <c r="D13" t="n">
-        <v>6.060898780822754</v>
+        <v>7.166327953338623</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1390509158372879</v>
+        <v>3.990006446838379</v>
       </c>
       <c r="F13" t="n">
-        <v>3.234888792037964</v>
+        <v>3.22249698638916</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.068222045898438</v>
+        <v>3.381828546524048</v>
       </c>
       <c r="B14" t="n">
-        <v>11.4992847442627</v>
+        <v>11.48061656951904</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.02686619758606</v>
+        <v>-2.677455425262451</v>
       </c>
       <c r="D14" t="n">
-        <v>5.267966270446777</v>
+        <v>5.458517551422119</v>
       </c>
       <c r="E14" t="n">
-        <v>1.411951541900635</v>
+        <v>4.460116386413574</v>
       </c>
       <c r="F14" t="n">
-        <v>4.168237209320068</v>
+        <v>3.113429069519043</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.389955520629883</v>
+        <v>1.307231307029724</v>
       </c>
       <c r="B15" t="n">
-        <v>9.784372329711914</v>
+        <v>9.612972259521484</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.727881669998169</v>
+        <v>-4.177707672119141</v>
       </c>
       <c r="D15" t="n">
-        <v>4.888258934020996</v>
+        <v>3.785805702209473</v>
       </c>
       <c r="E15" t="n">
-        <v>2.786421298980713</v>
+        <v>4.674924850463867</v>
       </c>
       <c r="F15" t="n">
-        <v>5.266957759857178</v>
+        <v>2.997472763061523</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.789249897003174</v>
+        <v>-0.629951536655426</v>
       </c>
       <c r="B16" t="n">
-        <v>8.213970184326172</v>
+        <v>7.606855869293213</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.271186113357544</v>
+        <v>-5.490401744842529</v>
       </c>
       <c r="D16" t="n">
-        <v>4.899992942810059</v>
+        <v>2.060097694396973</v>
       </c>
       <c r="E16" t="n">
-        <v>4.228640079498291</v>
+        <v>4.620477676391602</v>
       </c>
       <c r="F16" t="n">
-        <v>6.530289173126221</v>
+        <v>2.618067741394043</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.237432956695557</v>
+        <v>-2.449029684066772</v>
       </c>
       <c r="B17" t="n">
-        <v>6.737940788269043</v>
+        <v>5.594116687774658</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7682659029960632</v>
+        <v>-6.593522071838379</v>
       </c>
       <c r="D17" t="n">
-        <v>5.215176582336426</v>
+        <v>0.3180533051490784</v>
       </c>
       <c r="E17" t="n">
-        <v>5.692578792572021</v>
+        <v>4.525399208068848</v>
       </c>
       <c r="F17" t="n">
-        <v>7.883523464202881</v>
+        <v>1.892823100090027</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.718780159950256</v>
+        <v>-4.109968662261963</v>
       </c>
       <c r="B18" t="n">
-        <v>5.308467864990234</v>
+        <v>3.669843196868896</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3108856081962585</v>
+        <v>-6.593522071838379</v>
       </c>
       <c r="D18" t="n">
-        <v>5.700997352600098</v>
+        <v>-1.284860491752625</v>
       </c>
       <c r="E18" t="n">
-        <v>7.10900354385376</v>
+        <v>4.664130210876465</v>
       </c>
       <c r="F18" t="n">
-        <v>9.21589183807373</v>
+        <v>0.9038705229759216</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.2366325259208679</v>
+        <v>-5.590625762939453</v>
       </c>
       <c r="B19" t="n">
-        <v>3.901715993881226</v>
+        <v>1.86269199848175</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05238801240921021</v>
+        <v>-8.124274253845215</v>
       </c>
       <c r="D19" t="n">
-        <v>6.232235908508301</v>
+        <v>-2.551636934280396</v>
       </c>
       <c r="E19" t="n">
-        <v>8.420925140380859</v>
+        <v>5.058568000793457</v>
       </c>
       <c r="F19" t="n">
-        <v>10.4576940536499</v>
+        <v>-0.1502109169960022</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.183511734008789</v>
+        <v>-6.893105030059814</v>
       </c>
       <c r="B20" t="n">
-        <v>2.527319431304932</v>
+        <v>0.1989063620567322</v>
       </c>
       <c r="C20" t="n">
-        <v>0.355002224445343</v>
+        <v>-7.96345043182373</v>
       </c>
       <c r="D20" t="n">
-        <v>6.759737968444824</v>
+        <v>-2.551636934280396</v>
       </c>
       <c r="E20" t="n">
-        <v>9.617908477783203</v>
+        <v>5.504202842712402</v>
       </c>
       <c r="F20" t="n">
-        <v>11.57276630401611</v>
+        <v>-1.086475968360901</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-2.500868320465088</v>
+        <v>-8.038792610168457</v>
       </c>
       <c r="B21" t="n">
-        <v>1.218099594116211</v>
+        <v>-1.269214034080505</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7125499844551086</v>
+        <v>-7.22730541229248</v>
       </c>
       <c r="D21" t="n">
-        <v>7.331377983093262</v>
+        <v>-4.145977973937988</v>
       </c>
       <c r="E21" t="n">
-        <v>10.68937492370605</v>
+        <v>5.833980560302734</v>
       </c>
       <c r="F21" t="n">
-        <v>12.53208065032959</v>
+        <v>-1.872762322425842</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-3.683346748352051</v>
+        <v>-9.053469657897949</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01200461387634277</v>
+        <v>-2.488678216934204</v>
       </c>
       <c r="C22" t="n">
-        <v>1.281243085861206</v>
+        <v>-6.012345314025879</v>
       </c>
       <c r="D22" t="n">
-        <v>8.05751895904541</v>
+        <v>-3.890288114547729</v>
       </c>
       <c r="E22" t="n">
-        <v>11.60043334960938</v>
+        <v>6.038849830627441</v>
       </c>
       <c r="F22" t="n">
-        <v>13.31389713287354</v>
+        <v>-2.469375371932983</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-4.719986915588379</v>
+        <v>-9.053469657897949</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.066566824913025</v>
+        <v>-2.488678216934204</v>
       </c>
       <c r="C23" t="n">
-        <v>2.173474073410034</v>
+        <v>-4.432637214660645</v>
       </c>
       <c r="D23" t="n">
-        <v>9.058451652526855</v>
+        <v>-3.10187029838562</v>
       </c>
       <c r="E23" t="n">
-        <v>12.31420135498047</v>
+        <v>6.165186882019043</v>
       </c>
       <c r="F23" t="n">
-        <v>13.89901447296143</v>
+        <v>-2.822959661483765</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-4.719986915588379</v>
+        <v>-10.86709308624268</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.066566824913025</v>
+        <v>-4.426520347595215</v>
       </c>
       <c r="C24" t="n">
-        <v>3.43196177482605</v>
+        <v>-1.522744417190552</v>
       </c>
       <c r="D24" t="n">
-        <v>10.42271900177002</v>
+        <v>-1.854845881462097</v>
       </c>
       <c r="E24" t="n">
-        <v>12.78773498535156</v>
+        <v>6.147577285766602</v>
       </c>
       <c r="F24" t="n">
-        <v>14.28266048431396</v>
+        <v>-2.962497472763062</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-6.518285274505615</v>
+        <v>-11.57278156280518</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.961504459381104</v>
+        <v>-4.992009162902832</v>
       </c>
       <c r="C25" t="n">
-        <v>5.043286323547363</v>
+        <v>0.2702529430389404</v>
       </c>
       <c r="D25" t="n">
-        <v>13.30050277709961</v>
+        <v>0.8876839876174927</v>
       </c>
       <c r="E25" t="n">
-        <v>12.94051361083984</v>
+        <v>5.741490364074707</v>
       </c>
       <c r="F25" t="n">
-        <v>14.44459056854248</v>
+        <v>-3.031298875808716</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-7.176984310150146</v>
+        <v>-12.08970737457275</v>
       </c>
       <c r="B26" t="n">
-        <v>-3.643978595733643</v>
+        <v>-5.454590797424316</v>
       </c>
       <c r="C26" t="n">
-        <v>8.106067657470703</v>
+        <v>2.742794036865234</v>
       </c>
       <c r="D26" t="n">
-        <v>15.22294330596924</v>
+        <v>2.763236522674561</v>
       </c>
       <c r="E26" t="n">
-        <v>12.64590835571289</v>
+        <v>3.610322952270508</v>
       </c>
       <c r="F26" t="n">
-        <v>14.23840618133545</v>
+        <v>-3.228389263153076</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-7.696614742279053</v>
+        <v>-12.26939105987549</v>
       </c>
       <c r="B27" t="n">
-        <v>-4.1418137550354</v>
+        <v>-5.827622413635254</v>
       </c>
       <c r="C27" t="n">
-        <v>10.06570816040039</v>
+        <v>5.983297348022461</v>
       </c>
       <c r="D27" t="n">
-        <v>17.87036895751953</v>
+        <v>5.318819999694824</v>
       </c>
       <c r="E27" t="n">
-        <v>10.56417942047119</v>
+        <v>1.57849907875061</v>
       </c>
       <c r="F27" t="n">
-        <v>12.26610660552979</v>
+        <v>-3.871747732162476</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-7.919541835784912</v>
+        <v>-11.93835926055908</v>
       </c>
       <c r="B28" t="n">
-        <v>-4.340855121612549</v>
+        <v>-6.058903694152832</v>
       </c>
       <c r="C28" t="n">
-        <v>12.80624866485596</v>
+        <v>10.10637378692627</v>
       </c>
       <c r="D28" t="n">
-        <v>21.272216796875</v>
+        <v>8.428638458251953</v>
       </c>
       <c r="E28" t="n">
-        <v>8.186336517333984</v>
+        <v>-1.215418457984924</v>
       </c>
       <c r="F28" t="n">
-        <v>9.864574432373047</v>
+        <v>-7.085625171661377</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-7.63599157333374</v>
+        <v>-10.9097375869751</v>
       </c>
       <c r="B29" t="n">
-        <v>-4.037718296051025</v>
+        <v>-5.998391151428223</v>
       </c>
       <c r="C29" t="n">
-        <v>16.44378662109375</v>
+        <v>15.15368843078613</v>
       </c>
       <c r="D29" t="n">
-        <v>25.47747993469238</v>
+        <v>12.04848098754883</v>
       </c>
       <c r="E29" t="n">
-        <v>4.333477973937988</v>
+        <v>-4.320606231689453</v>
       </c>
       <c r="F29" t="n">
-        <v>5.951388835906982</v>
+        <v>-10.54408073425293</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-6.586205959320068</v>
+        <v>-7.671877861022949</v>
       </c>
       <c r="B30" t="n">
-        <v>-3.056828022003174</v>
+        <v>-5.463269233703613</v>
       </c>
       <c r="C30" t="n">
-        <v>21.11053466796875</v>
+        <v>21.0980110168457</v>
       </c>
       <c r="D30" t="n">
-        <v>30.50497817993164</v>
+        <v>16.32839965820312</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.870579719543457</v>
+        <v>-7.308969974517822</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7370457649230957</v>
+        <v>-15.54416465759277</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-3.113144397735596</v>
+        <v>-5.138273239135742</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1178412437438965</v>
+        <v>-3.008478164672852</v>
       </c>
       <c r="C31" t="n">
-        <v>26.82816123962402</v>
+        <v>27.78864669799805</v>
       </c>
       <c r="D31" t="n">
-        <v>36.26954650878906</v>
+        <v>21.48624038696289</v>
       </c>
       <c r="E31" t="n">
-        <v>-6.719797611236572</v>
+        <v>-10.03390693664551</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.96049976348877</v>
+        <v>-20.83505630493164</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.4689701795578003</v>
+        <v>-1.752375364303589</v>
       </c>
       <c r="B32" t="n">
-        <v>2.466393947601318</v>
+        <v>-0.805057168006897</v>
       </c>
       <c r="C32" t="n">
-        <v>33.40145874023438</v>
+        <v>34.96141815185547</v>
       </c>
       <c r="D32" t="n">
-        <v>42.49921035766602</v>
+        <v>27.63023948669434</v>
       </c>
       <c r="E32" t="n">
-        <v>-12.07654857635498</v>
+        <v>-12.37813949584961</v>
       </c>
       <c r="F32" t="n">
-        <v>-9.799932479858398</v>
+        <v>-24.6115779876709</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.030867338180542</v>
+        <v>2.190078735351562</v>
       </c>
       <c r="B33" t="n">
-        <v>5.50727367401123</v>
+        <v>2.204355001449585</v>
       </c>
       <c r="C33" t="n">
-        <v>40.37563323974609</v>
+        <v>42.17399215698242</v>
       </c>
       <c r="D33" t="n">
-        <v>48.71872711181641</v>
+        <v>34.55231475830078</v>
       </c>
       <c r="E33" t="n">
-        <v>-15.65449142456055</v>
+        <v>-14.07170677185059</v>
       </c>
       <c r="F33" t="n">
-        <v>-12.61366748809814</v>
+        <v>-25.92355346679688</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7.057008266448975</v>
+        <v>6.39610481262207</v>
       </c>
       <c r="B34" t="n">
-        <v>8.969526290893555</v>
+        <v>5.68722677230835</v>
       </c>
       <c r="C34" t="n">
-        <v>47.10581207275391</v>
+        <v>48.7973518371582</v>
       </c>
       <c r="D34" t="n">
-        <v>54.31951141357422</v>
+        <v>41.74890899658203</v>
       </c>
       <c r="E34" t="n">
-        <v>-16.73704528808594</v>
+        <v>-14.07170677185059</v>
       </c>
       <c r="F34" t="n">
-        <v>-12.61366748809814</v>
+        <v>-25.92355346679688</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>11.30039596557617</v>
+        <v>10.5863733291626</v>
       </c>
       <c r="B35" t="n">
-        <v>12.62313175201416</v>
+        <v>9.372184753417969</v>
       </c>
       <c r="C35" t="n">
-        <v>52.96131896972656</v>
+        <v>54.20205307006836</v>
       </c>
       <c r="D35" t="n">
-        <v>58.73102569580078</v>
+        <v>48.53680419921875</v>
       </c>
       <c r="E35" t="n">
-        <v>-15.42965507507324</v>
+        <v>-15.73126220703125</v>
       </c>
       <c r="F35" t="n">
-        <v>-11.27526378631592</v>
+        <v>-22.12366485595703</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>15.50992012023926</v>
+        <v>14.54107284545898</v>
       </c>
       <c r="B36" t="n">
-        <v>16.28717422485352</v>
+        <v>13.07933521270752</v>
       </c>
       <c r="C36" t="n">
-        <v>57.43720245361328</v>
+        <v>57.99599075317383</v>
       </c>
       <c r="D36" t="n">
-        <v>61.56212615966797</v>
+        <v>54.21681976318359</v>
       </c>
       <c r="E36" t="n">
-        <v>-12.42845630645752</v>
+        <v>-14.86071109771729</v>
       </c>
       <c r="F36" t="n">
-        <v>-8.105599403381348</v>
+        <v>-19.34039306640625</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>19.50490188598633</v>
+        <v>18.13815307617188</v>
       </c>
       <c r="B37" t="n">
-        <v>19.79352569580078</v>
+        <v>16.69306755065918</v>
       </c>
       <c r="C37" t="n">
-        <v>60.21489715576172</v>
+        <v>60.08051300048828</v>
       </c>
       <c r="D37" t="n">
-        <v>62.59899139404297</v>
+        <v>58.23731994628906</v>
       </c>
       <c r="E37" t="n">
-        <v>-8.635122299194336</v>
+        <v>-12.17622852325439</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.465160369873047</v>
+        <v>-16.27583503723145</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>23.16200637817383</v>
+        <v>21.34185409545898</v>
       </c>
       <c r="B38" t="n">
-        <v>22.99783706665039</v>
+        <v>20.11358642578125</v>
       </c>
       <c r="C38" t="n">
-        <v>60.21489715576172</v>
+        <v>60.08051300048828</v>
       </c>
       <c r="D38" t="n">
-        <v>62.59899139404297</v>
+        <v>60.30141448974609</v>
       </c>
       <c r="E38" t="n">
-        <v>-4.791173934936523</v>
+        <v>-10.1312427520752</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.9351655244827271</v>
+        <v>-13.14931583404541</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>26.39105987548828</v>
+        <v>24.1513786315918</v>
       </c>
       <c r="B39" t="n">
-        <v>25.78562545776367</v>
+        <v>23.22099304199219</v>
       </c>
       <c r="C39" t="n">
-        <v>60.79702758789062</v>
+        <v>59.49945449829102</v>
       </c>
       <c r="D39" t="n">
-        <v>58.84436416625977</v>
+        <v>60.30141448974609</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.377225637435913</v>
+        <v>-7.499300003051758</v>
       </c>
       <c r="F39" t="n">
-        <v>2.105374097824097</v>
+        <v>-10.0631628036499</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>29.13001823425293</v>
+        <v>26.54567337036133</v>
       </c>
       <c r="B40" t="n">
-        <v>28.05874443054199</v>
+        <v>25.87548446655273</v>
       </c>
       <c r="C40" t="n">
-        <v>57.96549224853516</v>
+        <v>56.38011169433594</v>
       </c>
       <c r="D40" t="n">
-        <v>54.84790802001953</v>
+        <v>58.35818099975586</v>
       </c>
       <c r="E40" t="n">
-        <v>1.375831961631775</v>
+        <v>-4.698620319366455</v>
       </c>
       <c r="F40" t="n">
-        <v>4.399844169616699</v>
+        <v>-7.167904376983643</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>31.33990859985352</v>
+        <v>28.46001815795898</v>
       </c>
       <c r="B41" t="n">
-        <v>29.76438903808594</v>
+        <v>27.94126510620117</v>
       </c>
       <c r="C41" t="n">
-        <v>53.68117523193359</v>
+        <v>51.27140045166016</v>
       </c>
       <c r="D41" t="n">
-        <v>49.32259368896484</v>
+        <v>54.21233367919922</v>
       </c>
       <c r="E41" t="n">
-        <v>3.379062652587891</v>
+        <v>-2.129606485366821</v>
       </c>
       <c r="F41" t="n">
-        <v>5.808025360107422</v>
+        <v>-4.660756587982178</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>32.98814392089844</v>
+        <v>29.81974983215332</v>
       </c>
       <c r="B42" t="n">
-        <v>30.89135551452637</v>
+        <v>29.33720779418945</v>
       </c>
       <c r="C42" t="n">
-        <v>48.10028076171875</v>
+        <v>44.08264923095703</v>
       </c>
       <c r="D42" t="n">
-        <v>42.63388442993164</v>
+        <v>47.90816879272461</v>
       </c>
       <c r="E42" t="n">
-        <v>4.56744384765625</v>
+        <v>-0.1153527498245239</v>
       </c>
       <c r="F42" t="n">
-        <v>5.808025360107422</v>
+        <v>-2.732985973358154</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>34.0516357421875</v>
+        <v>29.81974983215332</v>
       </c>
       <c r="B43" t="n">
-        <v>30.89135551452637</v>
+        <v>29.33720779418945</v>
       </c>
       <c r="C43" t="n">
-        <v>41.45927429199219</v>
+        <v>35.39873123168945</v>
       </c>
       <c r="D43" t="n">
-        <v>35.21969604492188</v>
+        <v>39.98762512207031</v>
       </c>
       <c r="E43" t="n">
-        <v>4.56744384765625</v>
+        <v>1.13939094543457</v>
       </c>
       <c r="F43" t="n">
-        <v>6.778552532196045</v>
+        <v>-1.478331804275513</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>34.0516357421875</v>
+        <v>31.41557884216309</v>
       </c>
       <c r="B44" t="n">
-        <v>32.05651092529297</v>
+        <v>30.96265602111816</v>
       </c>
       <c r="C44" t="n">
-        <v>34.06595230102539</v>
+        <v>26.49169921875</v>
       </c>
       <c r="D44" t="n">
-        <v>27.57735061645508</v>
+        <v>31.65412712097168</v>
       </c>
       <c r="E44" t="n">
-        <v>5.259269237518311</v>
+        <v>1.13939094543457</v>
       </c>
       <c r="F44" t="n">
-        <v>5.592593669891357</v>
+        <v>-1.478331804275513</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>35.05704879760742</v>
+        <v>31.36178588867188</v>
       </c>
       <c r="B45" t="n">
-        <v>31.77842330932617</v>
+        <v>31.0900821685791</v>
       </c>
       <c r="C45" t="n">
-        <v>26.28875541687012</v>
+        <v>18.57412147521973</v>
       </c>
       <c r="D45" t="n">
-        <v>20.20854187011719</v>
+        <v>24.07755661010742</v>
       </c>
       <c r="E45" t="n">
-        <v>4.205178737640381</v>
+        <v>2.119836807250977</v>
       </c>
       <c r="F45" t="n">
-        <v>4.129766941070557</v>
+        <v>-0.2211399674415588</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>34.5882568359375</v>
+        <v>31.36532402038574</v>
       </c>
       <c r="B46" t="n">
-        <v>31.33286285400391</v>
+        <v>31.24015045166016</v>
       </c>
       <c r="C46" t="n">
-        <v>18.58515167236328</v>
+        <v>12.31632995605469</v>
       </c>
       <c r="D46" t="n">
-        <v>13.68685913085938</v>
+        <v>17.85895538330078</v>
       </c>
       <c r="E46" t="n">
-        <v>3.111948490142822</v>
+        <v>1.455923080444336</v>
       </c>
       <c r="F46" t="n">
-        <v>2.92284369468689</v>
+        <v>-0.5202742218971252</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>33.8651237487793</v>
+        <v>31.54145812988281</v>
       </c>
       <c r="B47" t="n">
-        <v>30.94042587280273</v>
+        <v>31.32508659362793</v>
       </c>
       <c r="C47" t="n">
-        <v>11.52409934997559</v>
+        <v>7.956752300262451</v>
       </c>
       <c r="D47" t="n">
-        <v>8.541607856750488</v>
+        <v>13.16290855407715</v>
       </c>
       <c r="E47" t="n">
-        <v>2.430430889129639</v>
+        <v>0.7583150863647461</v>
       </c>
       <c r="F47" t="n">
-        <v>2.34175181388855</v>
+        <v>-0.919495165348053</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>33.12637710571289</v>
+        <v>31.75937652587891</v>
       </c>
       <c r="B48" t="n">
-        <v>30.6898136138916</v>
+        <v>31.33608245849609</v>
       </c>
       <c r="C48" t="n">
-        <v>5.733715534210205</v>
+        <v>5.438335418701172</v>
       </c>
       <c r="D48" t="n">
-        <v>5.14095401763916</v>
+        <v>10.0001049041748</v>
       </c>
       <c r="E48" t="n">
-        <v>2.130645275115967</v>
+        <v>0.1865310668945312</v>
       </c>
       <c r="F48" t="n">
-        <v>2.251848936080933</v>
+        <v>-1.421818852424622</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>32.55458068847656</v>
+        <v>31.82816886901855</v>
       </c>
       <c r="B49" t="n">
-        <v>30.52915382385254</v>
+        <v>31.25951766967773</v>
       </c>
       <c r="C49" t="n">
-        <v>1.769416451454163</v>
+        <v>5.438335418701172</v>
       </c>
       <c r="D49" t="n">
-        <v>3.59133243560791</v>
+        <v>8.343000411987305</v>
       </c>
       <c r="E49" t="n">
-        <v>1.850016117095947</v>
+        <v>-0.3657693862915039</v>
       </c>
       <c r="F49" t="n">
-        <v>2.175262212753296</v>
+        <v>-2.209151029586792</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>32.23835372924805</v>
+        <v>31.68557929992676</v>
       </c>
       <c r="B50" t="n">
-        <v>30.33648681640625</v>
+        <v>31.00975036621094</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.1994093060493469</v>
+        <v>3.628109693527222</v>
       </c>
       <c r="D50" t="n">
-        <v>3.59133243560791</v>
+        <v>8.343000411987305</v>
       </c>
       <c r="E50" t="n">
-        <v>1.029963970184326</v>
+        <v>-1.286046504974365</v>
       </c>
       <c r="F50" t="n">
-        <v>1.45571494102478</v>
+        <v>-3.523530006408691</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>32.15205383300781</v>
+        <v>31.37312889099121</v>
       </c>
       <c r="B51" t="n">
-        <v>31.70835113525391</v>
+        <v>32.16577911376953</v>
       </c>
       <c r="C51" t="n">
-        <v>5.818822860717773</v>
+        <v>9.155096054077148</v>
       </c>
       <c r="D51" t="n">
-        <v>10.0675630569458</v>
+        <v>9.784958839416504</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.805765688419342</v>
+        <v>-2.891627788543701</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.3373740017414093</v>
+        <v>-5.352705478668213</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>33.86725997924805</v>
+        <v>30.9892406463623</v>
       </c>
       <c r="B52" t="n">
-        <v>33.21954345703125</v>
+        <v>24.72314834594727</v>
       </c>
       <c r="C52" t="n">
-        <v>8.035755157470703</v>
+        <v>14.50737762451172</v>
       </c>
       <c r="D52" t="n">
-        <v>11.37777328491211</v>
+        <v>17.05051803588867</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.286432981491089</v>
+        <v>-6.01930570602417</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.299399852752686</v>
+        <v>-7.152239799499512</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>33.28836441040039</v>
+        <v>30.9892406463623</v>
       </c>
       <c r="B53" t="n">
-        <v>33.21954345703125</v>
+        <v>20.65585899353027</v>
       </c>
       <c r="C53" t="n">
-        <v>4.786139011383057</v>
+        <v>14.50737762451172</v>
       </c>
       <c r="D53" t="n">
-        <v>8.346981048583984</v>
+        <v>18.81740570068359</v>
       </c>
       <c r="E53" t="n">
-        <v>-4.814302444458008</v>
+        <v>-6.01930570602417</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.786365270614624</v>
+        <v>-5.257017612457275</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>29.64578247070312</v>
+        <v>30.40732765197754</v>
       </c>
       <c r="B54" t="n">
-        <v>33.17958068847656</v>
+        <v>20.65585899353027</v>
       </c>
       <c r="C54" t="n">
-        <v>2.09797739982605</v>
+        <v>13.31235599517822</v>
       </c>
       <c r="D54" t="n">
-        <v>6.528541088104248</v>
+        <v>18.81740570068359</v>
       </c>
       <c r="E54" t="n">
-        <v>-4.814302444458008</v>
+        <v>-4.11625862121582</v>
       </c>
       <c r="F54" t="n">
-        <v>-3.786365270614624</v>
+        <v>-5.83431339263916</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>27.59616088867188</v>
+        <v>27.80004119873047</v>
       </c>
       <c r="B55" t="n">
-        <v>31.75781059265137</v>
+        <v>22.19525146484375</v>
       </c>
       <c r="C55" t="n">
-        <v>2.09797739982605</v>
+        <v>11.00657558441162</v>
       </c>
       <c r="D55" t="n">
-        <v>6.528541088104248</v>
+        <v>15.44827747344971</v>
       </c>
       <c r="E55" t="n">
-        <v>-6.5964674949646</v>
+        <v>-2.486835718154907</v>
       </c>
       <c r="F55" t="n">
-        <v>-5.700323581695557</v>
+        <v>-6.214094161987305</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>26.14958572387695</v>
+        <v>26.39518356323242</v>
       </c>
       <c r="B56" t="n">
-        <v>30.49867248535156</v>
+        <v>25.25937271118164</v>
       </c>
       <c r="C56" t="n">
-        <v>2.776132583618164</v>
+        <v>8.921221733093262</v>
       </c>
       <c r="D56" t="n">
-        <v>8.945502281188965</v>
+        <v>13.92969131469727</v>
       </c>
       <c r="E56" t="n">
-        <v>-8.076149940490723</v>
+        <v>-0.9195653200149536</v>
       </c>
       <c r="F56" t="n">
-        <v>-6.930169582366943</v>
+        <v>-5.904962062835693</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>24.83934211730957</v>
+        <v>25.06122398376465</v>
       </c>
       <c r="B57" t="n">
-        <v>29.07666397094727</v>
+        <v>27.77285766601562</v>
       </c>
       <c r="C57" t="n">
-        <v>4.064890384674072</v>
+        <v>7.198599815368652</v>
       </c>
       <c r="D57" t="n">
-        <v>10.4121265411377</v>
+        <v>13.92969131469727</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.992960453033447</v>
+        <v>0.3139662146568298</v>
       </c>
       <c r="F57" t="n">
-        <v>-5.023673057556152</v>
+        <v>-3.33950138092041</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>23.10167121887207</v>
+        <v>23.76236343383789</v>
       </c>
       <c r="B58" t="n">
-        <v>27.23350524902344</v>
+        <v>27.77285766601562</v>
       </c>
       <c r="C58" t="n">
-        <v>4.064890384674072</v>
+        <v>5.846768379211426</v>
       </c>
       <c r="D58" t="n">
-        <v>10.4121265411377</v>
+        <v>11.93418598175049</v>
       </c>
       <c r="E58" t="n">
-        <v>-6.275737285614014</v>
+        <v>0.3139662146568298</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.315300464630127</v>
+        <v>-1.095844268798828</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>20.89523315429688</v>
+        <v>22.05988502502441</v>
       </c>
       <c r="B59" t="n">
-        <v>25.04194259643555</v>
+        <v>27.90312576293945</v>
       </c>
       <c r="C59" t="n">
-        <v>3.108990669250488</v>
+        <v>5.846768379211426</v>
       </c>
       <c r="D59" t="n">
-        <v>11.72135829925537</v>
+        <v>12.27122974395752</v>
       </c>
       <c r="E59" t="n">
-        <v>-4.508283615112305</v>
+        <v>1.93238353729248</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.741378426551819</v>
+        <v>1.409906387329102</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>18.52163314819336</v>
+        <v>19.54460525512695</v>
       </c>
       <c r="B60" t="n">
-        <v>22.6577262878418</v>
+        <v>24.62487030029297</v>
       </c>
       <c r="C60" t="n">
-        <v>1.630443453788757</v>
+        <v>4.104550361633301</v>
       </c>
       <c r="D60" t="n">
-        <v>10.91326999664307</v>
+        <v>12.83072948455811</v>
       </c>
       <c r="E60" t="n">
-        <v>-3.347903728485107</v>
+        <v>2.080340385437012</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.4561073482036591</v>
+        <v>3.211442947387695</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>16.2236442565918</v>
+        <v>16.25595283508301</v>
       </c>
       <c r="B61" t="n">
-        <v>20.21923446655273</v>
+        <v>20.74670791625977</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1978505253791809</v>
+        <v>4.299483299255371</v>
       </c>
       <c r="D61" t="n">
-        <v>9.896811485290527</v>
+        <v>12.88958930969238</v>
       </c>
       <c r="E61" t="n">
-        <v>-2.640749454498291</v>
+        <v>2.333012580871582</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5962283611297607</v>
+        <v>3.211442947387695</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>14.08557510375977</v>
+        <v>12.61350059509277</v>
       </c>
       <c r="B62" t="n">
-        <v>17.81075286865234</v>
+        <v>17.44058227539062</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.9448671340942383</v>
+        <v>4.258389472961426</v>
       </c>
       <c r="D62" t="n">
-        <v>8.757950782775879</v>
+        <v>11.93818855285645</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.966185569763184</v>
+        <v>2.848325729370117</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5962283611297607</v>
+        <v>4.421030044555664</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>12.10140895843506</v>
+        <v>9.085940361022949</v>
       </c>
       <c r="B63" t="n">
-        <v>15.50924777984619</v>
+        <v>15.27104377746582</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.9448671340942383</v>
+        <v>1.940276861190796</v>
       </c>
       <c r="D63" t="n">
-        <v>7.578938484191895</v>
+        <v>8.880602836608887</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.095322608947754</v>
+        <v>3.651305198669434</v>
       </c>
       <c r="F63" t="n">
-        <v>2.447772741317749</v>
+        <v>3.147021293640137</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>10.24479103088379</v>
+        <v>5.984115600585938</v>
       </c>
       <c r="B64" t="n">
-        <v>13.38080024719238</v>
+        <v>14.01122951507568</v>
       </c>
       <c r="C64" t="n">
-        <v>-2.468791246414185</v>
+        <v>0.03562575578689575</v>
       </c>
       <c r="D64" t="n">
-        <v>6.511754035949707</v>
+        <v>7.198280334472656</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.00663619302213192</v>
+        <v>4.666101455688477</v>
       </c>
       <c r="F64" t="n">
-        <v>3.285041570663452</v>
+        <v>2.114534378051758</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>8.490792274475098</v>
+        <v>3.416754961013794</v>
       </c>
       <c r="B65" t="n">
-        <v>11.46515560150146</v>
+        <v>14.01122951507568</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.440320253372192</v>
+        <v>-2.08268666267395</v>
       </c>
       <c r="D65" t="n">
-        <v>5.714982032775879</v>
+        <v>5.42287015914917</v>
       </c>
       <c r="E65" t="n">
-        <v>1.236287593841553</v>
+        <v>5.602482795715332</v>
       </c>
       <c r="F65" t="n">
-        <v>4.210873126983643</v>
+        <v>1.57029139995575</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6.816636085510254</v>
+        <v>1.325189471244812</v>
       </c>
       <c r="B66" t="n">
-        <v>9.758567810058594</v>
+        <v>12.04324436187744</v>
       </c>
       <c r="C66" t="n">
-        <v>-2.088805437088013</v>
+        <v>-3.950288772583008</v>
       </c>
       <c r="D66" t="n">
-        <v>5.295533180236816</v>
+        <v>3.746359348297119</v>
       </c>
       <c r="E66" t="n">
-        <v>2.584535121917725</v>
+        <v>6.098789215087891</v>
       </c>
       <c r="F66" t="n">
-        <v>5.298238277435303</v>
+        <v>1.238173842430115</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5.199143409729004</v>
+        <v>-0.418021023273468</v>
       </c>
       <c r="B67" t="n">
-        <v>8.221354484558105</v>
+        <v>10.55753993988037</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.536927461624146</v>
+        <v>-5.310531139373779</v>
       </c>
       <c r="D67" t="n">
-        <v>5.261540412902832</v>
+        <v>2.208402395248413</v>
       </c>
       <c r="E67" t="n">
-        <v>3.997385501861572</v>
+        <v>6.088224411010742</v>
       </c>
       <c r="F67" t="n">
-        <v>6.553246021270752</v>
+        <v>0.6931623816490173</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3.620317459106445</v>
+        <v>-1.935945630073547</v>
       </c>
       <c r="B68" t="n">
-        <v>6.793317794799805</v>
+        <v>8.613011360168457</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.920642077922821</v>
+        <v>-5.310531139373779</v>
       </c>
       <c r="D68" t="n">
-        <v>5.54122257232666</v>
+        <v>0.7888531088829041</v>
       </c>
       <c r="E68" t="n">
-        <v>5.430348873138428</v>
+        <v>5.890512466430664</v>
       </c>
       <c r="F68" t="n">
-        <v>7.908523082733154</v>
+        <v>-0.2715306878089905</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.072811603546143</v>
+        <v>-3.295117139816284</v>
       </c>
       <c r="B69" t="n">
-        <v>5.415114402770996</v>
+        <v>6.717381477355957</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.3562614321708679</v>
+        <v>-6.986002922058105</v>
       </c>
       <c r="D69" t="n">
-        <v>6.009995460510254</v>
+        <v>-0.5037910938262939</v>
       </c>
       <c r="E69" t="n">
-        <v>6.817846775054932</v>
+        <v>5.944408416748047</v>
       </c>
       <c r="F69" t="n">
-        <v>9.259757041931152</v>
+        <v>-1.538929104804993</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.562421441078186</v>
+        <v>-4.512540817260742</v>
       </c>
       <c r="B70" t="n">
-        <v>4.051016807556152</v>
+        <v>5.119811058044434</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08924561738967896</v>
+        <v>-6.984740257263184</v>
       </c>
       <c r="D70" t="n">
-        <v>6.540862083435059</v>
+        <v>-1.585664749145508</v>
       </c>
       <c r="E70" t="n">
-        <v>8.106143951416016</v>
+        <v>6.352152824401855</v>
       </c>
       <c r="F70" t="n">
-        <v>10.54105472564697</v>
+        <v>-2.864442348480225</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.8871200680732727</v>
+        <v>-5.600120544433594</v>
       </c>
       <c r="B71" t="n">
-        <v>2.701127290725708</v>
+        <v>3.7990882396698</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4328182339668274</v>
+        <v>-6.70461368560791</v>
       </c>
       <c r="D71" t="n">
-        <v>7.071127891540527</v>
+        <v>-1.585664749145508</v>
       </c>
       <c r="E71" t="n">
-        <v>9.287557601928711</v>
+        <v>6.840630531311035</v>
       </c>
       <c r="F71" t="n">
-        <v>11.71213626861572</v>
+        <v>-4.068745613098145</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-2.234933853149414</v>
+        <v>-5.600120544433594</v>
       </c>
       <c r="B72" t="n">
-        <v>1.396936774253845</v>
+        <v>2.657564878463745</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7865322232246399</v>
+        <v>-6.038796424865723</v>
       </c>
       <c r="D72" t="n">
-        <v>7.633305549621582</v>
+        <v>-3.022331953048706</v>
       </c>
       <c r="E72" t="n">
-        <v>10.34449768066406</v>
+        <v>7.139020919799805</v>
       </c>
       <c r="F72" t="n">
-        <v>12.73372364044189</v>
+        <v>-5.090002536773682</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-3.439904928207397</v>
+        <v>-7.50032377243042</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1849021315574646</v>
+        <v>1.690733671188354</v>
       </c>
       <c r="C73" t="n">
-        <v>1.322954893112183</v>
+        <v>-4.885994911193848</v>
       </c>
       <c r="D73" t="n">
-        <v>8.334044456481934</v>
+        <v>-2.763579130172729</v>
       </c>
       <c r="E73" t="n">
-        <v>11.23087310791016</v>
+        <v>7.199705123901367</v>
       </c>
       <c r="F73" t="n">
-        <v>13.56695461273193</v>
+        <v>-5.940333843231201</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-4.476882457733154</v>
+        <v>-8.158982276916504</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.8949673175811768</v>
+        <v>0.9445217251777649</v>
       </c>
       <c r="C74" t="n">
-        <v>2.190298795700073</v>
+        <v>-3.291287660598755</v>
       </c>
       <c r="D74" t="n">
-        <v>9.299567222595215</v>
+        <v>-1.933180689811707</v>
       </c>
       <c r="E74" t="n">
-        <v>11.90307426452637</v>
+        <v>7.107109069824219</v>
       </c>
       <c r="F74" t="n">
-        <v>14.17851543426514</v>
+        <v>-6.553574085235596</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-4.476882457733154</v>
+        <v>-8.695004463195801</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.8949673175811768</v>
+        <v>0.408285915851593</v>
       </c>
       <c r="C75" t="n">
-        <v>3.457115888595581</v>
+        <v>-0.3830434381961823</v>
       </c>
       <c r="D75" t="n">
-        <v>10.62476921081543</v>
+        <v>-0.6686238050460815</v>
       </c>
       <c r="E75" t="n">
-        <v>12.31817245483398</v>
+        <v>6.871101379394531</v>
       </c>
       <c r="F75" t="n">
-        <v>14.55842876434326</v>
+        <v>-6.898858547210693</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-6.2079176902771</v>
+        <v>-9.139004707336426</v>
       </c>
       <c r="B76" t="n">
-        <v>-2.75358247756958</v>
+        <v>0.02294426970183849</v>
       </c>
       <c r="C76" t="n">
-        <v>5.10939884185791</v>
+        <v>1.286042451858521</v>
       </c>
       <c r="D76" t="n">
-        <v>13.42820739746094</v>
+        <v>0.9242469072341919</v>
       </c>
       <c r="E76" t="n">
-        <v>12.40152931213379</v>
+        <v>6.303892135620117</v>
       </c>
       <c r="F76" t="n">
-        <v>14.68807315826416</v>
+        <v>-7.062898635864258</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-6.760367870330811</v>
+        <v>-9.450314521789551</v>
       </c>
       <c r="B77" t="n">
-        <v>-3.37194299697876</v>
+        <v>-0.257699191570282</v>
       </c>
       <c r="C77" t="n">
-        <v>8.239543914794922</v>
+        <v>3.522440910339355</v>
       </c>
       <c r="D77" t="n">
-        <v>15.2822208404541</v>
+        <v>4.025256156921387</v>
       </c>
       <c r="E77" t="n">
-        <v>12.04046058654785</v>
+        <v>4.061904430389404</v>
       </c>
       <c r="F77" t="n">
-        <v>14.42882251739502</v>
+        <v>-7.208141803741455</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-7.163825511932373</v>
+        <v>-9.489811897277832</v>
       </c>
       <c r="B78" t="n">
-        <v>-3.802013874053955</v>
+        <v>-0.4664756655693054</v>
       </c>
       <c r="C78" t="n">
-        <v>10.1922550201416</v>
+        <v>6.436751842498779</v>
       </c>
       <c r="D78" t="n">
-        <v>17.82522583007812</v>
+        <v>6.004470825195312</v>
       </c>
       <c r="E78" t="n">
-        <v>9.902024269104004</v>
+        <v>2.037405014038086</v>
       </c>
       <c r="F78" t="n">
-        <v>12.37265586853027</v>
+        <v>-7.644641399383545</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-7.299367427825928</v>
+        <v>-9.128754615783691</v>
       </c>
       <c r="B79" t="n">
-        <v>-3.951881885528564</v>
+        <v>-0.6178104281425476</v>
       </c>
       <c r="C79" t="n">
-        <v>12.89554786682129</v>
+        <v>10.20791912078857</v>
       </c>
       <c r="D79" t="n">
-        <v>21.10441589355469</v>
+        <v>8.611669540405273</v>
       </c>
       <c r="E79" t="n">
-        <v>7.535995483398438</v>
+        <v>-0.7147679328918457</v>
       </c>
       <c r="F79" t="n">
-        <v>9.950557708740234</v>
+        <v>-9.958742141723633</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-6.975966930389404</v>
+        <v>-8.199334144592285</v>
       </c>
       <c r="B80" t="n">
-        <v>-3.629644870758057</v>
+        <v>-0.6592876315116882</v>
       </c>
       <c r="C80" t="n">
-        <v>16.49129104614258</v>
+        <v>14.92501831054688</v>
       </c>
       <c r="D80" t="n">
-        <v>25.18910980224609</v>
+        <v>11.74359130859375</v>
       </c>
       <c r="E80" t="n">
-        <v>3.737426042556763</v>
+        <v>-3.73331880569458</v>
       </c>
       <c r="F80" t="n">
-        <v>6.078892707824707</v>
+        <v>-12.65740203857422</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-5.910090923309326</v>
+        <v>-5.244693279266357</v>
       </c>
       <c r="B81" t="n">
-        <v>-2.673048496246338</v>
+        <v>-0.4422618746757507</v>
       </c>
       <c r="C81" t="n">
-        <v>21.11880302429199</v>
+        <v>20.54734039306641</v>
       </c>
       <c r="D81" t="n">
-        <v>30.120849609375</v>
+        <v>15.49435234069824</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.327187180519104</v>
+        <v>-6.604306221008301</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9717402458190918</v>
+        <v>-16.70146942138672</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-2.471317529678345</v>
+        <v>-2.87860631942749</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4623970985412598</v>
+        <v>0.3778217434883118</v>
       </c>
       <c r="C82" t="n">
-        <v>26.80742263793945</v>
+        <v>26.89814949035645</v>
       </c>
       <c r="D82" t="n">
-        <v>35.80524444580078</v>
+        <v>20.11295700073242</v>
       </c>
       <c r="E82" t="n">
-        <v>-6.96030855178833</v>
+        <v>-9.217105865478516</v>
       </c>
       <c r="F82" t="n">
-        <v>-4.577277183532715</v>
+        <v>-21.09651184082031</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.1623108386993408</v>
+        <v>0.3154129981994629</v>
       </c>
       <c r="B83" t="n">
-        <v>2.793689727783203</v>
+        <v>3.559770584106445</v>
       </c>
       <c r="C83" t="n">
-        <v>33.3519172668457</v>
+        <v>33.72045516967773</v>
       </c>
       <c r="D83" t="n">
-        <v>41.94168853759766</v>
+        <v>25.7709846496582</v>
       </c>
       <c r="E83" t="n">
-        <v>-12.09345436096191</v>
+        <v>-11.50504684448242</v>
       </c>
       <c r="F83" t="n">
-        <v>-9.315462112426758</v>
+        <v>-24.24578094482422</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3.643135070800781</v>
+        <v>4.050654888153076</v>
       </c>
       <c r="B84" t="n">
-        <v>5.797146320343018</v>
+        <v>5.937611103057861</v>
       </c>
       <c r="C84" t="n">
-        <v>40.27431106567383</v>
+        <v>40.66360473632812</v>
       </c>
       <c r="D84" t="n">
-        <v>48.04143524169922</v>
+        <v>32.29383850097656</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.53007507324219</v>
+        <v>-13.18327713012695</v>
       </c>
       <c r="F84" t="n">
-        <v>-12.17032623291016</v>
+        <v>-24.24578094482422</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7.630696296691895</v>
+        <v>8.042184829711914</v>
       </c>
       <c r="B85" t="n">
-        <v>9.196737289428711</v>
+        <v>8.785416603088379</v>
       </c>
       <c r="C85" t="n">
-        <v>46.92825317382812</v>
+        <v>47.22477722167969</v>
       </c>
       <c r="D85" t="n">
-        <v>53.53325653076172</v>
+        <v>39.22407531738281</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.59453582763672</v>
+        <v>-13.18327713012695</v>
       </c>
       <c r="F85" t="n">
-        <v>-12.17032623291016</v>
+        <v>-24.56040954589844</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>11.8158073425293</v>
+        <v>12.00983619689941</v>
       </c>
       <c r="B86" t="n">
-        <v>12.77571487426758</v>
+        <v>11.76621055603027</v>
       </c>
       <c r="C86" t="n">
-        <v>52.70824432373047</v>
+        <v>52.81103515625</v>
       </c>
       <c r="D86" t="n">
-        <v>57.90641784667969</v>
+        <v>45.982177734375</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.37252140045166</v>
+        <v>-14.77319526672363</v>
       </c>
       <c r="F86" t="n">
-        <v>-11.37640762329102</v>
+        <v>-21.88944816589355</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>15.95799350738525</v>
+        <v>15.69850158691406</v>
       </c>
       <c r="B87" t="n">
-        <v>16.37636184692383</v>
+        <v>14.70814418792725</v>
       </c>
       <c r="C87" t="n">
-        <v>57.15437316894531</v>
+        <v>56.94090270996094</v>
       </c>
       <c r="D87" t="n">
-        <v>60.80734634399414</v>
+        <v>51.95652770996094</v>
       </c>
       <c r="E87" t="n">
-        <v>-12.5070104598999</v>
+        <v>-13.81386375427246</v>
       </c>
       <c r="F87" t="n">
-        <v>-8.390265464782715</v>
+        <v>-18.8223705291748</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>19.8779182434082</v>
+        <v>18.93342208862305</v>
       </c>
       <c r="B88" t="n">
-        <v>19.84809494018555</v>
+        <v>17.55033493041992</v>
       </c>
       <c r="C88" t="n">
-        <v>59.96137237548828</v>
+        <v>59.40673828125</v>
       </c>
       <c r="D88" t="n">
-        <v>62.02151489257812</v>
+        <v>56.55397033691406</v>
       </c>
       <c r="E88" t="n">
-        <v>-8.851276397705078</v>
+        <v>-11.26425361633301</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.888012409210205</v>
+        <v>-15.8023681640625</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>23.44522285461426</v>
+        <v>21.65779495239258</v>
       </c>
       <c r="B89" t="n">
-        <v>23.04104995727539</v>
+        <v>20.27072906494141</v>
       </c>
       <c r="C89" t="n">
-        <v>60.97824859619141</v>
+        <v>59.40673828125</v>
       </c>
       <c r="D89" t="n">
-        <v>62.02151489257812</v>
+        <v>59.31253433227539</v>
       </c>
       <c r="E89" t="n">
-        <v>-5.12789249420166</v>
+        <v>-9.454473495483398</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.432289004325867</v>
+        <v>-12.95079135894775</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>26.56746673583984</v>
+        <v>23.9155387878418</v>
       </c>
       <c r="B90" t="n">
-        <v>25.82181167602539</v>
+        <v>22.81997299194336</v>
       </c>
       <c r="C90" t="n">
-        <v>60.97824859619141</v>
+        <v>59.92237854003906</v>
       </c>
       <c r="D90" t="n">
-        <v>58.84937286376953</v>
+        <v>59.31253433227539</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.812315225601196</v>
+        <v>-7.113321304321289</v>
       </c>
       <c r="F90" t="n">
-        <v>1.595262765884399</v>
+        <v>-10.24252128601074</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>29.1879768371582</v>
+        <v>25.78047370910645</v>
       </c>
       <c r="B91" t="n">
-        <v>28.07740020751953</v>
+        <v>25.08678245544434</v>
       </c>
       <c r="C91" t="n">
-        <v>57.2100715637207</v>
+        <v>57.31756591796875</v>
       </c>
       <c r="D91" t="n">
-        <v>54.97716903686523</v>
+        <v>58.89360427856445</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8695379495620728</v>
+        <v>-4.574601173400879</v>
       </c>
       <c r="F91" t="n">
-        <v>3.92914867401123</v>
+        <v>-7.699551582336426</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>31.28455924987793</v>
+        <v>27.2795352935791</v>
       </c>
       <c r="B92" t="n">
-        <v>29.74518585205078</v>
+        <v>26.89794921875</v>
       </c>
       <c r="C92" t="n">
-        <v>53.23088073730469</v>
+        <v>52.76812744140625</v>
       </c>
       <c r="D92" t="n">
-        <v>49.52425384521484</v>
+        <v>54.95555114746094</v>
       </c>
       <c r="E92" t="n">
-        <v>2.837160587310791</v>
+        <v>-2.191098690032959</v>
       </c>
       <c r="F92" t="n">
-        <v>5.405974388122559</v>
+        <v>-5.450562000274658</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>32.8484992980957</v>
+        <v>28.3698616027832</v>
       </c>
       <c r="B93" t="n">
-        <v>30.81322860717773</v>
+        <v>28.08552169799805</v>
       </c>
       <c r="C93" t="n">
-        <v>47.77138519287109</v>
+        <v>45.76762390136719</v>
       </c>
       <c r="D93" t="n">
-        <v>42.83277130126953</v>
+        <v>48.56897735595703</v>
       </c>
       <c r="E93" t="n">
-        <v>4.029751777648926</v>
+        <v>-0.2729127407073975</v>
       </c>
       <c r="F93" t="n">
-        <v>5.405974388122559</v>
+        <v>-3.687152147293091</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>33.86832427978516</v>
+        <v>28.3698616027832</v>
       </c>
       <c r="B94" t="n">
-        <v>30.81322860717773</v>
+        <v>28.08552169799805</v>
       </c>
       <c r="C94" t="n">
-        <v>41.18555450439453</v>
+        <v>36.58248138427734</v>
       </c>
       <c r="D94" t="n">
-        <v>35.36725616455078</v>
+        <v>40.11683654785156</v>
       </c>
       <c r="E94" t="n">
-        <v>4.029751777648926</v>
+        <v>0.9668174982070923</v>
       </c>
       <c r="F94" t="n">
-        <v>6.522058963775635</v>
+        <v>-2.502211570739746</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>33.86832427978516</v>
+        <v>29.63027381896973</v>
       </c>
       <c r="B95" t="n">
-        <v>31.84621810913086</v>
+        <v>29.35995483398438</v>
       </c>
       <c r="C95" t="n">
-        <v>33.84804153442383</v>
+        <v>26.83464050292969</v>
       </c>
       <c r="D95" t="n">
-        <v>27.68363571166992</v>
+        <v>31.16653442382812</v>
       </c>
       <c r="E95" t="n">
-        <v>4.771605014801025</v>
+        <v>0.9668174982070923</v>
       </c>
       <c r="F95" t="n">
-        <v>5.413852214813232</v>
+        <v>-2.502211570739746</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>34.84936141967773</v>
+        <v>29.53059387207031</v>
       </c>
       <c r="B96" t="n">
-        <v>31.5539379119873</v>
+        <v>29.69950485229492</v>
       </c>
       <c r="C96" t="n">
-        <v>26.16666793823242</v>
+        <v>18.37959098815918</v>
       </c>
       <c r="D96" t="n">
-        <v>20.31145858764648</v>
+        <v>23.3662281036377</v>
       </c>
       <c r="E96" t="n">
-        <v>3.742271900177002</v>
+        <v>2.019737243652344</v>
       </c>
       <c r="F96" t="n">
-        <v>4.054520130157471</v>
+        <v>-1.128199696540833</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>34.40312194824219</v>
+        <v>29.65203666687012</v>
       </c>
       <c r="B97" t="n">
-        <v>31.13691520690918</v>
+        <v>30.36153793334961</v>
       </c>
       <c r="C97" t="n">
-        <v>18.59626388549805</v>
+        <v>12.11892318725586</v>
       </c>
       <c r="D97" t="n">
-        <v>13.79408264160156</v>
+        <v>17.3820686340332</v>
       </c>
       <c r="E97" t="n">
-        <v>2.669503688812256</v>
+        <v>1.388787269592285</v>
       </c>
       <c r="F97" t="n">
-        <v>2.959927320480347</v>
+        <v>-1.230903267860413</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>33.69885635375977</v>
+        <v>30.23580932617188</v>
       </c>
       <c r="B98" t="n">
-        <v>30.83310127258301</v>
+        <v>30.83551025390625</v>
       </c>
       <c r="C98" t="n">
-        <v>11.685546875</v>
+        <v>8.096059799194336</v>
       </c>
       <c r="D98" t="n">
-        <v>8.607603073120117</v>
+        <v>13.11102867126465</v>
       </c>
       <c r="E98" t="n">
-        <v>2.014580249786377</v>
+        <v>0.6392297744750977</v>
       </c>
       <c r="F98" t="n">
-        <v>2.462519407272339</v>
+        <v>-1.576344609260559</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>32.9815559387207</v>
+        <v>31.0140266418457</v>
       </c>
       <c r="B99" t="n">
-        <v>30.72054100036621</v>
+        <v>30.91002464294434</v>
       </c>
       <c r="C99" t="n">
-        <v>6.036314487457275</v>
+        <v>5.961026668548584</v>
       </c>
       <c r="D99" t="n">
-        <v>5.096712589263916</v>
+        <v>10.25239181518555</v>
       </c>
       <c r="E99" t="n">
-        <v>1.710155963897705</v>
+        <v>0.03634215146303177</v>
       </c>
       <c r="F99" t="n">
-        <v>2.394112348556519</v>
+        <v>-2.050825834274292</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>32.44270324707031</v>
+        <v>31.58544921875</v>
       </c>
       <c r="B100" t="n">
-        <v>30.70300674438477</v>
+        <v>30.74765014648438</v>
       </c>
       <c r="C100" t="n">
-        <v>2.167290210723877</v>
+        <v>5.961026668548584</v>
       </c>
       <c r="D100" t="n">
-        <v>3.406693935394287</v>
+        <v>8.616979598999023</v>
       </c>
       <c r="E100" t="n">
-        <v>1.372626781463623</v>
+        <v>-0.4345192909240723</v>
       </c>
       <c r="F100" t="n">
-        <v>2.289412260055542</v>
+        <v>-2.686619520187378</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>32.1689567565918</v>
+        <v>31.80012130737305</v>
       </c>
       <c r="B101" t="n">
-        <v>30.61698150634766</v>
+        <v>30.52161979675293</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2369295358657837</v>
+        <v>4.600287437438965</v>
       </c>
       <c r="D101" t="n">
-        <v>3.406693935394287</v>
+        <v>8.616979598999023</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4827598929405212</v>
+        <v>-1.190811157226562</v>
       </c>
       <c r="F101" t="n">
-        <v>1.544335126876831</v>
+        <v>-3.742723226547241</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>32.15652847290039</v>
+        <v>31.72272872924805</v>
       </c>
       <c r="B102" t="n">
-        <v>31.82525825500488</v>
+        <v>31.33914566040039</v>
       </c>
       <c r="C102" t="n">
-        <v>5.361606121063232</v>
+        <v>9.126182556152344</v>
       </c>
       <c r="D102" t="n">
-        <v>9.458686828613281</v>
+        <v>9.604154586791992</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.3297896683216095</v>
+        <v>-3.690783500671387</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8655197620391846</v>
+        <v>-5.350158214569092</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>33.52625274658203</v>
+        <v>31.8024959564209</v>
       </c>
       <c r="B103" t="n">
-        <v>33.31362533569336</v>
+        <v>23.872802734375</v>
       </c>
       <c r="C103" t="n">
-        <v>9.082184791564941</v>
+        <v>14.87824440002441</v>
       </c>
       <c r="D103" t="n">
-        <v>12.3173828125</v>
+        <v>17.81276321411133</v>
       </c>
       <c r="E103" t="n">
-        <v>-4.162688732147217</v>
+        <v>-5.868745803833008</v>
       </c>
       <c r="F103" t="n">
-        <v>-2.928156852722168</v>
+        <v>-6.141588687896729</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>33.26588821411133</v>
+        <v>30.31233596801758</v>
       </c>
       <c r="B104" t="n">
-        <v>34.67446136474609</v>
+        <v>18.78407096862793</v>
       </c>
       <c r="C104" t="n">
-        <v>6.100545883178711</v>
+        <v>15.88258171081543</v>
       </c>
       <c r="D104" t="n">
-        <v>9.641908645629883</v>
+        <v>21.09515571594238</v>
       </c>
       <c r="E104" t="n">
-        <v>-5.429441928863525</v>
+        <v>-5.868745803833008</v>
       </c>
       <c r="F104" t="n">
-        <v>-4.56458568572998</v>
+        <v>-6.141588687896729</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>30.40127754211426</v>
+        <v>31.77097511291504</v>
       </c>
       <c r="B105" t="n">
-        <v>33.63506317138672</v>
+        <v>17.24129486083984</v>
       </c>
       <c r="C105" t="n">
-        <v>2.710933208465576</v>
+        <v>14.63422775268555</v>
       </c>
       <c r="D105" t="n">
-        <v>7.249853610992432</v>
+        <v>21.09515571594238</v>
       </c>
       <c r="E105" t="n">
-        <v>-5.429441928863525</v>
+        <v>-4.819129943847656</v>
       </c>
       <c r="F105" t="n">
-        <v>-4.56458568572998</v>
+        <v>-5.759341239929199</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>27.5334529876709</v>
+        <v>28.43365669250488</v>
       </c>
       <c r="B106" t="n">
-        <v>31.98984336853027</v>
+        <v>18.60660934448242</v>
       </c>
       <c r="C106" t="n">
-        <v>1.19091522693634</v>
+        <v>12.35864162445068</v>
       </c>
       <c r="D106" t="n">
-        <v>7.249853610992432</v>
+        <v>19.50990676879883</v>
       </c>
       <c r="E106" t="n">
-        <v>-5.82662296295166</v>
+        <v>-2.341437816619873</v>
       </c>
       <c r="F106" t="n">
-        <v>-5.6090087890625</v>
+        <v>-6.185737133026123</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>25.60256576538086</v>
+        <v>26.31705093383789</v>
       </c>
       <c r="B107" t="n">
-        <v>30.60533905029297</v>
+        <v>21.64029312133789</v>
       </c>
       <c r="C107" t="n">
-        <v>1.19091522693634</v>
+        <v>9.788209915161133</v>
       </c>
       <c r="D107" t="n">
-        <v>8.07854175567627</v>
+        <v>16.7944450378418</v>
       </c>
       <c r="E107" t="n">
-        <v>-7.481805324554443</v>
+        <v>0.1195485591888428</v>
       </c>
       <c r="F107" t="n">
-        <v>-6.713094234466553</v>
+        <v>-5.902917385101318</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>24.42234039306641</v>
+        <v>24.31040382385254</v>
       </c>
       <c r="B108" t="n">
-        <v>29.30220794677734</v>
+        <v>25.09555435180664</v>
       </c>
       <c r="C108" t="n">
-        <v>4.471212387084961</v>
+        <v>7.290124416351318</v>
       </c>
       <c r="D108" t="n">
-        <v>10.02777290344238</v>
+        <v>14.1068868637085</v>
       </c>
       <c r="E108" t="n">
-        <v>-8.316266059875488</v>
+        <v>1.943155646324158</v>
       </c>
       <c r="F108" t="n">
-        <v>-5.246564865112305</v>
+        <v>-4.90895938873291</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>23.03654098510742</v>
+        <v>22.82120132446289</v>
       </c>
       <c r="B109" t="n">
-        <v>27.56261444091797</v>
+        <v>27.81721878051758</v>
       </c>
       <c r="C109" t="n">
-        <v>4.471212387084961</v>
+        <v>4.967758178710938</v>
       </c>
       <c r="D109" t="n">
-        <v>10.02777290344238</v>
+        <v>12.01096057891846</v>
       </c>
       <c r="E109" t="n">
-        <v>-5.602402687072754</v>
+        <v>1.943155646324158</v>
       </c>
       <c r="F109" t="n">
-        <v>-3.299062728881836</v>
+        <v>-1.550939679145813</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>20.98863220214844</v>
+        <v>21.70193099975586</v>
       </c>
       <c r="B110" t="n">
-        <v>25.35221481323242</v>
+        <v>27.81721878051758</v>
       </c>
       <c r="C110" t="n">
-        <v>4.157684326171875</v>
+        <v>2.941746234893799</v>
       </c>
       <c r="D110" t="n">
-        <v>11.96921825408936</v>
+        <v>10.73483848571777</v>
       </c>
       <c r="E110" t="n">
-        <v>-4.360257625579834</v>
+        <v>3.72653865814209</v>
       </c>
       <c r="F110" t="n">
-        <v>-1.566198468208313</v>
+        <v>0.9004773497581482</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>18.57747650146484</v>
+        <v>20.22515106201172</v>
       </c>
       <c r="B111" t="n">
-        <v>22.90651512145996</v>
+        <v>27.7399787902832</v>
       </c>
       <c r="C111" t="n">
-        <v>2.292367458343506</v>
+        <v>1.657614350318909</v>
       </c>
       <c r="D111" t="n">
-        <v>10.90377998352051</v>
+        <v>10.73483848571777</v>
       </c>
       <c r="E111" t="n">
-        <v>-4.360257625579834</v>
+        <v>2.925661087036133</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.2649797797203064</v>
+        <v>3.281173229217529</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>16.23698425292969</v>
+        <v>17.70554351806641</v>
       </c>
       <c r="B112" t="n">
-        <v>20.4209156036377</v>
+        <v>23.80619049072266</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4818965196609497</v>
+        <v>1.657614350318909</v>
       </c>
       <c r="D112" t="n">
-        <v>9.771489143371582</v>
+        <v>9.720553398132324</v>
       </c>
       <c r="E112" t="n">
-        <v>-2.466753959655762</v>
+        <v>2.23548698425293</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.2649797797203064</v>
+        <v>4.336836814880371</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>14.14963722229004</v>
+        <v>14.23633098602295</v>
       </c>
       <c r="B113" t="n">
-        <v>17.9761962890625</v>
+        <v>19.31370735168457</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.9117975831031799</v>
+        <v>1.539240717887878</v>
       </c>
       <c r="D113" t="n">
-        <v>8.740862846374512</v>
+        <v>10.19542217254639</v>
       </c>
       <c r="E113" t="n">
-        <v>-1.975998401641846</v>
+        <v>2.357488632202148</v>
       </c>
       <c r="F113" t="n">
-        <v>1.729801893234253</v>
+        <v>4.336836814880371</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>12.28169059753418</v>
+        <v>10.45651626586914</v>
       </c>
       <c r="B114" t="n">
-        <v>15.6315393447876</v>
+        <v>15.93492126464844</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.9117975831031799</v>
+        <v>3.09143328666687</v>
       </c>
       <c r="D114" t="n">
-        <v>7.743460655212402</v>
+        <v>10.14061260223389</v>
       </c>
       <c r="E114" t="n">
-        <v>-1.240788459777832</v>
+        <v>3.258766174316406</v>
       </c>
       <c r="F114" t="n">
-        <v>2.485632658004761</v>
+        <v>2.17228627204895</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10.54576683044434</v>
+        <v>6.901872634887695</v>
       </c>
       <c r="B115" t="n">
-        <v>13.45232772827148</v>
+        <v>14.24723434448242</v>
       </c>
       <c r="C115" t="n">
-        <v>-2.729342699050903</v>
+        <v>1.957304716110229</v>
       </c>
       <c r="D115" t="n">
-        <v>6.816708564758301</v>
+        <v>7.951228141784668</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.2096271961927414</v>
+        <v>4.621878623962402</v>
       </c>
       <c r="F115" t="n">
-        <v>3.325727224349976</v>
+        <v>1.098808169364929</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>8.881446838378906</v>
+        <v>3.829759836196899</v>
       </c>
       <c r="B116" t="n">
-        <v>11.49213600158691</v>
+        <v>14.24723434448242</v>
       </c>
       <c r="C116" t="n">
-        <v>-2.737433671951294</v>
+        <v>-0.2217714786529541</v>
       </c>
       <c r="D116" t="n">
-        <v>6.09550952911377</v>
+        <v>6.157810211181641</v>
       </c>
       <c r="E116" t="n">
-        <v>1.015937328338623</v>
+        <v>6.136961936950684</v>
       </c>
       <c r="F116" t="n">
-        <v>4.253570079803467</v>
+        <v>1.098808169364929</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>7.258391380310059</v>
+        <v>1.332070708274841</v>
       </c>
       <c r="B117" t="n">
-        <v>9.762222290039062</v>
+        <v>13.12326812744141</v>
       </c>
       <c r="C117" t="n">
-        <v>-2.402854204177856</v>
+        <v>-2.839776515960693</v>
       </c>
       <c r="D117" t="n">
-        <v>5.705363273620605</v>
+        <v>4.116109371185303</v>
       </c>
       <c r="E117" t="n">
-        <v>2.356054782867432</v>
+        <v>7.323701858520508</v>
       </c>
       <c r="F117" t="n">
-        <v>5.3316969871521</v>
+        <v>-0.4028478264808655</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5.658699989318848</v>
+        <v>-0.5811911225318909</v>
       </c>
       <c r="B118" t="n">
-        <v>8.228594779968262</v>
+        <v>12.93327713012695</v>
       </c>
       <c r="C118" t="n">
-        <v>-1.822688341140747</v>
+        <v>-5.025426864624023</v>
       </c>
       <c r="D118" t="n">
-        <v>5.679051399230957</v>
+        <v>2.283633470535278</v>
       </c>
       <c r="E118" t="n">
-        <v>3.75438928604126</v>
+        <v>7.781008720397949</v>
       </c>
       <c r="F118" t="n">
-        <v>6.574533939361572</v>
+        <v>-0.9007559418678284</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>4.072138786315918</v>
+        <v>-1.971822023391724</v>
       </c>
       <c r="B119" t="n">
-        <v>6.82768726348877</v>
+        <v>11.67875576019287</v>
       </c>
       <c r="C119" t="n">
-        <v>-1.133879899978638</v>
+        <v>-6.210768222808838</v>
       </c>
       <c r="D119" t="n">
-        <v>5.957518577575684</v>
+        <v>0.8817254900932312</v>
       </c>
       <c r="E119" t="n">
-        <v>5.164969921112061</v>
+        <v>7.611008644104004</v>
       </c>
       <c r="F119" t="n">
-        <v>7.925594806671143</v>
+        <v>-1.974181771278381</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.499290466308594</v>
+        <v>-2.997131824493408</v>
       </c>
       <c r="B120" t="n">
-        <v>5.49083423614502</v>
+        <v>9.866306304931641</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.4754535555839539</v>
+        <v>-6.210768222808838</v>
       </c>
       <c r="D120" t="n">
-        <v>6.421706199645996</v>
+        <v>-0.1440890729427338</v>
       </c>
       <c r="E120" t="n">
-        <v>6.527823925018311</v>
+        <v>7.376468658447266</v>
       </c>
       <c r="F120" t="n">
-        <v>9.28903865814209</v>
+        <v>-3.561357736587524</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.9521697759628296</v>
+        <v>-2.997131824493408</v>
       </c>
       <c r="B121" t="n">
-        <v>4.169642448425293</v>
+        <v>8.121537208557129</v>
       </c>
       <c r="C121" t="n">
-        <v>0.05919152498245239</v>
+        <v>-6.636544227600098</v>
       </c>
       <c r="D121" t="n">
-        <v>6.94509220123291</v>
+        <v>-0.1440890729427338</v>
       </c>
       <c r="E121" t="n">
-        <v>7.794012546539307</v>
+        <v>7.500877380371094</v>
       </c>
       <c r="F121" t="n">
-        <v>10.6046838760376</v>
+        <v>-5.19950008392334</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.5416025519371033</v>
+        <v>-4.702743053436279</v>
       </c>
       <c r="B122" t="n">
-        <v>2.85187554359436</v>
+        <v>6.757626533508301</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4627178311347961</v>
+        <v>-5.693354606628418</v>
       </c>
       <c r="D122" t="n">
-        <v>7.45879077911377</v>
+        <v>-1.711628794670105</v>
       </c>
       <c r="E122" t="n">
-        <v>8.959262847900391</v>
+        <v>7.883567810058594</v>
       </c>
       <c r="F122" t="n">
-        <v>11.82959461212158</v>
+        <v>-6.565956115722656</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-1.937119841575623</v>
+        <v>-5.478780269622803</v>
       </c>
       <c r="B123" t="n">
-        <v>1.562625765800476</v>
+        <v>5.787697792053223</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8330619931221008</v>
+        <v>-4.817227363586426</v>
       </c>
       <c r="D123" t="n">
-        <v>7.988320350646973</v>
+        <v>-2.031794309616089</v>
       </c>
       <c r="E123" t="n">
-        <v>10.00080299377441</v>
+        <v>8.19286060333252</v>
       </c>
       <c r="F123" t="n">
-        <v>12.91394329071045</v>
+        <v>-7.658660888671875</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-3.183834552764893</v>
+        <v>-6.253158092498779</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3513304591178894</v>
+        <v>5.096211433410645</v>
       </c>
       <c r="C124" t="n">
-        <v>1.348335981369019</v>
+        <v>-3.797450304031372</v>
       </c>
       <c r="D124" t="n">
-        <v>8.641465187072754</v>
+        <v>-1.891796946525574</v>
       </c>
       <c r="E124" t="n">
-        <v>10.86260032653809</v>
+        <v>8.244954109191895</v>
       </c>
       <c r="F124" t="n">
-        <v>13.80183696746826</v>
+        <v>-8.602335929870605</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-4.242409706115723</v>
+        <v>-6.876948833465576</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.7304219007492065</v>
+        <v>4.581074714660645</v>
       </c>
       <c r="C125" t="n">
-        <v>2.185883283615112</v>
+        <v>-2.388064622879028</v>
       </c>
       <c r="D125" t="n">
-        <v>9.55428409576416</v>
+        <v>-1.173655390739441</v>
       </c>
       <c r="E125" t="n">
-        <v>11.49482727050781</v>
+        <v>8.044508934020996</v>
       </c>
       <c r="F125" t="n">
-        <v>14.44519329071045</v>
+        <v>-9.379058837890625</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-4.242409706115723</v>
+        <v>-7.294362545013428</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.7304219007492065</v>
+        <v>4.173869132995605</v>
       </c>
       <c r="C126" t="n">
-        <v>3.44633936882019</v>
+        <v>0.4571417272090912</v>
       </c>
       <c r="D126" t="n">
-        <v>10.83187007904053</v>
+        <v>0.03286278247833252</v>
       </c>
       <c r="E126" t="n">
-        <v>11.85494804382324</v>
+        <v>7.636003494262695</v>
       </c>
       <c r="F126" t="n">
-        <v>14.82796955108643</v>
+        <v>-9.894429206848145</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-5.951316356658936</v>
+        <v>-7.551686763763428</v>
       </c>
       <c r="B127" t="n">
-        <v>-2.569265842437744</v>
+        <v>3.850271940231323</v>
       </c>
       <c r="C127" t="n">
-        <v>6.144291877746582</v>
+        <v>2.102577447891235</v>
       </c>
       <c r="D127" t="n">
-        <v>13.56997108459473</v>
+        <v>1.563922047615051</v>
       </c>
       <c r="E127" t="n">
-        <v>11.87527084350586</v>
+        <v>6.923211097717285</v>
       </c>
       <c r="F127" t="n">
-        <v>14.93295383453369</v>
+        <v>-10.14363193511963</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-6.418796062469482</v>
+        <v>-7.6900954246521</v>
       </c>
       <c r="B128" t="n">
-        <v>-3.13882303237915</v>
+        <v>3.625887632369995</v>
       </c>
       <c r="C128" t="n">
-        <v>7.822693824768066</v>
+        <v>4.227310657501221</v>
       </c>
       <c r="D128" t="n">
-        <v>15.37019729614258</v>
+        <v>4.404373168945312</v>
       </c>
       <c r="E128" t="n">
-        <v>11.45759201049805</v>
+        <v>4.619311809539795</v>
       </c>
       <c r="F128" t="n">
-        <v>14.63074398040771</v>
+        <v>-10.24539375305176</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-6.719371318817139</v>
+        <v>-7.650655269622803</v>
       </c>
       <c r="B129" t="n">
-        <v>-3.508997440338135</v>
+        <v>3.484801054000854</v>
       </c>
       <c r="C129" t="n">
-        <v>10.03312301635742</v>
+        <v>6.931064605712891</v>
       </c>
       <c r="D129" t="n">
-        <v>17.82220840454102</v>
+        <v>6.174643039703369</v>
       </c>
       <c r="E129" t="n">
-        <v>9.282337188720703</v>
+        <v>2.619105577468872</v>
       </c>
       <c r="F129" t="n">
-        <v>12.51318359375</v>
+        <v>-10.48311710357666</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-6.770335674285889</v>
+        <v>-7.290870189666748</v>
       </c>
       <c r="B130" t="n">
-        <v>-3.607489109039307</v>
+        <v>3.397364377975464</v>
       </c>
       <c r="C130" t="n">
-        <v>12.83429145812988</v>
+        <v>10.44258689880371</v>
       </c>
       <c r="D130" t="n">
-        <v>20.97951889038086</v>
+        <v>8.520481109619141</v>
       </c>
       <c r="E130" t="n">
-        <v>6.936701774597168</v>
+        <v>-0.09413707256317139</v>
       </c>
       <c r="F130" t="n">
-        <v>10.0791597366333</v>
+        <v>-11.22025680541992</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-6.403514385223389</v>
+        <v>-6.428479671478271</v>
       </c>
       <c r="B131" t="n">
-        <v>-3.253838062286377</v>
+        <v>3.336577177047729</v>
       </c>
       <c r="C131" t="n">
-        <v>16.44906425476074</v>
+        <v>14.92258739471436</v>
       </c>
       <c r="D131" t="n">
-        <v>24.93066215515137</v>
+        <v>11.35866737365723</v>
       </c>
       <c r="E131" t="n">
-        <v>3.195118427276611</v>
+        <v>-3.056004762649536</v>
       </c>
       <c r="F131" t="n">
-        <v>6.250166416168213</v>
+        <v>-14.78174209594727</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-5.31721830368042</v>
+        <v>-3.635273456573486</v>
       </c>
       <c r="B132" t="n">
-        <v>-2.295179843902588</v>
+        <v>3.367645978927612</v>
       </c>
       <c r="C132" t="n">
-        <v>21.06559753417969</v>
+        <v>20.34626007080078</v>
       </c>
       <c r="D132" t="n">
-        <v>29.74610137939453</v>
+        <v>14.75980567932129</v>
       </c>
       <c r="E132" t="n">
-        <v>-1.736869812011719</v>
+        <v>-5.862422943115234</v>
       </c>
       <c r="F132" t="n">
-        <v>1.240567326545715</v>
+        <v>-17.93294143676758</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-1.889529466629028</v>
+        <v>-1.375381469726562</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8154196739196777</v>
+        <v>3.830553770065308</v>
       </c>
       <c r="C133" t="n">
-        <v>26.73935317993164</v>
+        <v>26.5029125213623</v>
       </c>
       <c r="D133" t="n">
-        <v>35.34423828125</v>
+        <v>18.97686386108398</v>
       </c>
       <c r="E133" t="n">
-        <v>-7.168933868408203</v>
+        <v>-8.43204402923584</v>
       </c>
       <c r="F133" t="n">
-        <v>-4.175681591033936</v>
+        <v>-21.57096862792969</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.7392137050628662</v>
+        <v>1.686708688735962</v>
       </c>
       <c r="B134" t="n">
-        <v>3.12898588180542</v>
+        <v>6.466233253479004</v>
       </c>
       <c r="C134" t="n">
-        <v>33.2659797668457</v>
+        <v>33.10007858276367</v>
       </c>
       <c r="D134" t="n">
-        <v>41.40801620483398</v>
+        <v>24.23961448669434</v>
       </c>
       <c r="E134" t="n">
-        <v>-12.09504795074463</v>
+        <v>-10.73036193847656</v>
       </c>
       <c r="F134" t="n">
-        <v>-8.825965881347656</v>
+        <v>-24.18235397338867</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>4.207485198974609</v>
+        <v>5.28553581237793</v>
       </c>
       <c r="B135" t="n">
-        <v>6.098893165588379</v>
+        <v>8.625284194946289</v>
       </c>
       <c r="C135" t="n">
-        <v>40.14882659912109</v>
+        <v>39.81180572509766</v>
       </c>
       <c r="D135" t="n">
-        <v>47.42021179199219</v>
+        <v>30.42894744873047</v>
       </c>
       <c r="E135" t="n">
-        <v>-15.40198707580566</v>
+        <v>-12.43531322479248</v>
       </c>
       <c r="F135" t="n">
-        <v>-11.72392654418945</v>
+        <v>-24.18235397338867</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>8.163565635681152</v>
+        <v>9.166820526123047</v>
       </c>
       <c r="B136" t="n">
-        <v>9.445657730102539</v>
+        <v>11.1832218170166</v>
       </c>
       <c r="C136" t="n">
-        <v>46.73677062988281</v>
+        <v>46.22898483276367</v>
       </c>
       <c r="D136" t="n">
-        <v>52.81472015380859</v>
+        <v>37.11405181884766</v>
       </c>
       <c r="E136" t="n">
-        <v>-16.4520149230957</v>
+        <v>-12.43531322479248</v>
       </c>
       <c r="F136" t="n">
-        <v>-11.72392654418945</v>
+        <v>-23.83603096008301</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>12.29701805114746</v>
+        <v>13.06465721130371</v>
       </c>
       <c r="B137" t="n">
-        <v>12.96205520629883</v>
+        <v>13.78423023223877</v>
       </c>
       <c r="C137" t="n">
-        <v>52.44732666015625</v>
+        <v>51.83090591430664</v>
       </c>
       <c r="D137" t="n">
-        <v>57.1259765625</v>
+        <v>43.76023864746094</v>
       </c>
       <c r="E137" t="n">
-        <v>-15.31398010253906</v>
+        <v>-13.97343921661377</v>
       </c>
       <c r="F137" t="n">
-        <v>-11.4473819732666</v>
+        <v>-21.16269302368164</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>16.37895011901855</v>
+        <v>16.69303703308105</v>
       </c>
       <c r="B138" t="n">
-        <v>16.50750350952148</v>
+        <v>16.25859451293945</v>
       </c>
       <c r="C138" t="n">
-        <v>56.86402130126953</v>
+        <v>56.11079406738281</v>
       </c>
       <c r="D138" t="n">
-        <v>60.05403900146484</v>
+        <v>49.83809661865234</v>
       </c>
       <c r="E138" t="n">
-        <v>-12.58425140380859</v>
+        <v>-12.87371063232422</v>
       </c>
       <c r="F138" t="n">
-        <v>-8.642986297607422</v>
+        <v>-18.12507247924805</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>20.23752403259277</v>
+        <v>19.8057861328125</v>
       </c>
       <c r="B139" t="n">
-        <v>19.94506072998047</v>
+        <v>18.5683479309082</v>
       </c>
       <c r="C139" t="n">
-        <v>59.70573806762695</v>
+        <v>58.77009963989258</v>
       </c>
       <c r="D139" t="n">
-        <v>61.41017150878906</v>
+        <v>54.80477142333984</v>
       </c>
       <c r="E139" t="n">
-        <v>-9.069852828979492</v>
+        <v>-11.29631900787354</v>
       </c>
       <c r="F139" t="n">
-        <v>-5.284634590148926</v>
+        <v>-15.22212409973145</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>23.73663711547852</v>
+        <v>22.27467346191406</v>
       </c>
       <c r="B140" t="n">
-        <v>23.12102699279785</v>
+        <v>20.7326488494873</v>
       </c>
       <c r="C140" t="n">
-        <v>60.79905700683594</v>
+        <v>59.79013061523438</v>
       </c>
       <c r="D140" t="n">
-        <v>61.41017150878906</v>
+        <v>58.13629913330078</v>
       </c>
       <c r="E140" t="n">
-        <v>-5.469658851623535</v>
+        <v>-8.223968505859375</v>
       </c>
       <c r="F140" t="n">
-        <v>-1.91196596622467</v>
+        <v>-12.60952186584473</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>26.77424240112305</v>
+        <v>24.12481498718262</v>
       </c>
       <c r="B141" t="n">
-        <v>25.88599014282227</v>
+        <v>22.75783538818359</v>
       </c>
       <c r="C141" t="n">
-        <v>60.79905700683594</v>
+        <v>59.79013061523438</v>
       </c>
       <c r="D141" t="n">
-        <v>58.83319473266602</v>
+        <v>59.46525955200195</v>
       </c>
       <c r="E141" t="n">
-        <v>-2.250509023666382</v>
+        <v>-6.389925003051758</v>
       </c>
       <c r="F141" t="n">
-        <v>1.095789432525635</v>
+        <v>-10.22814178466797</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>29.28964996337891</v>
+        <v>25.48456573486328</v>
       </c>
       <c r="B142" t="n">
-        <v>28.11411285400391</v>
+        <v>24.5820255279541</v>
       </c>
       <c r="C142" t="n">
-        <v>57.17493438720703</v>
+        <v>57.1090087890625</v>
       </c>
       <c r="D142" t="n">
-        <v>55.11586761474609</v>
+        <v>59.46525955200195</v>
       </c>
       <c r="E142" t="n">
-        <v>0.365320086479187</v>
+        <v>-4.251313209533691</v>
       </c>
       <c r="F142" t="n">
-        <v>3.467597484588623</v>
+        <v>-8.019606590270996</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>31.27079582214355</v>
+        <v>25.48456573486328</v>
       </c>
       <c r="B143" t="n">
-        <v>29.73639297485352</v>
+        <v>26.03634452819824</v>
       </c>
       <c r="C143" t="n">
-        <v>53.15361785888672</v>
+        <v>53.45398330688477</v>
       </c>
       <c r="D143" t="n">
-        <v>49.75605010986328</v>
+        <v>54.93001556396484</v>
       </c>
       <c r="E143" t="n">
-        <v>2.302893400192261</v>
+        <v>-2.16013503074646</v>
       </c>
       <c r="F143" t="n">
-        <v>5.018332958221436</v>
+        <v>-6.048619747161865</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>32.73370361328125</v>
+        <v>27.47392463684082</v>
       </c>
       <c r="B144" t="n">
-        <v>30.74255752563477</v>
+        <v>26.03634452819824</v>
       </c>
       <c r="C144" t="n">
-        <v>47.62224578857422</v>
+        <v>47.13755798339844</v>
       </c>
       <c r="D144" t="n">
-        <v>43.06229400634766</v>
+        <v>49.04137420654297</v>
       </c>
       <c r="E144" t="n">
-        <v>3.503863334655762</v>
+        <v>-0.4187291860580444</v>
       </c>
       <c r="F144" t="n">
-        <v>5.018332958221436</v>
+        <v>-4.503463745117188</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>32.73370361328125</v>
+        <v>27.81958961486816</v>
       </c>
       <c r="B145" t="n">
-        <v>30.74255752563477</v>
+        <v>27.72588920593262</v>
       </c>
       <c r="C145" t="n">
-        <v>40.98200225830078</v>
+        <v>37.86148071289062</v>
       </c>
       <c r="D145" t="n">
-        <v>35.52584457397461</v>
+        <v>40.2910270690918</v>
       </c>
       <c r="E145" t="n">
-        <v>3.503863334655762</v>
+        <v>0.7712319493293762</v>
       </c>
       <c r="F145" t="n">
-        <v>6.29115629196167</v>
+        <v>-3.478379249572754</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>34.64487075805664</v>
+        <v>27.7614574432373</v>
       </c>
       <c r="B146" t="n">
-        <v>31.6374568939209</v>
+        <v>27.44217109680176</v>
       </c>
       <c r="C146" t="n">
-        <v>33.65215301513672</v>
+        <v>27.32564163208008</v>
       </c>
       <c r="D146" t="n">
-        <v>27.77770614624023</v>
+        <v>30.63615417480469</v>
       </c>
       <c r="E146" t="n">
-        <v>4.29900598526001</v>
+        <v>0.7712319493293762</v>
       </c>
       <c r="F146" t="n">
-        <v>5.25258207321167</v>
+        <v>-3.478379249572754</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>34.62236785888672</v>
+        <v>27.45100784301758</v>
       </c>
       <c r="B147" t="n">
-        <v>31.3243465423584</v>
+        <v>27.93377113342285</v>
       </c>
       <c r="C147" t="n">
-        <v>26.0562801361084</v>
+        <v>18.14288139343262</v>
       </c>
       <c r="D147" t="n">
-        <v>20.39598846435547</v>
+        <v>22.45519638061523</v>
       </c>
       <c r="E147" t="n">
-        <v>3.287354946136475</v>
+        <v>1.998255729675293</v>
       </c>
       <c r="F147" t="n">
-        <v>3.993189573287964</v>
+        <v>-2.126718044281006</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>34.21191787719727</v>
+        <v>27.57260704040527</v>
       </c>
       <c r="B148" t="n">
-        <v>30.93541526794434</v>
+        <v>29.38667297363281</v>
       </c>
       <c r="C148" t="n">
-        <v>18.61419868469238</v>
+        <v>11.64608764648438</v>
       </c>
       <c r="D148" t="n">
-        <v>13.90358543395996</v>
+        <v>16.63900375366211</v>
       </c>
       <c r="E148" t="n">
-        <v>2.233788967132568</v>
+        <v>1.535150527954102</v>
       </c>
       <c r="F148" t="n">
-        <v>3.003047704696655</v>
+        <v>-2.008468627929688</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>33.55808258056641</v>
+        <v>28.60477447509766</v>
       </c>
       <c r="B149" t="n">
-        <v>30.70864868164062</v>
+        <v>30.62345314025879</v>
       </c>
       <c r="C149" t="n">
-        <v>11.82660102844238</v>
+        <v>7.850046634674072</v>
       </c>
       <c r="D149" t="n">
-        <v>8.718213081359863</v>
+        <v>12.84888648986816</v>
       </c>
       <c r="E149" t="n">
-        <v>1.612233638763428</v>
+        <v>0.6748065948486328</v>
       </c>
       <c r="F149" t="n">
-        <v>2.582183599472046</v>
+        <v>-2.331746816635132</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>32.89908218383789</v>
+        <v>30.16400527954102</v>
       </c>
       <c r="B150" t="n">
-        <v>30.70824432373047</v>
+        <v>30.93676567077637</v>
       </c>
       <c r="C150" t="n">
-        <v>6.273701190948486</v>
+        <v>6.190549850463867</v>
       </c>
       <c r="D150" t="n">
-        <v>5.145095825195312</v>
+        <v>10.43519973754883</v>
       </c>
       <c r="E150" t="n">
-        <v>1.314880847930908</v>
+        <v>-0.1478099822998047</v>
       </c>
       <c r="F150" t="n">
-        <v>2.523258924484253</v>
+        <v>-2.858408212661743</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>32.41628646850586</v>
+        <v>31.50608825683594</v>
       </c>
       <c r="B151" t="n">
-        <v>30.80941772460938</v>
+        <v>30.56323432922363</v>
       </c>
       <c r="C151" t="n">
-        <v>2.468089580535889</v>
+        <v>6.190549850463867</v>
       </c>
       <c r="D151" t="n">
-        <v>3.340698719024658</v>
+        <v>8.973518371582031</v>
       </c>
       <c r="E151" t="n">
-        <v>0.9372352957725525</v>
+        <v>-0.6582331657409668</v>
       </c>
       <c r="F151" t="n">
-        <v>2.390425443649292</v>
+        <v>-3.346913576126099</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>32.17498779296875</v>
+        <v>32.18302917480469</v>
       </c>
       <c r="B152" t="n">
-        <v>30.82379913330078</v>
+        <v>30.05106544494629</v>
       </c>
       <c r="C152" t="n">
-        <v>0.5804225206375122</v>
+        <v>5.718846321105957</v>
       </c>
       <c r="D152" t="n">
-        <v>3.340698719024658</v>
+        <v>8.973518371582031</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.009782841429114342</v>
+        <v>-1.22786283493042</v>
       </c>
       <c r="F152" t="n">
-        <v>1.621153593063354</v>
+        <v>-4.025025844573975</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>32.18124771118164</v>
+        <v>32.24213409423828</v>
       </c>
       <c r="B153" t="n">
-        <v>31.98024559020996</v>
+        <v>29.71542930603027</v>
       </c>
       <c r="C153" t="n">
-        <v>5.065499305725098</v>
+        <v>9.528738021850586</v>
       </c>
       <c r="D153" t="n">
-        <v>8.825531005859375</v>
+        <v>9.39881420135498</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.6061587333679199</v>
+        <v>-2.472475528717041</v>
       </c>
       <c r="F153" t="n">
-        <v>1.264229536056519</v>
+        <v>-5.261070728302002</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>33.16247177124023</v>
+        <v>31.84160614013672</v>
       </c>
       <c r="B154" t="n">
-        <v>33.30034255981445</v>
+        <v>23.7468433380127</v>
       </c>
       <c r="C154" t="n">
-        <v>9.834385871887207</v>
+        <v>15.18905448913574</v>
       </c>
       <c r="D154" t="n">
-        <v>12.87515354156494</v>
+        <v>18.07257652282715</v>
       </c>
       <c r="E154" t="n">
-        <v>-4.54097843170166</v>
+        <v>-6.559369087219238</v>
       </c>
       <c r="F154" t="n">
-        <v>-3.005933284759521</v>
+        <v>-6.950271129608154</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>33.05275726318359</v>
+        <v>31.91592216491699</v>
       </c>
       <c r="B155" t="n">
-        <v>35.36707305908203</v>
+        <v>17.92060470581055</v>
       </c>
       <c r="C155" t="n">
-        <v>7.285995483398438</v>
+        <v>16.44845581054688</v>
       </c>
       <c r="D155" t="n">
-        <v>10.7665548324585</v>
+        <v>22.40293884277344</v>
       </c>
       <c r="E155" t="n">
-        <v>-5.92214298248291</v>
+        <v>-6.559369087219238</v>
       </c>
       <c r="F155" t="n">
-        <v>-5.08256721496582</v>
+        <v>-5.067746162414551</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>31.3610782623291</v>
+        <v>31.91592216491699</v>
       </c>
       <c r="B156" t="n">
-        <v>35.36707305908203</v>
+        <v>15.5009651184082</v>
       </c>
       <c r="C156" t="n">
-        <v>3.697218418121338</v>
+        <v>16.44845581054688</v>
       </c>
       <c r="D156" t="n">
-        <v>8.265485763549805</v>
+        <v>23.78532028198242</v>
       </c>
       <c r="E156" t="n">
-        <v>-5.92214298248291</v>
+        <v>-5.921548843383789</v>
       </c>
       <c r="F156" t="n">
-        <v>-5.08256721496582</v>
+        <v>-5.919684410095215</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>27.82836532592773</v>
+        <v>29.50448989868164</v>
       </c>
       <c r="B157" t="n">
-        <v>32.02392578125</v>
+        <v>15.5009651184082</v>
       </c>
       <c r="C157" t="n">
-        <v>1.180814385414124</v>
+        <v>13.35061359405518</v>
       </c>
       <c r="D157" t="n">
-        <v>7.071755886077881</v>
+        <v>22.70064926147461</v>
       </c>
       <c r="E157" t="n">
-        <v>-5.357878684997559</v>
+        <v>-2.828783512115479</v>
       </c>
       <c r="F157" t="n">
-        <v>-5.837668895721436</v>
+        <v>-6.580348491668701</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>25.21738433837891</v>
+        <v>26.80243873596191</v>
       </c>
       <c r="B158" t="n">
-        <v>30.52113914489746</v>
+        <v>18.90573501586914</v>
       </c>
       <c r="C158" t="n">
-        <v>1.180814385414124</v>
+        <v>10.89472579956055</v>
       </c>
       <c r="D158" t="n">
-        <v>7.071755886077881</v>
+        <v>19.85876846313477</v>
       </c>
       <c r="E158" t="n">
-        <v>-6.629896640777588</v>
+        <v>0.5475423336029053</v>
       </c>
       <c r="F158" t="n">
-        <v>-6.44461727142334</v>
+        <v>-6.296797752380371</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>23.90359878540039</v>
+        <v>24.00795745849609</v>
       </c>
       <c r="B159" t="n">
-        <v>29.32834243774414</v>
+        <v>22.28128242492676</v>
       </c>
       <c r="C159" t="n">
-        <v>3.455955505371094</v>
+        <v>8.105379104614258</v>
       </c>
       <c r="D159" t="n">
-        <v>10.37430953979492</v>
+        <v>16.24234008789062</v>
       </c>
       <c r="E159" t="n">
-        <v>-8.366241455078125</v>
+        <v>3.274301528930664</v>
       </c>
       <c r="F159" t="n">
-        <v>-5.528410911560059</v>
+        <v>-5.335849761962891</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>22.86215400695801</v>
+        <v>21.78086090087891</v>
       </c>
       <c r="B160" t="n">
-        <v>27.78916358947754</v>
+        <v>25.72432327270508</v>
       </c>
       <c r="C160" t="n">
-        <v>4.906670093536377</v>
+        <v>5.250868320465088</v>
       </c>
       <c r="D160" t="n">
-        <v>10.37430953979492</v>
+        <v>12.75522041320801</v>
       </c>
       <c r="E160" t="n">
-        <v>-5.887247085571289</v>
+        <v>4.725398063659668</v>
       </c>
       <c r="F160" t="n">
-        <v>-3.349545478820801</v>
+        <v>-2.510570287704468</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>21.10050964355469</v>
+        <v>20.4155387878418</v>
       </c>
       <c r="B161" t="n">
-        <v>25.63179397583008</v>
+        <v>28.21662139892578</v>
       </c>
       <c r="C161" t="n">
-        <v>4.906670093536377</v>
+        <v>2.407860517501831</v>
       </c>
       <c r="D161" t="n">
-        <v>12.33356857299805</v>
+        <v>9.973363876342773</v>
       </c>
       <c r="E161" t="n">
-        <v>-4.405195236206055</v>
+        <v>4.725398063659668</v>
       </c>
       <c r="F161" t="n">
-        <v>-1.406293034553528</v>
+        <v>-0.1850827932357788</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>18.68321990966797</v>
+        <v>20.4155387878418</v>
       </c>
       <c r="B162" t="n">
-        <v>23.14579772949219</v>
+        <v>28.21662139892578</v>
       </c>
       <c r="C162" t="n">
-        <v>2.546809196472168</v>
+        <v>-0.1623299121856689</v>
       </c>
       <c r="D162" t="n">
-        <v>11.02505493164062</v>
+        <v>8.134267807006836</v>
       </c>
       <c r="E162" t="n">
-        <v>-3.323437452316284</v>
+        <v>4.761947631835938</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.05051511526107788</v>
+        <v>2.651423692703247</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>16.21625328063965</v>
+        <v>18.66274833679199</v>
       </c>
       <c r="B163" t="n">
-        <v>20.63121223449707</v>
+        <v>26.93705368041992</v>
       </c>
       <c r="C163" t="n">
-        <v>0.6247786283493042</v>
+        <v>-1.549883127212524</v>
       </c>
       <c r="D163" t="n">
-        <v>9.56806468963623</v>
+        <v>8.134267807006836</v>
       </c>
       <c r="E163" t="n">
-        <v>-3.323437452316284</v>
+        <v>2.872224807739258</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.05051511526107788</v>
+        <v>4.556682586669922</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>14.09053421020508</v>
+        <v>14.7799596786499</v>
       </c>
       <c r="B164" t="n">
-        <v>18.18479537963867</v>
+        <v>22.42246055603027</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.9120861887931824</v>
+        <v>-1.549883127212524</v>
       </c>
       <c r="D164" t="n">
-        <v>8.502291679382324</v>
+        <v>6.590262413024902</v>
       </c>
       <c r="E164" t="n">
-        <v>-1.947004795074463</v>
+        <v>2.073042869567871</v>
       </c>
       <c r="F164" t="n">
-        <v>1.830237150192261</v>
+        <v>4.556682586669922</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>12.3101978302002</v>
+        <v>11.66531562805176</v>
       </c>
       <c r="B165" t="n">
-        <v>15.83318901062012</v>
+        <v>17.68777084350586</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.9120861887931824</v>
+        <v>1.605962514877319</v>
       </c>
       <c r="D165" t="n">
-        <v>7.670262336730957</v>
+        <v>8.03547191619873</v>
       </c>
       <c r="E165" t="n">
-        <v>-1.405062198638916</v>
+        <v>2.851395606994629</v>
       </c>
       <c r="F165" t="n">
-        <v>2.505504369735718</v>
+        <v>2.214921474456787</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>10.7165060043335</v>
+        <v>8.224061965942383</v>
       </c>
       <c r="B166" t="n">
-        <v>13.62246322631836</v>
+        <v>14.65427589416504</v>
       </c>
       <c r="C166" t="n">
-        <v>-2.864156007766724</v>
+        <v>2.774113893508911</v>
       </c>
       <c r="D166" t="n">
-        <v>6.928502082824707</v>
+        <v>9.312918663024902</v>
       </c>
       <c r="E166" t="n">
-        <v>-0.4650240540504456</v>
+        <v>4.27457332611084</v>
       </c>
       <c r="F166" t="n">
-        <v>3.347069501876831</v>
+        <v>0.3144583106040955</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>9.18211555480957</v>
+        <v>4.882221221923828</v>
       </c>
       <c r="B167" t="n">
-        <v>11.61481761932373</v>
+        <v>13.64899635314941</v>
       </c>
       <c r="C167" t="n">
-        <v>-2.871459245681763</v>
+        <v>2.774113893508911</v>
       </c>
       <c r="D167" t="n">
-        <v>6.333453178405762</v>
+        <v>7.661763191223145</v>
       </c>
       <c r="E167" t="n">
-        <v>0.7416109442710876</v>
+        <v>5.932390213012695</v>
       </c>
       <c r="F167" t="n">
-        <v>4.290763378143311</v>
+        <v>-0.9251416921615601</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>7.652042388916016</v>
+        <v>1.851825952529907</v>
       </c>
       <c r="B168" t="n">
-        <v>9.841945648193359</v>
+        <v>13.64899635314941</v>
       </c>
       <c r="C168" t="n">
-        <v>-2.579533815383911</v>
+        <v>-0.880720317363739</v>
       </c>
       <c r="D168" t="n">
-        <v>6.019478797912598</v>
+        <v>5.436518669128418</v>
       </c>
       <c r="E168" t="n">
-        <v>2.088242053985596</v>
+        <v>7.750417709350586</v>
       </c>
       <c r="F168" t="n">
-        <v>5.368780612945557</v>
+        <v>-0.9251416921615601</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>6.109641075134277</v>
+        <v>-0.6432090997695923</v>
       </c>
       <c r="B169" t="n">
-        <v>8.28473949432373</v>
+        <v>13.95221042633057</v>
       </c>
       <c r="C169" t="n">
-        <v>-2.035535097122192</v>
+        <v>-3.880811214447021</v>
       </c>
       <c r="D169" t="n">
-        <v>6.04942798614502</v>
+        <v>2.928296089172363</v>
       </c>
       <c r="E169" t="n">
-        <v>3.487993717193604</v>
+        <v>9.165009498596191</v>
       </c>
       <c r="F169" t="n">
-        <v>6.59927225112915</v>
+        <v>-2.421080112457275</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>4.550538063049316</v>
+        <v>-2.390152454376221</v>
       </c>
       <c r="B170" t="n">
-        <v>6.883925437927246</v>
+        <v>14.233323097229</v>
       </c>
       <c r="C170" t="n">
-        <v>-1.337722063064575</v>
+        <v>-6.205699920654297</v>
       </c>
       <c r="D170" t="n">
-        <v>6.377776145935059</v>
+        <v>0.9397135376930237</v>
       </c>
       <c r="E170" t="n">
-        <v>4.886668682098389</v>
+        <v>9.637532234191895</v>
       </c>
       <c r="F170" t="n">
-        <v>7.939730167388916</v>
+        <v>-3.27231240272522</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2.979022979736328</v>
+        <v>-2.390152454376221</v>
       </c>
       <c r="B171" t="n">
-        <v>5.566678047180176</v>
+        <v>13.20499610900879</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.6278297305107117</v>
+        <v>-6.205699920654297</v>
       </c>
       <c r="D171" t="n">
-        <v>6.882737159729004</v>
+        <v>-0.2070492804050446</v>
       </c>
       <c r="E171" t="n">
-        <v>6.230485439300537</v>
+        <v>9.327784538269043</v>
       </c>
       <c r="F171" t="n">
-        <v>9.307366371154785</v>
+        <v>-6.079484939575195</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1.410075545310974</v>
+        <v>-4.314097881317139</v>
       </c>
       <c r="B172" t="n">
-        <v>4.274459838867188</v>
+        <v>11.38275814056396</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.02509230375289917</v>
+        <v>-6.753056526184082</v>
       </c>
       <c r="D172" t="n">
-        <v>7.429572105407715</v>
+        <v>-0.2070492804050446</v>
       </c>
       <c r="E172" t="n">
-        <v>7.478816509246826</v>
+        <v>8.898146629333496</v>
       </c>
       <c r="F172" t="n">
-        <v>10.6496114730835</v>
+        <v>-7.477720260620117</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-0.125271737575531</v>
+        <v>-4.215701580047607</v>
       </c>
       <c r="B173" t="n">
-        <v>2.983096837997437</v>
+        <v>9.562016487121582</v>
       </c>
       <c r="C173" t="n">
-        <v>0.4345539212226868</v>
+        <v>-5.289666175842285</v>
       </c>
       <c r="D173" t="n">
-        <v>7.93941593170166</v>
+        <v>-1.245987772941589</v>
       </c>
       <c r="E173" t="n">
-        <v>8.630739212036133</v>
+        <v>8.774601936340332</v>
       </c>
       <c r="F173" t="n">
-        <v>11.92396640777588</v>
+        <v>-8.74072265625</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-1.576520085334778</v>
+        <v>-4.408395290374756</v>
       </c>
       <c r="B174" t="n">
-        <v>1.709099411964417</v>
+        <v>8.285429000854492</v>
       </c>
       <c r="C174" t="n">
-        <v>0.8282497525215149</v>
+        <v>-3.866865158081055</v>
       </c>
       <c r="D174" t="n">
-        <v>8.432486534118652</v>
+        <v>-1.183403849601746</v>
       </c>
       <c r="E174" t="n">
-        <v>9.659326553344727</v>
+        <v>8.907105445861816</v>
       </c>
       <c r="F174" t="n">
-        <v>13.06979656219482</v>
+        <v>-9.792856216430664</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-2.882210969924927</v>
+        <v>-5.017852306365967</v>
       </c>
       <c r="B175" t="n">
-        <v>0.5009050965309143</v>
+        <v>7.638171195983887</v>
       </c>
       <c r="C175" t="n">
-        <v>1.330933332443237</v>
+        <v>-2.564782619476318</v>
       </c>
       <c r="D175" t="n">
-        <v>9.021655082702637</v>
+        <v>-1.055283427238464</v>
       </c>
       <c r="E175" t="n">
-        <v>10.49873924255371</v>
+        <v>9.035433769226074</v>
       </c>
       <c r="F175" t="n">
-        <v>14.01452922821045</v>
+        <v>-9.792856216430664</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-3.986790180206299</v>
+        <v>-5.76828145980835</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.5826041698455811</v>
+        <v>7.378701210021973</v>
       </c>
       <c r="C176" t="n">
-        <v>2.140347242355347</v>
+        <v>-1.19328248500824</v>
       </c>
       <c r="D176" t="n">
-        <v>9.858769416809082</v>
+        <v>-0.5518635511398315</v>
       </c>
       <c r="E176" t="n">
-        <v>11.0928840637207</v>
+        <v>8.932568550109863</v>
       </c>
       <c r="F176" t="n">
-        <v>14.6946496963501</v>
+        <v>-11.61230278015137</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-3.986790180206299</v>
+        <v>-6.334420680999756</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.5826041698455811</v>
+        <v>7.20972728729248</v>
       </c>
       <c r="C177" t="n">
-        <v>3.388773679733276</v>
+        <v>0.4307906031608582</v>
       </c>
       <c r="D177" t="n">
-        <v>11.06692886352539</v>
+        <v>0.4639331102371216</v>
       </c>
       <c r="E177" t="n">
-        <v>11.40011787414551</v>
+        <v>8.495469093322754</v>
       </c>
       <c r="F177" t="n">
-        <v>15.08646678924561</v>
+        <v>-12.24625301361084</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-5.729613780975342</v>
+        <v>-6.587380886077881</v>
       </c>
       <c r="B178" t="n">
-        <v>-2.410356998443604</v>
+        <v>6.986210823059082</v>
       </c>
       <c r="C178" t="n">
-        <v>6.138648986816406</v>
+        <v>2.366988897323608</v>
       </c>
       <c r="D178" t="n">
-        <v>13.72807025909424</v>
+        <v>1.904700398445129</v>
       </c>
       <c r="E178" t="n">
-        <v>11.36082077026367</v>
+        <v>7.65452766418457</v>
       </c>
       <c r="F178" t="n">
-        <v>15.17391681671143</v>
+        <v>-12.62215995788574</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-6.138513088226318</v>
+        <v>-6.583652019500732</v>
       </c>
       <c r="B179" t="n">
-        <v>-2.941524982452393</v>
+        <v>6.752499580383301</v>
       </c>
       <c r="C179" t="n">
-        <v>7.856886863708496</v>
+        <v>4.628780841827393</v>
       </c>
       <c r="D179" t="n">
-        <v>15.48278045654297</v>
+        <v>3.635363817214966</v>
       </c>
       <c r="E179" t="n">
-        <v>10.89291763305664</v>
+        <v>5.217966556549072</v>
       </c>
       <c r="F179" t="n">
-        <v>14.83742618560791</v>
+        <v>-12.73554515838623</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-6.35226583480835</v>
+        <v>-6.399890422821045</v>
       </c>
       <c r="B180" t="n">
-        <v>-3.258593082427979</v>
+        <v>6.588286399841309</v>
       </c>
       <c r="C180" t="n">
-        <v>10.08941841125488</v>
+        <v>7.320845603942871</v>
       </c>
       <c r="D180" t="n">
-        <v>17.85627746582031</v>
+        <v>6.742043495178223</v>
       </c>
       <c r="E180" t="n">
-        <v>8.696484565734863</v>
+        <v>3.233122110366821</v>
       </c>
       <c r="F180" t="n">
-        <v>12.67873668670654</v>
+        <v>-12.8164119720459</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-6.322875499725342</v>
+        <v>-5.989293575286865</v>
       </c>
       <c r="B181" t="n">
-        <v>-3.307344913482666</v>
+        <v>6.516718864440918</v>
       </c>
       <c r="C181" t="n">
-        <v>12.87373542785645</v>
+        <v>10.69159984588623</v>
       </c>
       <c r="D181" t="n">
-        <v>20.89896011352539</v>
+        <v>8.642448425292969</v>
       </c>
       <c r="E181" t="n">
-        <v>6.379840850830078</v>
+        <v>0.5584021806716919</v>
       </c>
       <c r="F181" t="n">
-        <v>10.24164390563965</v>
+        <v>-13.24705505371094</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-5.909923076629639</v>
+        <v>-5.176639080047607</v>
       </c>
       <c r="B182" t="n">
-        <v>-2.919191837310791</v>
+        <v>6.474783897399902</v>
       </c>
       <c r="C182" t="n">
-        <v>16.44342041015625</v>
+        <v>14.98572731018066</v>
       </c>
       <c r="D182" t="n">
-        <v>24.71342468261719</v>
+        <v>11.12368965148926</v>
       </c>
       <c r="E182" t="n">
-        <v>2.699268579483032</v>
+        <v>-2.355826377868652</v>
       </c>
       <c r="F182" t="n">
-        <v>6.458126068115234</v>
+        <v>-16.06825065612793</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-4.801360607147217</v>
+        <v>-2.525144100189209</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.945501804351807</v>
+        <v>6.421488761901855</v>
       </c>
       <c r="C183" t="n">
-        <v>21.01211738586426</v>
+        <v>20.25527954101562</v>
       </c>
       <c r="D183" t="n">
-        <v>29.39908218383789</v>
+        <v>14.1866512298584</v>
       </c>
       <c r="E183" t="n">
-        <v>-2.105328559875488</v>
+        <v>-5.123949527740479</v>
       </c>
       <c r="F183" t="n">
-        <v>1.539533495903015</v>
+        <v>-18.78708267211914</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-1.370087862014771</v>
+        <v>-0.3354592323303223</v>
       </c>
       <c r="B184" t="n">
-        <v>1.160117626190186</v>
+        <v>6.630661964416504</v>
       </c>
       <c r="C184" t="n">
-        <v>26.65425872802734</v>
+        <v>26.29818153381348</v>
       </c>
       <c r="D184" t="n">
-        <v>34.89901733398438</v>
+        <v>18.04352569580078</v>
       </c>
       <c r="E184" t="n">
-        <v>-7.349626064300537</v>
+        <v>-7.691445350646973</v>
       </c>
       <c r="F184" t="n">
-        <v>-3.756181240081787</v>
+        <v>-21.97008514404297</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1.26028037071228</v>
+        <v>2.633511543273926</v>
       </c>
       <c r="B185" t="n">
-        <v>3.464562892913818</v>
+        <v>8.801950454711914</v>
       </c>
       <c r="C185" t="n">
-        <v>33.16247177124023</v>
+        <v>32.7747917175293</v>
       </c>
       <c r="D185" t="n">
-        <v>40.89424896240234</v>
+        <v>22.94293212890625</v>
       </c>
       <c r="E185" t="n">
-        <v>-12.08345699310303</v>
+        <v>-10.04120063781738</v>
       </c>
       <c r="F185" t="n">
-        <v>-8.329388618469238</v>
+        <v>-24.20938301086426</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>4.723513126373291</v>
+        <v>6.12600040435791</v>
       </c>
       <c r="B186" t="n">
-        <v>6.410548210144043</v>
+        <v>10.79229927062988</v>
       </c>
       <c r="C186" t="n">
-        <v>40.01536178588867</v>
+        <v>39.33447265625</v>
       </c>
       <c r="D186" t="n">
-        <v>46.83988952636719</v>
+        <v>28.81828117370605</v>
       </c>
       <c r="E186" t="n">
-        <v>-15.27140998840332</v>
+        <v>-11.80247020721436</v>
       </c>
       <c r="F186" t="n">
-        <v>-11.27234935760498</v>
+        <v>-24.20938301086426</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>8.657150268554688</v>
+        <v>9.92613697052002</v>
       </c>
       <c r="B187" t="n">
-        <v>9.713069915771484</v>
+        <v>13.16318321228027</v>
       </c>
       <c r="C187" t="n">
-        <v>46.54578399658203</v>
+        <v>45.61553955078125</v>
       </c>
       <c r="D187" t="n">
-        <v>52.15595245361328</v>
+        <v>35.27254104614258</v>
       </c>
       <c r="E187" t="n">
-        <v>-16.31082916259766</v>
+        <v>-11.80247020721436</v>
       </c>
       <c r="F187" t="n">
-        <v>-11.27234935760498</v>
+        <v>-23.34895896911621</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>12.74854278564453</v>
+        <v>13.80278396606445</v>
       </c>
       <c r="B188" t="n">
-        <v>13.17278099060059</v>
+        <v>15.53062438964844</v>
       </c>
       <c r="C188" t="n">
-        <v>52.18689727783203</v>
+        <v>51.17020416259766</v>
       </c>
       <c r="D188" t="n">
-        <v>56.40205383300781</v>
+        <v>41.79042816162109</v>
       </c>
       <c r="E188" t="n">
-        <v>-15.25511360168457</v>
+        <v>-13.31668472290039</v>
       </c>
       <c r="F188" t="n">
-        <v>-11.49060440063477</v>
+        <v>-20.65772819519043</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>16.77900505065918</v>
+        <v>17.46477317810059</v>
       </c>
       <c r="B189" t="n">
-        <v>16.66646194458008</v>
+        <v>17.7060546875</v>
       </c>
       <c r="C189" t="n">
-        <v>56.56663513183594</v>
+        <v>55.51190185546875</v>
       </c>
       <c r="D189" t="n">
-        <v>59.32938766479492</v>
+        <v>47.88872146606445</v>
       </c>
       <c r="E189" t="n">
-        <v>-12.65923881530762</v>
+        <v>-12.04963684082031</v>
       </c>
       <c r="F189" t="n">
-        <v>-8.863678932189941</v>
+        <v>-17.60960960388184</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>20.58695602416992</v>
+        <v>20.60617446899414</v>
       </c>
       <c r="B190" t="n">
-        <v>20.07189178466797</v>
+        <v>19.65181732177734</v>
       </c>
       <c r="C190" t="n">
-        <v>59.44029998779297</v>
+        <v>58.28073120117188</v>
       </c>
       <c r="D190" t="n">
-        <v>60.79039764404297</v>
+        <v>53.09212493896484</v>
       </c>
       <c r="E190" t="n">
-        <v>-9.287446975708008</v>
+        <v>-10.3631534576416</v>
       </c>
       <c r="F190" t="n">
-        <v>-5.651575565338135</v>
+        <v>-14.7499532699585</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>24.0330810546875</v>
+        <v>23.00689697265625</v>
       </c>
       <c r="B191" t="n">
-        <v>23.23263931274414</v>
+        <v>21.4010124206543</v>
       </c>
       <c r="C191" t="n">
-        <v>60.62457275390625</v>
+        <v>59.38024520874023</v>
       </c>
       <c r="D191" t="n">
-        <v>60.79039764404297</v>
+        <v>56.88387298583984</v>
       </c>
       <c r="E191" t="n">
-        <v>-5.812819480895996</v>
+        <v>-7.47221851348877</v>
       </c>
       <c r="F191" t="n">
-        <v>-2.369936227798462</v>
+        <v>-12.28228569030762</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>27.00236129760742</v>
+        <v>24.62242889404297</v>
       </c>
       <c r="B192" t="n">
-        <v>25.98190689086914</v>
+        <v>22.98798370361328</v>
       </c>
       <c r="C192" t="n">
-        <v>60.62457275390625</v>
+        <v>59.38024520874023</v>
       </c>
       <c r="D192" t="n">
-        <v>58.77417755126953</v>
+        <v>58.80048751831055</v>
       </c>
       <c r="E192" t="n">
-        <v>-2.690477609634399</v>
+        <v>-5.858509063720703</v>
       </c>
       <c r="F192" t="n">
-        <v>0.6087915897369385</v>
+        <v>-10.14265823364258</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>29.42385864257812</v>
+        <v>24.62242889404297</v>
       </c>
       <c r="B193" t="n">
-        <v>28.1781120300293</v>
+        <v>24.38994216918945</v>
       </c>
       <c r="C193" t="n">
-        <v>57.20308685302734</v>
+        <v>56.98533630371094</v>
       </c>
       <c r="D193" t="n">
-        <v>55.23638153076172</v>
+        <v>58.80048751831055</v>
       </c>
       <c r="E193" t="n">
-        <v>-0.1386197805404663</v>
+        <v>-3.982462406158447</v>
       </c>
       <c r="F193" t="n">
-        <v>3.013259410858154</v>
+        <v>-8.21589469909668</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>31.29020309448242</v>
+        <v>26.5438117980957</v>
       </c>
       <c r="B194" t="n">
-        <v>29.74645233154297</v>
+        <v>25.45698547363281</v>
       </c>
       <c r="C194" t="n">
-        <v>53.13227844238281</v>
+        <v>53.82035064697266</v>
       </c>
       <c r="D194" t="n">
-        <v>49.99571228027344</v>
+        <v>55.73971176147461</v>
       </c>
       <c r="E194" t="n">
-        <v>1.772151947021484</v>
+        <v>-2.139593839645386</v>
       </c>
       <c r="F194" t="n">
-        <v>4.640560150146484</v>
+        <v>-6.504456043243408</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>32.64145278930664</v>
+        <v>26.58820724487305</v>
       </c>
       <c r="B195" t="n">
-        <v>29.74645233154297</v>
+        <v>25.45698547363281</v>
       </c>
       <c r="C195" t="n">
-        <v>47.500244140625</v>
+        <v>48.23212432861328</v>
       </c>
       <c r="D195" t="n">
-        <v>43.31387329101562</v>
+        <v>50.08502578735352</v>
       </c>
       <c r="E195" t="n">
-        <v>2.985565423965454</v>
+        <v>-0.589776873588562</v>
       </c>
       <c r="F195" t="n">
-        <v>4.640560150146484</v>
+        <v>-5.186621189117432</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>32.64145278930664</v>
+        <v>26.43081092834473</v>
       </c>
       <c r="B196" t="n">
-        <v>31.61848068237305</v>
+        <v>26.2952995300293</v>
       </c>
       <c r="C196" t="n">
-        <v>40.76751708984375</v>
+        <v>39.21511077880859</v>
       </c>
       <c r="D196" t="n">
-        <v>35.70077514648438</v>
+        <v>40.9625244140625</v>
       </c>
       <c r="E196" t="n">
-        <v>2.985565423965454</v>
+        <v>0.513893187046051</v>
       </c>
       <c r="F196" t="n">
-        <v>6.081952571868896</v>
+        <v>-5.186621189117432</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>34.39375686645508</v>
+        <v>25.95249176025391</v>
       </c>
       <c r="B197" t="n">
-        <v>31.42362785339355</v>
+        <v>25.30271339416504</v>
       </c>
       <c r="C197" t="n">
-        <v>33.42529296875</v>
+        <v>28.09538269042969</v>
       </c>
       <c r="D197" t="n">
-        <v>27.87252616882324</v>
+        <v>30.39768600463867</v>
       </c>
       <c r="E197" t="n">
-        <v>3.840893268585205</v>
+        <v>0.513893187046051</v>
       </c>
       <c r="F197" t="n">
-        <v>5.107431888580322</v>
+        <v>-3.573078155517578</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>34.38294219970703</v>
+        <v>25.2171630859375</v>
       </c>
       <c r="B198" t="n">
-        <v>31.08233261108398</v>
+        <v>26.84118270874023</v>
       </c>
       <c r="C198" t="n">
-        <v>25.92292022705078</v>
+        <v>18.14422416687012</v>
       </c>
       <c r="D198" t="n">
-        <v>20.47278213500977</v>
+        <v>21.58911514282227</v>
       </c>
       <c r="E198" t="n">
-        <v>2.841286182403564</v>
+        <v>1.97312068939209</v>
       </c>
       <c r="F198" t="n">
-        <v>3.94590163230896</v>
+        <v>-3.180780410766602</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>34.01730346679688</v>
+        <v>25.1383228302002</v>
       </c>
       <c r="B199" t="n">
-        <v>30.72384452819824</v>
+        <v>28.62811279296875</v>
       </c>
       <c r="C199" t="n">
-        <v>18.62769508361816</v>
+        <v>11.18518447875977</v>
       </c>
       <c r="D199" t="n">
-        <v>14.01048851013184</v>
+        <v>15.75736618041992</v>
       </c>
       <c r="E199" t="n">
-        <v>1.805812358856201</v>
+        <v>1.870716094970703</v>
       </c>
       <c r="F199" t="n">
-        <v>3.053788900375366</v>
+        <v>-2.807399988174438</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>33.43080139160156</v>
+        <v>27.70076751708984</v>
       </c>
       <c r="B200" t="n">
-        <v>30.57684516906738</v>
+        <v>29.99215126037598</v>
       </c>
       <c r="C200" t="n">
-        <v>11.96459579467773</v>
+        <v>7.357183933258057</v>
       </c>
       <c r="D200" t="n">
-        <v>8.843487739562988</v>
+        <v>12.40256118774414</v>
       </c>
       <c r="E200" t="n">
-        <v>1.220931529998779</v>
+        <v>0.9463033676147461</v>
       </c>
       <c r="F200" t="n">
-        <v>2.702355146408081</v>
+        <v>-3.123236894607544</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>32.84605407714844</v>
+        <v>29.53854370117188</v>
       </c>
       <c r="B201" t="n">
-        <v>30.68017387390137</v>
+        <v>29.99215126037598</v>
       </c>
       <c r="C201" t="n">
-        <v>6.485777378082275</v>
+        <v>6.06308650970459</v>
       </c>
       <c r="D201" t="n">
-        <v>5.237241744995117</v>
+        <v>10.5161247253418</v>
       </c>
       <c r="E201" t="n">
-        <v>0.9364303946495056</v>
+        <v>-0.2720203399658203</v>
       </c>
       <c r="F201" t="n">
-        <v>2.639433622360229</v>
+        <v>-3.840134382247925</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>32.43146133422852</v>
+        <v>31.20134735107422</v>
       </c>
       <c r="B202" t="n">
-        <v>30.88381958007812</v>
+        <v>30.89033126831055</v>
       </c>
       <c r="C202" t="n">
-        <v>2.714606761932373</v>
+        <v>6.06308650970459</v>
       </c>
       <c r="D202" t="n">
-        <v>3.349802494049072</v>
+        <v>9.349035263061523</v>
       </c>
       <c r="E202" t="n">
-        <v>0.5296787619590759</v>
+        <v>-1.013870239257812</v>
       </c>
       <c r="F202" t="n">
-        <v>2.479103803634644</v>
+        <v>-4.278374671936035</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>32.22950744628906</v>
+        <v>31.20134735107422</v>
       </c>
       <c r="B203" t="n">
-        <v>30.9810733795166</v>
+        <v>29.87692070007324</v>
       </c>
       <c r="C203" t="n">
-        <v>0.8512355089187622</v>
+        <v>6.694388389587402</v>
       </c>
       <c r="D203" t="n">
-        <v>3.349802494049072</v>
+        <v>9.349035263061523</v>
       </c>
       <c r="E203" t="n">
-        <v>-0.462431013584137</v>
+        <v>-1.432661056518555</v>
       </c>
       <c r="F203" t="n">
-        <v>1.688058614730835</v>
+        <v>-4.477692604064941</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>32.24493789672852</v>
+        <v>31.93594169616699</v>
       </c>
       <c r="B204" t="n">
-        <v>32.11719131469727</v>
+        <v>27.16913414001465</v>
       </c>
       <c r="C204" t="n">
-        <v>4.25474214553833</v>
+        <v>11.62117004394531</v>
       </c>
       <c r="D204" t="n">
-        <v>7.126841068267822</v>
+        <v>11.6502628326416</v>
       </c>
       <c r="E204" t="n">
-        <v>-2.294995784759521</v>
+        <v>-2.354685306549072</v>
       </c>
       <c r="F204" t="n">
-        <v>0.07150527834892273</v>
+        <v>-5.122570991516113</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>32.8869743347168</v>
+        <v>31.93594169616699</v>
       </c>
       <c r="B205" t="n">
-        <v>32.11719131469727</v>
+        <v>27.16913414001465</v>
       </c>
       <c r="C205" t="n">
-        <v>4.25474214553833</v>
+        <v>11.62117004394531</v>
       </c>
       <c r="D205" t="n">
-        <v>7.126841068267822</v>
+        <v>11.6502628326416</v>
       </c>
       <c r="E205" t="n">
-        <v>-2.938205718994141</v>
+        <v>-4.163606643676758</v>
       </c>
       <c r="F205" t="n">
-        <v>-0.5918964147567749</v>
+        <v>-6.489306926727295</v>
       </c>
     </row>
   </sheetData>

--- a/exo_control/neural_network_parameters/excel/timestamps_cp_lstm.xlsx
+++ b/exo_control/neural_network_parameters/excel/timestamps_cp_lstm.xlsx
@@ -467,4082 +467,4082 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30.71520233154297</v>
+        <v>36.22259521484375</v>
       </c>
       <c r="B2" t="n">
-        <v>23.64204406738281</v>
+        <v>36.22259521484375</v>
       </c>
       <c r="C2" t="n">
-        <v>13.44729900360107</v>
+        <v>36.22259521484375</v>
       </c>
       <c r="D2" t="n">
-        <v>15.2436351776123</v>
+        <v>36.22259521484375</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.103468418121338</v>
+        <v>36.22259521484375</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.664198875427246</v>
+        <v>36.22259521484375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>29.5199031829834</v>
+        <v>36.17816162109375</v>
       </c>
       <c r="B3" t="n">
-        <v>24.77532386779785</v>
+        <v>-1.620116472244263</v>
       </c>
       <c r="C3" t="n">
-        <v>11.55820465087891</v>
+        <v>9.813838958740234</v>
       </c>
       <c r="D3" t="n">
-        <v>13.64948844909668</v>
+        <v>21.31833839416504</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.900455951690674</v>
+        <v>-10.83676910400391</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.504446029663086</v>
+        <v>-6.360042572021484</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28.59464263916016</v>
+        <v>31.88663864135742</v>
       </c>
       <c r="B4" t="n">
-        <v>26.84866714477539</v>
+        <v>-0.7401039004325867</v>
       </c>
       <c r="C4" t="n">
-        <v>10.16953277587891</v>
+        <v>9.536151885986328</v>
       </c>
       <c r="D4" t="n">
-        <v>13.64948844909668</v>
+        <v>24.21579360961914</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.832979202270508</v>
+        <v>-6.807538509368896</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.922012329101562</v>
+        <v>-15.93971729278564</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27.29340171813965</v>
+        <v>27.87544822692871</v>
       </c>
       <c r="B5" t="n">
-        <v>28.41649627685547</v>
+        <v>1.71892237663269</v>
       </c>
       <c r="C5" t="n">
-        <v>10.16953277587891</v>
+        <v>10.4442892074585</v>
       </c>
       <c r="D5" t="n">
-        <v>12.35146999359131</v>
+        <v>29.31455993652344</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.584873676300049</v>
+        <v>-3.398961067199707</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.013740539550781</v>
+        <v>-23.96498107910156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25.83558654785156</v>
+        <v>24.59114456176758</v>
       </c>
       <c r="B6" t="n">
-        <v>28.41649627685547</v>
+        <v>5.209458351135254</v>
       </c>
       <c r="C6" t="n">
-        <v>8.527400016784668</v>
+        <v>11.54807949066162</v>
       </c>
       <c r="D6" t="n">
-        <v>13.43080902099609</v>
+        <v>35.62349319458008</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.156487941741943</v>
+        <v>-1.160254001617432</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.94720196723938</v>
+        <v>-27.91688537597656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22.70098876953125</v>
+        <v>21.88436508178711</v>
       </c>
       <c r="B7" t="n">
-        <v>27.33099365234375</v>
+        <v>9.344799041748047</v>
       </c>
       <c r="C7" t="n">
-        <v>8.343356132507324</v>
+        <v>12.09308528900146</v>
       </c>
       <c r="D7" t="n">
-        <v>14.79328346252441</v>
+        <v>42.29165267944336</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2116622924804688</v>
+        <v>0.1934609413146973</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5259734988212585</v>
+        <v>-27.31488418579102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20.4926643371582</v>
+        <v>19.53562927246094</v>
       </c>
       <c r="B8" t="n">
-        <v>24.78336334228516</v>
+        <v>13.59150409698486</v>
       </c>
       <c r="C8" t="n">
-        <v>8.038628578186035</v>
+        <v>11.69412994384766</v>
       </c>
       <c r="D8" t="n">
-        <v>15.61828804016113</v>
+        <v>48.22445297241211</v>
       </c>
       <c r="E8" t="n">
-        <v>1.315861701965332</v>
+        <v>1.122905731201172</v>
       </c>
       <c r="F8" t="n">
-        <v>1.540137648582458</v>
+        <v>-23.54147911071777</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17.66557312011719</v>
+        <v>17.2404670715332</v>
       </c>
       <c r="B9" t="n">
-        <v>21.81788635253906</v>
+        <v>17.59696769714355</v>
       </c>
       <c r="C9" t="n">
-        <v>7.451972007751465</v>
+        <v>10.31058788299561</v>
       </c>
       <c r="D9" t="n">
-        <v>15.38330173492432</v>
+        <v>52.51699447631836</v>
       </c>
       <c r="E9" t="n">
-        <v>2.12132740020752</v>
+        <v>1.887439727783203</v>
       </c>
       <c r="F9" t="n">
-        <v>2.846965551376343</v>
+        <v>-18.84824562072754</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14.52506732940674</v>
+        <v>14.72058010101318</v>
       </c>
       <c r="B10" t="n">
-        <v>19.0103645324707</v>
+        <v>21.38806533813477</v>
       </c>
       <c r="C10" t="n">
-        <v>5.184545516967773</v>
+        <v>8.119160652160645</v>
       </c>
       <c r="D10" t="n">
-        <v>12.85875988006592</v>
+        <v>54.94968795776367</v>
       </c>
       <c r="E10" t="n">
-        <v>2.675220489501953</v>
+        <v>2.352461814880371</v>
       </c>
       <c r="F10" t="n">
-        <v>2.846965551376343</v>
+        <v>-14.85865688323975</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11.34081268310547</v>
+        <v>11.90248775482178</v>
       </c>
       <c r="B11" t="n">
-        <v>16.66573715209961</v>
+        <v>25.09362983703613</v>
       </c>
       <c r="C11" t="n">
-        <v>3.34246301651001</v>
+        <v>5.353039741516113</v>
       </c>
       <c r="D11" t="n">
-        <v>11.04617881774902</v>
+        <v>55.85731887817383</v>
       </c>
       <c r="E11" t="n">
-        <v>3.069398880004883</v>
+        <v>2.39670467376709</v>
       </c>
       <c r="F11" t="n">
-        <v>3.953972816467285</v>
+        <v>-11.89601612091064</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.34722900390625</v>
+        <v>8.965164184570312</v>
       </c>
       <c r="B12" t="n">
-        <v>14.78939437866211</v>
+        <v>28.68741226196289</v>
       </c>
       <c r="C12" t="n">
-        <v>1.162482976913452</v>
+        <v>2.436930418014526</v>
       </c>
       <c r="D12" t="n">
-        <v>9.041414260864258</v>
+        <v>55.54336547851562</v>
       </c>
       <c r="E12" t="n">
-        <v>3.478075981140137</v>
+        <v>2.233691215515137</v>
       </c>
       <c r="F12" t="n">
-        <v>3.52320671081543</v>
+        <v>-9.508831977844238</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.693271636962891</v>
+        <v>6.178549289703369</v>
       </c>
       <c r="B13" t="n">
-        <v>13.15629196166992</v>
+        <v>31.89762306213379</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9097421169281006</v>
+        <v>-0.165047824382782</v>
       </c>
       <c r="D13" t="n">
-        <v>7.166327953338623</v>
+        <v>53.97384262084961</v>
       </c>
       <c r="E13" t="n">
-        <v>3.990006446838379</v>
+        <v>2.280596733093262</v>
       </c>
       <c r="F13" t="n">
-        <v>3.22249698638916</v>
+        <v>-7.25621509552002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.381828546524048</v>
+        <v>3.710226535797119</v>
       </c>
       <c r="B14" t="n">
-        <v>11.48061656951904</v>
+        <v>34.43057632446289</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.677455425262451</v>
+        <v>-2.155078172683716</v>
       </c>
       <c r="D14" t="n">
-        <v>5.458517551422119</v>
+        <v>50.96167373657227</v>
       </c>
       <c r="E14" t="n">
-        <v>4.460116386413574</v>
+        <v>2.692695617675781</v>
       </c>
       <c r="F14" t="n">
-        <v>3.113429069519043</v>
+        <v>-5.087353229522705</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.307231307029724</v>
+        <v>1.506937503814697</v>
       </c>
       <c r="B15" t="n">
-        <v>9.612972259521484</v>
+        <v>36.17360687255859</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.177707672119141</v>
+        <v>-3.648343324661255</v>
       </c>
       <c r="D15" t="n">
-        <v>3.785805702209473</v>
+        <v>46.44482421875</v>
       </c>
       <c r="E15" t="n">
-        <v>4.674924850463867</v>
+        <v>3.128242492675781</v>
       </c>
       <c r="F15" t="n">
-        <v>2.997472763061523</v>
+        <v>-3.17503809928894</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.629951536655426</v>
+        <v>-0.5922064185142517</v>
       </c>
       <c r="B16" t="n">
-        <v>7.606855869293213</v>
+        <v>37.21477508544922</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.490401744842529</v>
+        <v>-4.917830467224121</v>
       </c>
       <c r="D16" t="n">
-        <v>2.060097694396973</v>
+        <v>40.67630767822266</v>
       </c>
       <c r="E16" t="n">
-        <v>4.620477676391602</v>
+        <v>3.305968284606934</v>
       </c>
       <c r="F16" t="n">
-        <v>2.618067741394043</v>
+        <v>-1.793217301368713</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2.449029684066772</v>
+        <v>-2.661817073822021</v>
       </c>
       <c r="B17" t="n">
-        <v>5.594116687774658</v>
+        <v>37.71019744873047</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.593522071838379</v>
+        <v>-6.089486122131348</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3180533051490784</v>
+        <v>34.11216735839844</v>
       </c>
       <c r="E17" t="n">
-        <v>4.525399208068848</v>
+        <v>3.250175476074219</v>
       </c>
       <c r="F17" t="n">
-        <v>1.892823100090027</v>
+        <v>-1.058088421821594</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-4.109968662261963</v>
+        <v>-4.620431423187256</v>
       </c>
       <c r="B18" t="n">
-        <v>3.669843196868896</v>
+        <v>37.76961898803711</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.593522071838379</v>
+        <v>-7.033377647399902</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.284860491752625</v>
+        <v>27.19221878051758</v>
       </c>
       <c r="E18" t="n">
-        <v>4.664130210876465</v>
+        <v>3.257451057434082</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9038705229759216</v>
+        <v>-0.9056888222694397</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-5.590625762939453</v>
+        <v>-6.325206279754639</v>
       </c>
       <c r="B19" t="n">
-        <v>1.86269199848175</v>
+        <v>37.49571990966797</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.124274253845215</v>
+        <v>-7.506285667419434</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.551636934280396</v>
+        <v>20.28796195983887</v>
       </c>
       <c r="E19" t="n">
-        <v>5.058568000793457</v>
+        <v>3.537143707275391</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1502109169960022</v>
+        <v>-1.166695713996887</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-6.893105030059814</v>
+        <v>-7.709950923919678</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1989063620567322</v>
+        <v>37.03860473632812</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.96345043182373</v>
+        <v>-7.363219261169434</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.551636934280396</v>
+        <v>13.78028678894043</v>
       </c>
       <c r="E20" t="n">
-        <v>5.504202842712402</v>
+        <v>4.040519714355469</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.086475968360901</v>
+        <v>-1.687903046607971</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-8.038792610168457</v>
+        <v>-8.825192451477051</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.269214034080505</v>
+        <v>36.63455200195312</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.22730541229248</v>
+        <v>-6.609896659851074</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.145977973937988</v>
+        <v>8.178240776062012</v>
       </c>
       <c r="E21" t="n">
-        <v>5.833980560302734</v>
+        <v>4.593121528625488</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.872762322425842</v>
+        <v>-2.351454257965088</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-9.053469657897949</v>
+        <v>-9.816910743713379</v>
       </c>
       <c r="B22" t="n">
-        <v>-2.488678216934204</v>
+        <v>36.48915481567383</v>
       </c>
       <c r="C22" t="n">
-        <v>-6.012345314025879</v>
+        <v>-5.37657642364502</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.890288114547729</v>
+        <v>4.029690742492676</v>
       </c>
       <c r="E22" t="n">
-        <v>6.038849830627441</v>
+        <v>5.045783042907715</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.469375371932983</v>
+        <v>-3.102922439575195</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-9.053469657897949</v>
+        <v>-10.81436634063721</v>
       </c>
       <c r="B23" t="n">
-        <v>-2.488678216934204</v>
+        <v>36.70500564575195</v>
       </c>
       <c r="C23" t="n">
-        <v>-4.432637214660645</v>
+        <v>-3.777947664260864</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.10187029838562</v>
+        <v>1.742703557014465</v>
       </c>
       <c r="E23" t="n">
-        <v>6.165186882019043</v>
+        <v>5.321372032165527</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.822959661483765</v>
+        <v>-3.955185651779175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-10.86709308624268</v>
+        <v>-11.8622522354126</v>
       </c>
       <c r="B24" t="n">
-        <v>-4.426520347595215</v>
+        <v>37.20640182495117</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.522744417190552</v>
+        <v>-1.87457001209259</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.854845881462097</v>
+        <v>1.407441258430481</v>
       </c>
       <c r="E24" t="n">
-        <v>6.147577285766602</v>
+        <v>5.336455345153809</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.962497472763062</v>
+        <v>-4.943027496337891</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-11.57278156280518</v>
+        <v>-12.89399433135986</v>
       </c>
       <c r="B25" t="n">
-        <v>-4.992009162902832</v>
+        <v>37.78978729248047</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2702529430389404</v>
+        <v>0.3468406796455383</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8876839876174927</v>
+        <v>2.809184312820435</v>
       </c>
       <c r="E25" t="n">
-        <v>5.741490364074707</v>
+        <v>4.907524108886719</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.031298875808716</v>
+        <v>-6.012386322021484</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-12.08970737457275</v>
+        <v>-13.72912311553955</v>
       </c>
       <c r="B26" t="n">
-        <v>-5.454590797424316</v>
+        <v>38.1611328125</v>
       </c>
       <c r="C26" t="n">
-        <v>2.742794036865234</v>
+        <v>2.963946104049683</v>
       </c>
       <c r="D26" t="n">
-        <v>2.763236522674561</v>
+        <v>5.433487892150879</v>
       </c>
       <c r="E26" t="n">
-        <v>3.610322952270508</v>
+        <v>3.80180835723877</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.228389263153076</v>
+        <v>-6.850945472717285</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-12.26939105987549</v>
+        <v>-14.03941822052002</v>
       </c>
       <c r="B27" t="n">
-        <v>-5.827622413635254</v>
+        <v>34.99188613891602</v>
       </c>
       <c r="C27" t="n">
-        <v>5.983297348022461</v>
+        <v>5.545123100280762</v>
       </c>
       <c r="D27" t="n">
-        <v>5.318819999694824</v>
+        <v>6.25471019744873</v>
       </c>
       <c r="E27" t="n">
-        <v>1.57849907875061</v>
+        <v>2.437238693237305</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.871747732162476</v>
+        <v>-8.052814483642578</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-11.93835926055908</v>
+        <v>-13.7681360244751</v>
       </c>
       <c r="B28" t="n">
-        <v>-6.058903694152832</v>
+        <v>32.70536041259766</v>
       </c>
       <c r="C28" t="n">
-        <v>10.10637378692627</v>
+        <v>9.993077278137207</v>
       </c>
       <c r="D28" t="n">
-        <v>8.428638458251953</v>
+        <v>8.505526542663574</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.215418457984924</v>
+        <v>-0.9550447463989258</v>
       </c>
       <c r="F28" t="n">
-        <v>-7.085625171661377</v>
+        <v>-9.495771408081055</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-10.9097375869751</v>
+        <v>-12.85044193267822</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.998391151428223</v>
+        <v>31.54996109008789</v>
       </c>
       <c r="C29" t="n">
-        <v>15.15368843078613</v>
+        <v>15.5737247467041</v>
       </c>
       <c r="D29" t="n">
-        <v>12.04848098754883</v>
+        <v>11.8564510345459</v>
       </c>
       <c r="E29" t="n">
-        <v>-4.320606231689453</v>
+        <v>-4.85241174697876</v>
       </c>
       <c r="F29" t="n">
-        <v>-10.54408073425293</v>
+        <v>-8.885557174682617</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-7.671877861022949</v>
+        <v>-11.00941562652588</v>
       </c>
       <c r="B30" t="n">
-        <v>-5.463269233703613</v>
+        <v>30.37168312072754</v>
       </c>
       <c r="C30" t="n">
-        <v>21.0980110168457</v>
+        <v>21.75149917602539</v>
       </c>
       <c r="D30" t="n">
-        <v>16.32839965820312</v>
+        <v>14.91503810882568</v>
       </c>
       <c r="E30" t="n">
-        <v>-7.308969974517822</v>
+        <v>-8.031204223632812</v>
       </c>
       <c r="F30" t="n">
-        <v>-15.54416465759277</v>
+        <v>-6.230556011199951</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-5.138273239135742</v>
+        <v>-8.202813148498535</v>
       </c>
       <c r="B31" t="n">
-        <v>-3.008478164672852</v>
+        <v>28.61202621459961</v>
       </c>
       <c r="C31" t="n">
-        <v>27.78864669799805</v>
+        <v>28.51060485839844</v>
       </c>
       <c r="D31" t="n">
-        <v>21.48624038696289</v>
+        <v>16.74092292785645</v>
       </c>
       <c r="E31" t="n">
-        <v>-10.03390693664551</v>
+        <v>-10.5983829498291</v>
       </c>
       <c r="F31" t="n">
-        <v>-20.83505630493164</v>
+        <v>-2.972792148590088</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-1.752375364303589</v>
+        <v>-4.512170314788818</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.805057168006897</v>
+        <v>26.3964672088623</v>
       </c>
       <c r="C32" t="n">
-        <v>34.96141815185547</v>
+        <v>35.93204498291016</v>
       </c>
       <c r="D32" t="n">
-        <v>27.63023948669434</v>
+        <v>17.24274444580078</v>
       </c>
       <c r="E32" t="n">
-        <v>-12.37813949584961</v>
+        <v>-12.97255039215088</v>
       </c>
       <c r="F32" t="n">
-        <v>-24.6115779876709</v>
+        <v>-0.2242293953895569</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.190078735351562</v>
+        <v>-0.08226341009140015</v>
       </c>
       <c r="B33" t="n">
-        <v>2.204355001449585</v>
+        <v>24.01621437072754</v>
       </c>
       <c r="C33" t="n">
-        <v>42.17399215698242</v>
+        <v>43.76041793823242</v>
       </c>
       <c r="D33" t="n">
-        <v>34.55231475830078</v>
+        <v>16.75738525390625</v>
       </c>
       <c r="E33" t="n">
-        <v>-14.07170677185059</v>
+        <v>-14.97190093994141</v>
       </c>
       <c r="F33" t="n">
-        <v>-25.92355346679688</v>
+        <v>1.720665335655212</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.39610481262207</v>
+        <v>4.804525852203369</v>
       </c>
       <c r="B34" t="n">
-        <v>5.68722677230835</v>
+        <v>21.60566329956055</v>
       </c>
       <c r="C34" t="n">
-        <v>48.7973518371582</v>
+        <v>51.21996688842773</v>
       </c>
       <c r="D34" t="n">
-        <v>41.74890899658203</v>
+        <v>15.57941436767578</v>
       </c>
       <c r="E34" t="n">
-        <v>-14.07170677185059</v>
+        <v>-16.0543384552002</v>
       </c>
       <c r="F34" t="n">
-        <v>-25.92355346679688</v>
+        <v>3.001578330993652</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10.5863733291626</v>
+        <v>9.734748840332031</v>
       </c>
       <c r="B35" t="n">
-        <v>9.372184753417969</v>
+        <v>19.15116500854492</v>
       </c>
       <c r="C35" t="n">
-        <v>54.20205307006836</v>
+        <v>57.25206756591797</v>
       </c>
       <c r="D35" t="n">
-        <v>48.53680419921875</v>
+        <v>13.87545299530029</v>
       </c>
       <c r="E35" t="n">
-        <v>-15.73126220703125</v>
+        <v>-16.0461540222168</v>
       </c>
       <c r="F35" t="n">
-        <v>-22.12366485595703</v>
+        <v>3.782854080200195</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>14.54107284545898</v>
+        <v>14.31916427612305</v>
       </c>
       <c r="B36" t="n">
-        <v>13.07933521270752</v>
+        <v>16.67684936523438</v>
       </c>
       <c r="C36" t="n">
-        <v>57.99599075317383</v>
+        <v>61.01565551757812</v>
       </c>
       <c r="D36" t="n">
-        <v>54.21681976318359</v>
+        <v>11.87177085876465</v>
       </c>
       <c r="E36" t="n">
-        <v>-14.86071109771729</v>
+        <v>-15.16300487518311</v>
       </c>
       <c r="F36" t="n">
-        <v>-19.34039306640625</v>
+        <v>4.166711807250977</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>18.13815307617188</v>
+        <v>18.36725234985352</v>
       </c>
       <c r="B37" t="n">
-        <v>16.69306755065918</v>
+        <v>14.3295259475708</v>
       </c>
       <c r="C37" t="n">
-        <v>60.08051300048828</v>
+        <v>62.26300048828125</v>
       </c>
       <c r="D37" t="n">
-        <v>58.23731994628906</v>
+        <v>9.86913013458252</v>
       </c>
       <c r="E37" t="n">
-        <v>-12.17622852325439</v>
+        <v>-13.53324317932129</v>
       </c>
       <c r="F37" t="n">
-        <v>-16.27583503723145</v>
+        <v>4.327678680419922</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>21.34185409545898</v>
+        <v>21.88720893859863</v>
       </c>
       <c r="B38" t="n">
-        <v>20.11358642578125</v>
+        <v>12.2580451965332</v>
       </c>
       <c r="C38" t="n">
-        <v>60.08051300048828</v>
+        <v>61.32136154174805</v>
       </c>
       <c r="D38" t="n">
-        <v>60.30141448974609</v>
+        <v>8.140007972717285</v>
       </c>
       <c r="E38" t="n">
-        <v>-10.1312427520752</v>
+        <v>-11.0758056640625</v>
       </c>
       <c r="F38" t="n">
-        <v>-13.14931583404541</v>
+        <v>4.510479927062988</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>24.1513786315918</v>
+        <v>24.97359466552734</v>
       </c>
       <c r="B39" t="n">
-        <v>23.22099304199219</v>
+        <v>10.39354515075684</v>
       </c>
       <c r="C39" t="n">
-        <v>59.49945449829102</v>
+        <v>58.73743057250977</v>
       </c>
       <c r="D39" t="n">
-        <v>60.30141448974609</v>
+        <v>6.671462059020996</v>
       </c>
       <c r="E39" t="n">
-        <v>-7.499300003051758</v>
+        <v>-7.903130531311035</v>
       </c>
       <c r="F39" t="n">
-        <v>-10.0631628036499</v>
+        <v>4.807844161987305</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>26.54567337036133</v>
+        <v>27.67849540710449</v>
       </c>
       <c r="B40" t="n">
-        <v>25.87548446655273</v>
+        <v>8.470895767211914</v>
       </c>
       <c r="C40" t="n">
-        <v>56.38011169433594</v>
+        <v>54.8583869934082</v>
       </c>
       <c r="D40" t="n">
-        <v>58.35818099975586</v>
+        <v>5.178637504577637</v>
       </c>
       <c r="E40" t="n">
-        <v>-4.698620319366455</v>
+        <v>-4.525936603546143</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.167904376983643</v>
+        <v>5.065710067749023</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>28.46001815795898</v>
+        <v>29.94205284118652</v>
       </c>
       <c r="B41" t="n">
-        <v>27.94126510620117</v>
+        <v>6.254591941833496</v>
       </c>
       <c r="C41" t="n">
-        <v>51.27140045166016</v>
+        <v>49.68070220947266</v>
       </c>
       <c r="D41" t="n">
-        <v>54.21233367919922</v>
+        <v>3.381125688552856</v>
       </c>
       <c r="E41" t="n">
-        <v>-2.129606485366821</v>
+        <v>-1.543125152587891</v>
       </c>
       <c r="F41" t="n">
-        <v>-4.660756587982178</v>
+        <v>5.063616752624512</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>29.81974983215332</v>
+        <v>31.62271118164062</v>
       </c>
       <c r="B42" t="n">
-        <v>29.33720779418945</v>
+        <v>3.732678174972534</v>
       </c>
       <c r="C42" t="n">
-        <v>44.08264923095703</v>
+        <v>43.04255294799805</v>
       </c>
       <c r="D42" t="n">
-        <v>47.90816879272461</v>
+        <v>1.247525334358215</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.1153527498245239</v>
+        <v>0.65216064453125</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.732985973358154</v>
+        <v>4.755121231079102</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>29.81974983215332</v>
+        <v>32.58854675292969</v>
       </c>
       <c r="B43" t="n">
-        <v>29.33720779418945</v>
+        <v>1.097372770309448</v>
       </c>
       <c r="C43" t="n">
-        <v>35.39873123168945</v>
+        <v>35.05013275146484</v>
       </c>
       <c r="D43" t="n">
-        <v>39.98762512207031</v>
+        <v>-0.9285668134689331</v>
       </c>
       <c r="E43" t="n">
-        <v>1.13939094543457</v>
+        <v>1.92202091217041</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.478331804275513</v>
+        <v>4.280393600463867</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>31.41557884216309</v>
+        <v>32.86652755737305</v>
       </c>
       <c r="B44" t="n">
-        <v>30.96265602111816</v>
+        <v>-1.410441637039185</v>
       </c>
       <c r="C44" t="n">
-        <v>26.49169921875</v>
+        <v>26.39293670654297</v>
       </c>
       <c r="D44" t="n">
-        <v>31.65412712097168</v>
+        <v>-2.750092267990112</v>
       </c>
       <c r="E44" t="n">
-        <v>1.13939094543457</v>
+        <v>2.294988632202148</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.478331804275513</v>
+        <v>3.809916496276855</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>31.36178588867188</v>
+        <v>32.60648345947266</v>
       </c>
       <c r="B45" t="n">
-        <v>31.0900821685791</v>
+        <v>-3.561251878738403</v>
       </c>
       <c r="C45" t="n">
-        <v>18.57412147521973</v>
+        <v>18.20941352844238</v>
       </c>
       <c r="D45" t="n">
-        <v>24.07755661010742</v>
+        <v>-3.886574506759644</v>
       </c>
       <c r="E45" t="n">
-        <v>2.119836807250977</v>
+        <v>2.02677059173584</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.2211399674415588</v>
+        <v>3.333176612854004</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>31.36532402038574</v>
+        <v>32.20573043823242</v>
       </c>
       <c r="B46" t="n">
-        <v>31.24015045166016</v>
+        <v>-5.433173179626465</v>
       </c>
       <c r="C46" t="n">
-        <v>12.31632995605469</v>
+        <v>11.38609504699707</v>
       </c>
       <c r="D46" t="n">
-        <v>17.85895538330078</v>
+        <v>-4.282008171081543</v>
       </c>
       <c r="E46" t="n">
-        <v>1.455923080444336</v>
+        <v>1.35098934173584</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.5202742218971252</v>
+        <v>2.938650131225586</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>31.54145812988281</v>
+        <v>32.01858901977539</v>
       </c>
       <c r="B47" t="n">
-        <v>31.32508659362793</v>
+        <v>-7.09407901763916</v>
       </c>
       <c r="C47" t="n">
-        <v>7.956752300262451</v>
+        <v>6.384509086608887</v>
       </c>
       <c r="D47" t="n">
-        <v>13.16290855407715</v>
+        <v>-4.02226734161377</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7583150863647461</v>
+        <v>0.4617972373962402</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.919495165348053</v>
+        <v>2.788507461547852</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>31.75937652587891</v>
+        <v>32.01308822631836</v>
       </c>
       <c r="B48" t="n">
-        <v>31.33608245849609</v>
+        <v>-8.321539878845215</v>
       </c>
       <c r="C48" t="n">
-        <v>5.438335418701172</v>
+        <v>3.48088526725769</v>
       </c>
       <c r="D48" t="n">
-        <v>10.0001049041748</v>
+        <v>-3.15861964225769</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1865310668945312</v>
+        <v>-0.3534641265869141</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.421818852424622</v>
+        <v>2.870556831359863</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>31.82816886901855</v>
+        <v>32.11529922485352</v>
       </c>
       <c r="B49" t="n">
-        <v>31.25951766967773</v>
+        <v>-9.184817314147949</v>
       </c>
       <c r="C49" t="n">
-        <v>5.438335418701172</v>
+        <v>2.524992704391479</v>
       </c>
       <c r="D49" t="n">
-        <v>8.343000411987305</v>
+        <v>-1.831637263298035</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.3657693862915039</v>
+        <v>-1.042219161987305</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.209151029586792</v>
+        <v>3.155880928039551</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>31.68557929992676</v>
+        <v>32.24153137207031</v>
       </c>
       <c r="B50" t="n">
-        <v>31.00975036621094</v>
+        <v>-9.894427299499512</v>
       </c>
       <c r="C50" t="n">
-        <v>3.628109693527222</v>
+        <v>3.071215391159058</v>
       </c>
       <c r="D50" t="n">
-        <v>8.343000411987305</v>
+        <v>-0.1643761396408081</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.286046504974365</v>
+        <v>-1.909781932830811</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.523530006408691</v>
+        <v>3.497343063354492</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>31.37312889099121</v>
+        <v>32.28247451782227</v>
       </c>
       <c r="B51" t="n">
-        <v>32.16577911376953</v>
+        <v>-10.52074718475342</v>
       </c>
       <c r="C51" t="n">
-        <v>9.155096054077148</v>
+        <v>4.663832664489746</v>
       </c>
       <c r="D51" t="n">
-        <v>9.784958839416504</v>
+        <v>1.8731929063797</v>
       </c>
       <c r="E51" t="n">
-        <v>-2.891627788543701</v>
+        <v>-3.318655490875244</v>
       </c>
       <c r="F51" t="n">
-        <v>-5.352705478668213</v>
+        <v>3.556573867797852</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>30.9892406463623</v>
+        <v>34.1001091003418</v>
       </c>
       <c r="B52" t="n">
-        <v>24.72314834594727</v>
+        <v>-11.12050914764404</v>
       </c>
       <c r="C52" t="n">
-        <v>14.50737762451172</v>
+        <v>9.928389549255371</v>
       </c>
       <c r="D52" t="n">
-        <v>17.05051803588867</v>
+        <v>4.681159019470215</v>
       </c>
       <c r="E52" t="n">
-        <v>-6.01930570602417</v>
+        <v>-4.833178997039795</v>
       </c>
       <c r="F52" t="n">
-        <v>-7.152239799499512</v>
+        <v>2.7139892578125</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>30.9892406463623</v>
+        <v>37.96305847167969</v>
       </c>
       <c r="B53" t="n">
-        <v>20.65585899353027</v>
+        <v>4.76738452911377</v>
       </c>
       <c r="C53" t="n">
-        <v>14.50737762451172</v>
+        <v>15.51491451263428</v>
       </c>
       <c r="D53" t="n">
-        <v>18.81740570068359</v>
+        <v>24.43178558349609</v>
       </c>
       <c r="E53" t="n">
-        <v>-6.01930570602417</v>
+        <v>-15.03099822998047</v>
       </c>
       <c r="F53" t="n">
-        <v>-5.257017612457275</v>
+        <v>-1.178125500679016</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>30.40732765197754</v>
+        <v>40.12568664550781</v>
       </c>
       <c r="B54" t="n">
-        <v>20.65585899353027</v>
+        <v>-0.9013110995292664</v>
       </c>
       <c r="C54" t="n">
-        <v>13.31235599517822</v>
+        <v>11.87527179718018</v>
       </c>
       <c r="D54" t="n">
-        <v>18.81740570068359</v>
+        <v>24.5977783203125</v>
       </c>
       <c r="E54" t="n">
-        <v>-4.11625862121582</v>
+        <v>-15.29544162750244</v>
       </c>
       <c r="F54" t="n">
-        <v>-5.83431339263916</v>
+        <v>-5.476502895355225</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>27.80004119873047</v>
+        <v>35.91703033447266</v>
       </c>
       <c r="B55" t="n">
-        <v>22.19525146484375</v>
+        <v>0.9286201596260071</v>
       </c>
       <c r="C55" t="n">
-        <v>11.00657558441162</v>
+        <v>11.54366588592529</v>
       </c>
       <c r="D55" t="n">
-        <v>15.44827747344971</v>
+        <v>27.04108238220215</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.486835718154907</v>
+        <v>-10.4146146774292</v>
       </c>
       <c r="F55" t="n">
-        <v>-6.214094161987305</v>
+        <v>-14.88315963745117</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>26.39518356323242</v>
+        <v>31.28287506103516</v>
       </c>
       <c r="B56" t="n">
-        <v>25.25937271118164</v>
+        <v>2.936825513839722</v>
       </c>
       <c r="C56" t="n">
-        <v>8.921221733093262</v>
+        <v>10.81343936920166</v>
       </c>
       <c r="D56" t="n">
-        <v>13.92969131469727</v>
+        <v>30.38792037963867</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.9195653200149536</v>
+        <v>-5.05723237991333</v>
       </c>
       <c r="F56" t="n">
-        <v>-5.904962062835693</v>
+        <v>-22.93620109558105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>25.06122398376465</v>
+        <v>26.70042037963867</v>
       </c>
       <c r="B57" t="n">
-        <v>27.77285766601562</v>
+        <v>5.766728401184082</v>
       </c>
       <c r="C57" t="n">
-        <v>7.198599815368652</v>
+        <v>10.25076580047607</v>
       </c>
       <c r="D57" t="n">
-        <v>13.92969131469727</v>
+        <v>34.84881210327148</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3139662146568298</v>
+        <v>-1.000822067260742</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.33950138092041</v>
+        <v>-27.90032386779785</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>23.76236343383789</v>
+        <v>22.74813270568848</v>
       </c>
       <c r="B58" t="n">
-        <v>27.77285766601562</v>
+        <v>9.717588424682617</v>
       </c>
       <c r="C58" t="n">
-        <v>5.846768379211426</v>
+        <v>10.22994995117188</v>
       </c>
       <c r="D58" t="n">
-        <v>11.93418598175049</v>
+        <v>40.56500244140625</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3139662146568298</v>
+        <v>0.9165134429931641</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.095844268798828</v>
+        <v>-28.44452667236328</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>22.05988502502441</v>
+        <v>19.75162124633789</v>
       </c>
       <c r="B59" t="n">
-        <v>27.90312576293945</v>
+        <v>14.33653354644775</v>
       </c>
       <c r="C59" t="n">
-        <v>5.846768379211426</v>
+        <v>10.57300186157227</v>
       </c>
       <c r="D59" t="n">
-        <v>12.27122974395752</v>
+        <v>46.68064498901367</v>
       </c>
       <c r="E59" t="n">
-        <v>1.93238353729248</v>
+        <v>1.314074516296387</v>
       </c>
       <c r="F59" t="n">
-        <v>1.409906387329102</v>
+        <v>-24.7835807800293</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>19.54460525512695</v>
+        <v>17.50453948974609</v>
       </c>
       <c r="B60" t="n">
-        <v>24.62487030029297</v>
+        <v>18.73435211181641</v>
       </c>
       <c r="C60" t="n">
-        <v>4.104550361633301</v>
+        <v>10.59829425811768</v>
       </c>
       <c r="D60" t="n">
-        <v>12.83072948455811</v>
+        <v>51.73689651489258</v>
       </c>
       <c r="E60" t="n">
-        <v>2.080340385437012</v>
+        <v>1.559269905090332</v>
       </c>
       <c r="F60" t="n">
-        <v>3.211442947387695</v>
+        <v>-19.24496078491211</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>16.25595283508301</v>
+        <v>15.40101051330566</v>
       </c>
       <c r="B61" t="n">
-        <v>20.74670791625977</v>
+        <v>22.53780174255371</v>
       </c>
       <c r="C61" t="n">
-        <v>4.299483299255371</v>
+        <v>9.758209228515625</v>
       </c>
       <c r="D61" t="n">
-        <v>12.88958930969238</v>
+        <v>54.65102767944336</v>
       </c>
       <c r="E61" t="n">
-        <v>2.333012580871582</v>
+        <v>2.050152778625488</v>
       </c>
       <c r="F61" t="n">
-        <v>3.211442947387695</v>
+        <v>-14.41355323791504</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12.61350059509277</v>
+        <v>12.91084098815918</v>
       </c>
       <c r="B62" t="n">
-        <v>17.44058227539062</v>
+        <v>25.96908760070801</v>
       </c>
       <c r="C62" t="n">
-        <v>4.258389472961426</v>
+        <v>7.762345314025879</v>
       </c>
       <c r="D62" t="n">
-        <v>11.93818855285645</v>
+        <v>55.41067504882812</v>
       </c>
       <c r="E62" t="n">
-        <v>2.848325729370117</v>
+        <v>2.330469131469727</v>
       </c>
       <c r="F62" t="n">
-        <v>4.421030044555664</v>
+        <v>-11.29291343688965</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9.085940361022949</v>
+        <v>9.961318969726562</v>
       </c>
       <c r="B63" t="n">
-        <v>15.27104377746582</v>
+        <v>29.32108688354492</v>
       </c>
       <c r="C63" t="n">
-        <v>1.940276861190796</v>
+        <v>4.835251808166504</v>
       </c>
       <c r="D63" t="n">
-        <v>8.880602836608887</v>
+        <v>54.58856582641602</v>
       </c>
       <c r="E63" t="n">
-        <v>3.651305198669434</v>
+        <v>2.120781898498535</v>
       </c>
       <c r="F63" t="n">
-        <v>3.147021293640137</v>
+        <v>-9.345813751220703</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.984115600585938</v>
+        <v>6.879560947418213</v>
       </c>
       <c r="B64" t="n">
-        <v>14.01122951507568</v>
+        <v>32.51045989990234</v>
       </c>
       <c r="C64" t="n">
-        <v>0.03562575578689575</v>
+        <v>1.639130473136902</v>
       </c>
       <c r="D64" t="n">
-        <v>7.198280334472656</v>
+        <v>52.61133193969727</v>
       </c>
       <c r="E64" t="n">
-        <v>4.666101455688477</v>
+        <v>1.865028381347656</v>
       </c>
       <c r="F64" t="n">
-        <v>2.114534378051758</v>
+        <v>-7.648838043212891</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3.416754961013794</v>
+        <v>4.084770679473877</v>
       </c>
       <c r="B65" t="n">
-        <v>14.01122951507568</v>
+        <v>35.14798355102539</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.08268666267395</v>
+        <v>-1.088847279548645</v>
       </c>
       <c r="D65" t="n">
-        <v>5.42287015914917</v>
+        <v>49.53076934814453</v>
       </c>
       <c r="E65" t="n">
-        <v>5.602482795715332</v>
+        <v>2.155853271484375</v>
       </c>
       <c r="F65" t="n">
-        <v>1.57029139995575</v>
+        <v>-5.79564094543457</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.325189471244812</v>
+        <v>1.766880512237549</v>
       </c>
       <c r="B66" t="n">
-        <v>12.04324436187744</v>
+        <v>36.91233444213867</v>
       </c>
       <c r="C66" t="n">
-        <v>-3.950288772583008</v>
+        <v>-3.035010576248169</v>
       </c>
       <c r="D66" t="n">
-        <v>3.746359348297119</v>
+        <v>45.23745727539062</v>
       </c>
       <c r="E66" t="n">
-        <v>6.098789215087891</v>
+        <v>2.836549758911133</v>
       </c>
       <c r="F66" t="n">
-        <v>1.238173842430115</v>
+        <v>-3.874311685562134</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.418021023273468</v>
+        <v>-0.1966127753257751</v>
       </c>
       <c r="B67" t="n">
-        <v>10.55753993988037</v>
+        <v>37.80834197998047</v>
       </c>
       <c r="C67" t="n">
-        <v>-5.310531139373779</v>
+        <v>-4.323990821838379</v>
       </c>
       <c r="D67" t="n">
-        <v>2.208402395248413</v>
+        <v>39.81206893920898</v>
       </c>
       <c r="E67" t="n">
-        <v>6.088224411010742</v>
+        <v>3.349555015563965</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6931623816490173</v>
+        <v>-2.266602039337158</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-1.935945630073547</v>
+        <v>-2.011329174041748</v>
       </c>
       <c r="B68" t="n">
-        <v>8.613011360168457</v>
+        <v>38.06159973144531</v>
       </c>
       <c r="C68" t="n">
-        <v>-5.310531139373779</v>
+        <v>-5.175942420959473</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7888531088829041</v>
+        <v>33.63436126708984</v>
       </c>
       <c r="E68" t="n">
-        <v>5.890512466430664</v>
+        <v>3.459149360656738</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.2715306878089905</v>
+        <v>-1.297817349433899</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-3.295117139816284</v>
+        <v>-3.757476329803467</v>
       </c>
       <c r="B69" t="n">
-        <v>6.717381477355957</v>
+        <v>37.89791107177734</v>
       </c>
       <c r="C69" t="n">
-        <v>-6.986002922058105</v>
+        <v>-5.702359199523926</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.5037910938262939</v>
+        <v>27.16704750061035</v>
       </c>
       <c r="E69" t="n">
-        <v>5.944408416748047</v>
+        <v>3.401305198669434</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.538929104804993</v>
+        <v>-1.00002110004425</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-4.512540817260742</v>
+        <v>-5.357005596160889</v>
       </c>
       <c r="B70" t="n">
-        <v>5.119811058044434</v>
+        <v>37.46677398681641</v>
       </c>
       <c r="C70" t="n">
-        <v>-6.984740257263184</v>
+        <v>-5.863509178161621</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.585664749145508</v>
+        <v>20.81545257568359</v>
       </c>
       <c r="E70" t="n">
-        <v>6.352152824401855</v>
+        <v>3.564971923828125</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.864442348480225</v>
+        <v>-1.215839982032776</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-5.600120544433594</v>
+        <v>-6.691722393035889</v>
       </c>
       <c r="B71" t="n">
-        <v>3.7990882396698</v>
+        <v>36.89676666259766</v>
       </c>
       <c r="C71" t="n">
-        <v>-6.70461368560791</v>
+        <v>-5.565937995910645</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.585664749145508</v>
+        <v>14.92570209503174</v>
       </c>
       <c r="E71" t="n">
-        <v>6.840630531311035</v>
+        <v>4.046595573425293</v>
       </c>
       <c r="F71" t="n">
-        <v>-4.068745613098145</v>
+        <v>-1.766520619392395</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-5.600120544433594</v>
+        <v>-7.726834774017334</v>
       </c>
       <c r="B72" t="n">
-        <v>2.657564878463745</v>
+        <v>36.38807678222656</v>
       </c>
       <c r="C72" t="n">
-        <v>-6.038796424865723</v>
+        <v>-4.747471809387207</v>
       </c>
       <c r="D72" t="n">
-        <v>-3.022331953048706</v>
+        <v>9.879303932189941</v>
       </c>
       <c r="E72" t="n">
-        <v>7.139020919799805</v>
+        <v>4.653238296508789</v>
       </c>
       <c r="F72" t="n">
-        <v>-5.090002536773682</v>
+        <v>-2.523479700088501</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-7.50032377243042</v>
+        <v>-8.543911933898926</v>
       </c>
       <c r="B73" t="n">
-        <v>1.690733671188354</v>
+        <v>36.17534255981445</v>
       </c>
       <c r="C73" t="n">
-        <v>-4.885994911193848</v>
+        <v>-3.437649965286255</v>
       </c>
       <c r="D73" t="n">
-        <v>-2.763579130172729</v>
+        <v>6.079272270202637</v>
       </c>
       <c r="E73" t="n">
-        <v>7.199705123901367</v>
+        <v>5.167893409729004</v>
       </c>
       <c r="F73" t="n">
-        <v>-5.940333843231201</v>
+        <v>-3.411473512649536</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-8.158982276916504</v>
+        <v>-9.291695594787598</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9445217251777649</v>
+        <v>36.38942718505859</v>
       </c>
       <c r="C74" t="n">
-        <v>-3.291287660598755</v>
+        <v>-1.757908940315247</v>
       </c>
       <c r="D74" t="n">
-        <v>-1.933180689811707</v>
+        <v>3.815640687942505</v>
       </c>
       <c r="E74" t="n">
-        <v>7.107109069824219</v>
+        <v>5.454666137695312</v>
       </c>
       <c r="F74" t="n">
-        <v>-6.553574085235596</v>
+        <v>-4.415583610534668</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-8.695004463195801</v>
+        <v>-10.07027530670166</v>
       </c>
       <c r="B75" t="n">
-        <v>0.408285915851593</v>
+        <v>37.00814819335938</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.3830434381961823</v>
+        <v>0.1761444211006165</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.6686238050460815</v>
+        <v>3.187890291213989</v>
       </c>
       <c r="E75" t="n">
-        <v>6.871101379394531</v>
+        <v>5.419985771179199</v>
       </c>
       <c r="F75" t="n">
-        <v>-6.898858547210693</v>
+        <v>-5.533654689788818</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-9.139004707336426</v>
+        <v>-10.87740421295166</v>
       </c>
       <c r="B76" t="n">
-        <v>0.02294426970183849</v>
+        <v>37.85757446289062</v>
       </c>
       <c r="C76" t="n">
-        <v>1.286042451858521</v>
+        <v>2.302820920944214</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9242469072341919</v>
+        <v>4.081521034240723</v>
       </c>
       <c r="E76" t="n">
-        <v>6.303892135620117</v>
+        <v>4.917941093444824</v>
       </c>
       <c r="F76" t="n">
-        <v>-7.062898635864258</v>
+        <v>-6.701537609100342</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-9.450314521789551</v>
+        <v>-11.59815692901611</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.257699191570282</v>
+        <v>38.63360977172852</v>
       </c>
       <c r="C77" t="n">
-        <v>3.522440910339355</v>
+        <v>4.625571250915527</v>
       </c>
       <c r="D77" t="n">
-        <v>4.025256156921387</v>
+        <v>6.170941352844238</v>
       </c>
       <c r="E77" t="n">
-        <v>4.061904430389404</v>
+        <v>3.748661994934082</v>
       </c>
       <c r="F77" t="n">
-        <v>-7.208141803741455</v>
+        <v>-7.658917427062988</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-9.489811897277832</v>
+        <v>-11.96938800811768</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.4664756655693054</v>
+        <v>37.30220413208008</v>
       </c>
       <c r="C78" t="n">
-        <v>6.436751842498779</v>
+        <v>6.72830867767334</v>
       </c>
       <c r="D78" t="n">
-        <v>6.004470825195312</v>
+        <v>7.29283618927002</v>
       </c>
       <c r="E78" t="n">
-        <v>2.037405014038086</v>
+        <v>2.598755836486816</v>
       </c>
       <c r="F78" t="n">
-        <v>-7.644641399383545</v>
+        <v>-8.552353858947754</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-9.128754615783691</v>
+        <v>-11.8236780166626</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.6178104281425476</v>
+        <v>35.11977005004883</v>
       </c>
       <c r="C79" t="n">
-        <v>10.20791912078857</v>
+        <v>9.940516471862793</v>
       </c>
       <c r="D79" t="n">
-        <v>8.611669540405273</v>
+        <v>8.581826210021973</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.7147679328918457</v>
+        <v>-0.395287036895752</v>
       </c>
       <c r="F79" t="n">
-        <v>-9.958742141723633</v>
+        <v>-9.969046592712402</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-8.199334144592285</v>
+        <v>-10.98016452789307</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.6592876315116882</v>
+        <v>33.53046035766602</v>
       </c>
       <c r="C80" t="n">
-        <v>14.92501831054688</v>
+        <v>14.82844924926758</v>
       </c>
       <c r="D80" t="n">
-        <v>11.74359130859375</v>
+        <v>11.17304801940918</v>
       </c>
       <c r="E80" t="n">
-        <v>-3.73331880569458</v>
+        <v>-4.755008220672607</v>
       </c>
       <c r="F80" t="n">
-        <v>-12.65740203857422</v>
+        <v>-9.93999195098877</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-5.244693279266357</v>
+        <v>-9.220040321350098</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.4422618746757507</v>
+        <v>32.17484283447266</v>
       </c>
       <c r="C81" t="n">
-        <v>20.54734039306641</v>
+        <v>20.85929489135742</v>
       </c>
       <c r="D81" t="n">
-        <v>15.49435234069824</v>
+        <v>14.21660041809082</v>
       </c>
       <c r="E81" t="n">
-        <v>-6.604306221008301</v>
+        <v>-8.165640830993652</v>
       </c>
       <c r="F81" t="n">
-        <v>-16.70146942138672</v>
+        <v>-7.304141044616699</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-2.87860631942749</v>
+        <v>-6.533130168914795</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3778217434883118</v>
+        <v>30.22383117675781</v>
       </c>
       <c r="C82" t="n">
-        <v>26.89814949035645</v>
+        <v>27.48361778259277</v>
       </c>
       <c r="D82" t="n">
-        <v>20.11295700073242</v>
+        <v>16.28176879882812</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.217105865478516</v>
+        <v>-10.2057523727417</v>
       </c>
       <c r="F82" t="n">
-        <v>-21.09651184082031</v>
+        <v>-3.426000833511353</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.3154129981994629</v>
+        <v>-3.062404155731201</v>
       </c>
       <c r="B83" t="n">
-        <v>3.559770584106445</v>
+        <v>27.6642017364502</v>
       </c>
       <c r="C83" t="n">
-        <v>33.72045516967773</v>
+        <v>34.59659576416016</v>
       </c>
       <c r="D83" t="n">
-        <v>25.7709846496582</v>
+        <v>16.90844345092773</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.50504684448242</v>
+        <v>-12.03180408477783</v>
       </c>
       <c r="F83" t="n">
-        <v>-24.24578094482422</v>
+        <v>-0.1307955384254456</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4.050654888153076</v>
+        <v>1.101822376251221</v>
       </c>
       <c r="B84" t="n">
-        <v>5.937611103057861</v>
+        <v>24.96305656433105</v>
       </c>
       <c r="C84" t="n">
-        <v>40.66360473632812</v>
+        <v>42.16958999633789</v>
       </c>
       <c r="D84" t="n">
-        <v>32.29383850097656</v>
+        <v>16.49993324279785</v>
       </c>
       <c r="E84" t="n">
-        <v>-13.18327713012695</v>
+        <v>-13.97015190124512</v>
       </c>
       <c r="F84" t="n">
-        <v>-24.24578094482422</v>
+        <v>1.942189574241638</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>8.042184829711914</v>
+        <v>5.823183536529541</v>
       </c>
       <c r="B85" t="n">
-        <v>8.785416603088379</v>
+        <v>22.43129539489746</v>
       </c>
       <c r="C85" t="n">
-        <v>47.22477722167969</v>
+        <v>49.74991607666016</v>
       </c>
       <c r="D85" t="n">
-        <v>39.22407531738281</v>
+        <v>15.5218334197998</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.18327713012695</v>
+        <v>-15.28375148773193</v>
       </c>
       <c r="F85" t="n">
-        <v>-24.56040954589844</v>
+        <v>3.136042594909668</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>12.00983619689941</v>
+        <v>10.7280330657959</v>
       </c>
       <c r="B86" t="n">
-        <v>11.76621055603027</v>
+        <v>19.99371528625488</v>
       </c>
       <c r="C86" t="n">
-        <v>52.81103515625</v>
+        <v>56.32687377929688</v>
       </c>
       <c r="D86" t="n">
-        <v>45.982177734375</v>
+        <v>14.10716724395752</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.77319526672363</v>
+        <v>-15.39421081542969</v>
       </c>
       <c r="F86" t="n">
-        <v>-21.88944816589355</v>
+        <v>3.897830963134766</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>15.69850158691406</v>
+        <v>15.30230331420898</v>
       </c>
       <c r="B87" t="n">
-        <v>14.70814418792725</v>
+        <v>17.53317070007324</v>
       </c>
       <c r="C87" t="n">
-        <v>56.94090270996094</v>
+        <v>60.79041290283203</v>
       </c>
       <c r="D87" t="n">
-        <v>51.95652770996094</v>
+        <v>12.35230731964111</v>
       </c>
       <c r="E87" t="n">
-        <v>-13.81386375427246</v>
+        <v>-14.48787403106689</v>
       </c>
       <c r="F87" t="n">
-        <v>-18.8223705291748</v>
+        <v>4.347044944763184</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>18.93342208862305</v>
+        <v>19.17411804199219</v>
       </c>
       <c r="B88" t="n">
-        <v>17.55033493041992</v>
+        <v>15.13010406494141</v>
       </c>
       <c r="C88" t="n">
-        <v>59.40673828125</v>
+        <v>62.46150970458984</v>
       </c>
       <c r="D88" t="n">
-        <v>56.55397033691406</v>
+        <v>10.47467994689941</v>
       </c>
       <c r="E88" t="n">
-        <v>-11.26425361633301</v>
+        <v>-12.88971710205078</v>
       </c>
       <c r="F88" t="n">
-        <v>-15.8023681640625</v>
+        <v>4.52425479888916</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>21.65779495239258</v>
+        <v>22.26947212219238</v>
       </c>
       <c r="B89" t="n">
-        <v>20.27072906494141</v>
+        <v>13.00430011749268</v>
       </c>
       <c r="C89" t="n">
-        <v>59.40673828125</v>
+        <v>61.36673355102539</v>
       </c>
       <c r="D89" t="n">
-        <v>59.31253433227539</v>
+        <v>8.797017097473145</v>
       </c>
       <c r="E89" t="n">
-        <v>-9.454473495483398</v>
+        <v>-10.582444190979</v>
       </c>
       <c r="F89" t="n">
-        <v>-12.95079135894775</v>
+        <v>4.61331844329834</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>23.9155387878418</v>
+        <v>24.78177642822266</v>
       </c>
       <c r="B90" t="n">
-        <v>22.81997299194336</v>
+        <v>11.1978645324707</v>
       </c>
       <c r="C90" t="n">
-        <v>59.92237854003906</v>
+        <v>58.13185119628906</v>
       </c>
       <c r="D90" t="n">
-        <v>59.31253433227539</v>
+        <v>7.441357612609863</v>
       </c>
       <c r="E90" t="n">
-        <v>-7.113321304321289</v>
+        <v>-7.564708232879639</v>
       </c>
       <c r="F90" t="n">
-        <v>-10.24252128601074</v>
+        <v>4.799180030822754</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>25.78047370910645</v>
+        <v>26.99086761474609</v>
       </c>
       <c r="B91" t="n">
-        <v>25.08678245544434</v>
+        <v>9.452425956726074</v>
       </c>
       <c r="C91" t="n">
-        <v>57.31756591796875</v>
+        <v>53.53153228759766</v>
       </c>
       <c r="D91" t="n">
-        <v>58.89360427856445</v>
+        <v>6.193755149841309</v>
       </c>
       <c r="E91" t="n">
-        <v>-4.574601173400879</v>
+        <v>-4.25175666809082</v>
       </c>
       <c r="F91" t="n">
-        <v>-7.699551582336426</v>
+        <v>5.037261962890625</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>27.2795352935791</v>
+        <v>29.04541206359863</v>
       </c>
       <c r="B92" t="n">
-        <v>26.89794921875</v>
+        <v>7.42136287689209</v>
       </c>
       <c r="C92" t="n">
-        <v>52.76812744140625</v>
+        <v>48.03089904785156</v>
       </c>
       <c r="D92" t="n">
-        <v>54.95555114746094</v>
+        <v>4.709967613220215</v>
       </c>
       <c r="E92" t="n">
-        <v>-2.191098690032959</v>
+        <v>-1.293892860412598</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.450562000274658</v>
+        <v>5.111827850341797</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>28.3698616027832</v>
+        <v>30.86261177062988</v>
       </c>
       <c r="B93" t="n">
-        <v>28.08552169799805</v>
+        <v>4.961400032043457</v>
       </c>
       <c r="C93" t="n">
-        <v>45.76762390136719</v>
+        <v>41.66001892089844</v>
       </c>
       <c r="D93" t="n">
-        <v>48.56897735595703</v>
+        <v>2.808491945266724</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.2729127407073975</v>
+        <v>0.7942638397216797</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.687152147293091</v>
+        <v>4.920816421508789</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>28.3698616027832</v>
+        <v>32.16525268554688</v>
       </c>
       <c r="B94" t="n">
-        <v>28.08552169799805</v>
+        <v>2.264677762985229</v>
       </c>
       <c r="C94" t="n">
-        <v>36.58248138427734</v>
+        <v>34.34109115600586</v>
       </c>
       <c r="D94" t="n">
-        <v>40.11683654785156</v>
+        <v>0.678162693977356</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9668174982070923</v>
+        <v>1.866071701049805</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.502211570739746</v>
+        <v>4.575984001159668</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>29.63027381896973</v>
+        <v>32.73301696777344</v>
       </c>
       <c r="B95" t="n">
-        <v>29.35995483398438</v>
+        <v>-0.3134528994560242</v>
       </c>
       <c r="C95" t="n">
-        <v>26.83464050292969</v>
+        <v>26.36440467834473</v>
       </c>
       <c r="D95" t="n">
-        <v>31.16653442382812</v>
+        <v>-1.271410822868347</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9668174982070923</v>
+        <v>2.054388046264648</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.502211570739746</v>
+        <v>4.260575294494629</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>29.53059387207031</v>
+        <v>32.51649475097656</v>
       </c>
       <c r="B96" t="n">
-        <v>29.69950485229492</v>
+        <v>-2.368531465530396</v>
       </c>
       <c r="C96" t="n">
-        <v>18.37959098815918</v>
+        <v>18.62476539611816</v>
       </c>
       <c r="D96" t="n">
-        <v>23.3662281036377</v>
+        <v>-2.565729856491089</v>
       </c>
       <c r="E96" t="n">
-        <v>2.019737243652344</v>
+        <v>1.740128517150879</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.128199696540833</v>
+        <v>3.877903938293457</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>29.65203666687012</v>
+        <v>31.89845657348633</v>
       </c>
       <c r="B97" t="n">
-        <v>30.36153793334961</v>
+        <v>-3.99036717414856</v>
       </c>
       <c r="C97" t="n">
-        <v>12.11892318725586</v>
+        <v>12.02335357666016</v>
       </c>
       <c r="D97" t="n">
-        <v>17.3820686340332</v>
+        <v>-3.022766828536987</v>
       </c>
       <c r="E97" t="n">
-        <v>1.388787269592285</v>
+        <v>1.119914054870605</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.230903267860413</v>
+        <v>3.424574851989746</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>30.23580932617188</v>
+        <v>31.53670501708984</v>
       </c>
       <c r="B98" t="n">
-        <v>30.83551025390625</v>
+        <v>-5.564108848571777</v>
       </c>
       <c r="C98" t="n">
-        <v>8.096059799194336</v>
+        <v>7.016880989074707</v>
       </c>
       <c r="D98" t="n">
-        <v>13.11102867126465</v>
+        <v>-2.751808881759644</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6392297744750977</v>
+        <v>0.1405410766601562</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.576344609260559</v>
+        <v>3.250020980834961</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>31.0140266418457</v>
+        <v>31.46733283996582</v>
       </c>
       <c r="B99" t="n">
-        <v>30.91002464294434</v>
+        <v>-6.68033504486084</v>
       </c>
       <c r="C99" t="n">
-        <v>5.961026668548584</v>
+        <v>4.060246467590332</v>
       </c>
       <c r="D99" t="n">
-        <v>10.25239181518555</v>
+        <v>-1.752558588981628</v>
       </c>
       <c r="E99" t="n">
-        <v>0.03634215146303177</v>
+        <v>-0.8512377738952637</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.050825834274292</v>
+        <v>3.33219051361084</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>31.58544921875</v>
+        <v>31.75457382202148</v>
       </c>
       <c r="B100" t="n">
-        <v>30.74765014648438</v>
+        <v>-7.378645896911621</v>
       </c>
       <c r="C100" t="n">
-        <v>5.961026668548584</v>
+        <v>3.019560575485229</v>
       </c>
       <c r="D100" t="n">
-        <v>8.616979598999023</v>
+        <v>-0.2306240797042847</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.4345192909240723</v>
+        <v>-1.679439544677734</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.686619520187378</v>
+        <v>3.743508338928223</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>31.80012130737305</v>
+        <v>32.35043334960938</v>
       </c>
       <c r="B101" t="n">
-        <v>30.52161979675293</v>
+        <v>-7.921769142150879</v>
       </c>
       <c r="C101" t="n">
-        <v>4.600287437438965</v>
+        <v>3.411068677902222</v>
       </c>
       <c r="D101" t="n">
-        <v>8.616979598999023</v>
+        <v>1.531760334968567</v>
       </c>
       <c r="E101" t="n">
-        <v>-1.190811157226562</v>
+        <v>-2.504876613616943</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.742723226547241</v>
+        <v>4.331745147705078</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>31.72272872924805</v>
+        <v>33.01881408691406</v>
       </c>
       <c r="B102" t="n">
-        <v>31.33914566040039</v>
+        <v>-8.394759178161621</v>
       </c>
       <c r="C102" t="n">
-        <v>9.126182556152344</v>
+        <v>4.760262489318848</v>
       </c>
       <c r="D102" t="n">
-        <v>9.604154586791992</v>
+        <v>3.430932283401489</v>
       </c>
       <c r="E102" t="n">
-        <v>-3.690783500671387</v>
+        <v>-3.669693470001221</v>
       </c>
       <c r="F102" t="n">
-        <v>-5.350158214569092</v>
+        <v>4.634541511535645</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>31.8024959564209</v>
+        <v>34.43695068359375</v>
       </c>
       <c r="B103" t="n">
-        <v>23.872802734375</v>
+        <v>-8.788699150085449</v>
       </c>
       <c r="C103" t="n">
-        <v>14.87824440002441</v>
+        <v>8.215868949890137</v>
       </c>
       <c r="D103" t="n">
-        <v>17.81276321411133</v>
+        <v>5.837145805358887</v>
       </c>
       <c r="E103" t="n">
-        <v>-5.868745803833008</v>
+        <v>-4.924685955047607</v>
       </c>
       <c r="F103" t="n">
-        <v>-6.141588687896729</v>
+        <v>3.831117630004883</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>30.31233596801758</v>
+        <v>37.60646820068359</v>
       </c>
       <c r="B104" t="n">
-        <v>18.78407096862793</v>
+        <v>5.865386009216309</v>
       </c>
       <c r="C104" t="n">
-        <v>15.88258171081543</v>
+        <v>16.36663627624512</v>
       </c>
       <c r="D104" t="n">
-        <v>21.09515571594238</v>
+        <v>25.21706962585449</v>
       </c>
       <c r="E104" t="n">
-        <v>-5.868745803833008</v>
+        <v>-15.31830787658691</v>
       </c>
       <c r="F104" t="n">
-        <v>-6.141588687896729</v>
+        <v>-1.690566182136536</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>31.77097511291504</v>
+        <v>42.15987777709961</v>
       </c>
       <c r="B105" t="n">
-        <v>17.24129486083984</v>
+        <v>-1.326028108596802</v>
       </c>
       <c r="C105" t="n">
-        <v>14.63422775268555</v>
+        <v>12.69954586029053</v>
       </c>
       <c r="D105" t="n">
-        <v>21.09515571594238</v>
+        <v>26.36045837402344</v>
       </c>
       <c r="E105" t="n">
-        <v>-4.819129943847656</v>
+        <v>-18.03568267822266</v>
       </c>
       <c r="F105" t="n">
-        <v>-5.759341239929199</v>
+        <v>-5.017877101898193</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>28.43365669250488</v>
+        <v>38.31060791015625</v>
       </c>
       <c r="B106" t="n">
-        <v>18.60660934448242</v>
+        <v>2.183590650558472</v>
       </c>
       <c r="C106" t="n">
-        <v>12.35864162445068</v>
+        <v>13.87990570068359</v>
       </c>
       <c r="D106" t="n">
-        <v>19.50990676879883</v>
+        <v>29.9309196472168</v>
       </c>
       <c r="E106" t="n">
-        <v>-2.341437816619873</v>
+        <v>-13.79129981994629</v>
       </c>
       <c r="F106" t="n">
-        <v>-6.185737133026123</v>
+        <v>-14.4538631439209</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>26.31705093383789</v>
+        <v>34.44992065429688</v>
       </c>
       <c r="B107" t="n">
-        <v>21.64029312133789</v>
+        <v>4.184937477111816</v>
       </c>
       <c r="C107" t="n">
-        <v>9.788209915161133</v>
+        <v>13.1500768661499</v>
       </c>
       <c r="D107" t="n">
-        <v>16.7944450378418</v>
+        <v>32.85136795043945</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1195485591888428</v>
+        <v>-8.13764762878418</v>
       </c>
       <c r="F107" t="n">
-        <v>-5.902917385101318</v>
+        <v>-21.73937225341797</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>24.31040382385254</v>
+        <v>29.68475914001465</v>
       </c>
       <c r="B108" t="n">
-        <v>25.09555435180664</v>
+        <v>6.505352973937988</v>
       </c>
       <c r="C108" t="n">
-        <v>7.290124416351318</v>
+        <v>11.43383598327637</v>
       </c>
       <c r="D108" t="n">
-        <v>14.1068868637085</v>
+        <v>35.62403869628906</v>
       </c>
       <c r="E108" t="n">
-        <v>1.943155646324158</v>
+        <v>-2.357207775115967</v>
       </c>
       <c r="F108" t="n">
-        <v>-4.90895938873291</v>
+        <v>-26.95586967468262</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>22.82120132446289</v>
+        <v>24.73942565917969</v>
       </c>
       <c r="B109" t="n">
-        <v>27.81721878051758</v>
+        <v>9.977754592895508</v>
       </c>
       <c r="C109" t="n">
-        <v>4.967758178710938</v>
+        <v>9.73697566986084</v>
       </c>
       <c r="D109" t="n">
-        <v>12.01096057891846</v>
+        <v>39.4946174621582</v>
       </c>
       <c r="E109" t="n">
-        <v>1.943155646324158</v>
+        <v>1.344413757324219</v>
       </c>
       <c r="F109" t="n">
-        <v>-1.550939679145813</v>
+        <v>-28.84523391723633</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>21.70193099975586</v>
+        <v>20.50901222229004</v>
       </c>
       <c r="B110" t="n">
-        <v>27.81721878051758</v>
+        <v>14.72703266143799</v>
       </c>
       <c r="C110" t="n">
-        <v>2.941746234893799</v>
+        <v>8.903380393981934</v>
       </c>
       <c r="D110" t="n">
-        <v>10.73483848571777</v>
+        <v>44.7146110534668</v>
       </c>
       <c r="E110" t="n">
-        <v>3.72653865814209</v>
+        <v>2.209140777587891</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9004773497581482</v>
+        <v>-26.20259475708008</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>20.22515106201172</v>
+        <v>17.5207691192627</v>
       </c>
       <c r="B111" t="n">
-        <v>27.7399787902832</v>
+        <v>19.75168418884277</v>
       </c>
       <c r="C111" t="n">
-        <v>1.657614350318909</v>
+        <v>8.934782981872559</v>
       </c>
       <c r="D111" t="n">
-        <v>10.73483848571777</v>
+        <v>50.1334342956543</v>
       </c>
       <c r="E111" t="n">
-        <v>2.925661087036133</v>
+        <v>1.764980316162109</v>
       </c>
       <c r="F111" t="n">
-        <v>3.281173229217529</v>
+        <v>-20.35228729248047</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>17.70554351806641</v>
+        <v>15.49703216552734</v>
       </c>
       <c r="B112" t="n">
-        <v>23.80619049072266</v>
+        <v>23.9899787902832</v>
       </c>
       <c r="C112" t="n">
-        <v>1.657614350318909</v>
+        <v>9.247382164001465</v>
       </c>
       <c r="D112" t="n">
-        <v>9.720553398132324</v>
+        <v>53.95773696899414</v>
       </c>
       <c r="E112" t="n">
-        <v>2.23548698425293</v>
+        <v>1.738208770751953</v>
       </c>
       <c r="F112" t="n">
-        <v>4.336836814880371</v>
+        <v>-14.40968704223633</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>14.23633098602295</v>
+        <v>13.60504627227783</v>
       </c>
       <c r="B113" t="n">
-        <v>19.31370735168457</v>
+        <v>27.26832389831543</v>
       </c>
       <c r="C113" t="n">
-        <v>1.539240717887878</v>
+        <v>8.91219425201416</v>
       </c>
       <c r="D113" t="n">
-        <v>10.19542217254639</v>
+        <v>55.24198913574219</v>
       </c>
       <c r="E113" t="n">
-        <v>2.357488632202148</v>
+        <v>2.163366317749023</v>
       </c>
       <c r="F113" t="n">
-        <v>4.336836814880371</v>
+        <v>-10.49402236938477</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>10.45651626586914</v>
+        <v>11.15181922912598</v>
       </c>
       <c r="B114" t="n">
-        <v>15.93492126464844</v>
+        <v>30.09060859680176</v>
       </c>
       <c r="C114" t="n">
-        <v>3.09143328666687</v>
+        <v>7.192662239074707</v>
       </c>
       <c r="D114" t="n">
-        <v>10.14061260223389</v>
+        <v>54.24842834472656</v>
       </c>
       <c r="E114" t="n">
-        <v>3.258766174316406</v>
+        <v>2.18068790435791</v>
       </c>
       <c r="F114" t="n">
-        <v>2.17228627204895</v>
+        <v>-8.584259986877441</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>6.901872634887695</v>
+        <v>8.048348426818848</v>
       </c>
       <c r="B115" t="n">
-        <v>14.24723434448242</v>
+        <v>32.87208557128906</v>
       </c>
       <c r="C115" t="n">
-        <v>1.957304716110229</v>
+        <v>4.181227684020996</v>
       </c>
       <c r="D115" t="n">
-        <v>7.951228141784668</v>
+        <v>51.7243766784668</v>
       </c>
       <c r="E115" t="n">
-        <v>4.621878623962402</v>
+        <v>1.716316223144531</v>
       </c>
       <c r="F115" t="n">
-        <v>1.098808169364929</v>
+        <v>-7.465696811676025</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3.829759836196899</v>
+        <v>4.772533893585205</v>
       </c>
       <c r="B116" t="n">
-        <v>14.24723434448242</v>
+        <v>35.46721267700195</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.2217714786529541</v>
+        <v>0.7800605893135071</v>
       </c>
       <c r="D116" t="n">
-        <v>6.157810211181641</v>
+        <v>48.21577453613281</v>
       </c>
       <c r="E116" t="n">
-        <v>6.136961936950684</v>
+        <v>1.686406135559082</v>
       </c>
       <c r="F116" t="n">
-        <v>1.098808169364929</v>
+        <v>-6.190496444702148</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.332070708274841</v>
+        <v>1.926327228546143</v>
       </c>
       <c r="B117" t="n">
-        <v>13.12326812744141</v>
+        <v>37.39594650268555</v>
       </c>
       <c r="C117" t="n">
-        <v>-2.839776515960693</v>
+        <v>-2.053927659988403</v>
       </c>
       <c r="D117" t="n">
-        <v>4.116109371185303</v>
+        <v>43.8737907409668</v>
       </c>
       <c r="E117" t="n">
-        <v>7.323701858520508</v>
+        <v>2.466180801391602</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.4028478264808655</v>
+        <v>-4.540911197662354</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-0.5811911225318909</v>
+        <v>-0.2624239325523376</v>
       </c>
       <c r="B118" t="n">
-        <v>12.93327713012695</v>
+        <v>38.39788436889648</v>
       </c>
       <c r="C118" t="n">
-        <v>-5.025426864624023</v>
+        <v>-3.945475816726685</v>
       </c>
       <c r="D118" t="n">
-        <v>2.283633470535278</v>
+        <v>38.72045135498047</v>
       </c>
       <c r="E118" t="n">
-        <v>7.781008720397949</v>
+        <v>3.371281623840332</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.9007559418678284</v>
+        <v>-2.848679780960083</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-1.971822023391724</v>
+        <v>-1.935187816619873</v>
       </c>
       <c r="B119" t="n">
-        <v>11.67875576019287</v>
+        <v>38.60171127319336</v>
       </c>
       <c r="C119" t="n">
-        <v>-6.210768222808838</v>
+        <v>-4.909440040588379</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8817254900932312</v>
+        <v>33.00482940673828</v>
       </c>
       <c r="E119" t="n">
-        <v>7.611008644104004</v>
+        <v>3.794954299926758</v>
       </c>
       <c r="F119" t="n">
-        <v>-1.974181771278381</v>
+        <v>-1.65655529499054</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-2.997131824493408</v>
+        <v>-3.335155010223389</v>
       </c>
       <c r="B120" t="n">
-        <v>9.866306304931641</v>
+        <v>38.28984832763672</v>
       </c>
       <c r="C120" t="n">
-        <v>-6.210768222808838</v>
+        <v>-5.135083198547363</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.1440890729427338</v>
+        <v>27.08080291748047</v>
       </c>
       <c r="E120" t="n">
-        <v>7.376468658447266</v>
+        <v>3.714015007019043</v>
       </c>
       <c r="F120" t="n">
-        <v>-3.561357736587524</v>
+        <v>-1.166053414344788</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-2.997131824493408</v>
+        <v>-4.60438871383667</v>
       </c>
       <c r="B121" t="n">
-        <v>8.121537208557129</v>
+        <v>37.69978713989258</v>
       </c>
       <c r="C121" t="n">
-        <v>-6.636544227600098</v>
+        <v>-4.818137168884277</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.1440890729427338</v>
+        <v>21.2759895324707</v>
       </c>
       <c r="E121" t="n">
-        <v>7.500877380371094</v>
+        <v>3.658622741699219</v>
       </c>
       <c r="F121" t="n">
-        <v>-5.19950008392334</v>
+        <v>-1.273927807807922</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-4.702743053436279</v>
+        <v>-5.746198177337646</v>
       </c>
       <c r="B122" t="n">
-        <v>6.757626533508301</v>
+        <v>36.98643493652344</v>
       </c>
       <c r="C122" t="n">
-        <v>-5.693354606628418</v>
+        <v>-4.105570793151855</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.711628794670105</v>
+        <v>15.8729362487793</v>
       </c>
       <c r="E122" t="n">
-        <v>7.883567810058594</v>
+        <v>3.99924373626709</v>
       </c>
       <c r="F122" t="n">
-        <v>-6.565956115722656</v>
+        <v>-1.780746579170227</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-5.478780269622803</v>
+        <v>-6.714236736297607</v>
       </c>
       <c r="B123" t="n">
-        <v>5.787697792053223</v>
+        <v>36.33038330078125</v>
       </c>
       <c r="C123" t="n">
-        <v>-4.817227363586426</v>
+        <v>-3.050769090652466</v>
       </c>
       <c r="D123" t="n">
-        <v>-2.031794309616089</v>
+        <v>11.19766426086426</v>
       </c>
       <c r="E123" t="n">
-        <v>8.19286060333252</v>
+        <v>4.61723804473877</v>
       </c>
       <c r="F123" t="n">
-        <v>-7.658660888671875</v>
+        <v>-2.554500102996826</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-6.253158092498779</v>
+        <v>-7.502259731292725</v>
       </c>
       <c r="B124" t="n">
-        <v>5.096211433410645</v>
+        <v>35.96796035766602</v>
       </c>
       <c r="C124" t="n">
-        <v>-3.797450304031372</v>
+        <v>-1.644774556159973</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.891796946525574</v>
+        <v>7.619139671325684</v>
       </c>
       <c r="E124" t="n">
-        <v>8.244954109191895</v>
+        <v>5.197677612304688</v>
       </c>
       <c r="F124" t="n">
-        <v>-8.602335929870605</v>
+        <v>-3.51523494720459</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-6.876948833465576</v>
+        <v>-8.170830726623535</v>
       </c>
       <c r="B125" t="n">
-        <v>4.581074714660645</v>
+        <v>36.07324981689453</v>
       </c>
       <c r="C125" t="n">
-        <v>-2.388064622879028</v>
+        <v>0.08647423982620239</v>
       </c>
       <c r="D125" t="n">
-        <v>-1.173655390739441</v>
+        <v>5.41185474395752</v>
       </c>
       <c r="E125" t="n">
-        <v>8.044508934020996</v>
+        <v>5.528244018554688</v>
       </c>
       <c r="F125" t="n">
-        <v>-9.379058837890625</v>
+        <v>-4.617155075073242</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-7.294362545013428</v>
+        <v>-8.797402381896973</v>
       </c>
       <c r="B126" t="n">
-        <v>4.173869132995605</v>
+        <v>36.66351318359375</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4571417272090912</v>
+        <v>2.058493375778198</v>
       </c>
       <c r="D126" t="n">
-        <v>0.03286278247833252</v>
+        <v>4.665013313293457</v>
       </c>
       <c r="E126" t="n">
-        <v>7.636003494262695</v>
+        <v>5.507295608520508</v>
       </c>
       <c r="F126" t="n">
-        <v>-9.894429206848145</v>
+        <v>-5.820083618164062</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-7.551686763763428</v>
+        <v>-9.418305397033691</v>
       </c>
       <c r="B127" t="n">
-        <v>3.850271940231323</v>
+        <v>37.59812927246094</v>
       </c>
       <c r="C127" t="n">
-        <v>2.102577447891235</v>
+        <v>4.167170524597168</v>
       </c>
       <c r="D127" t="n">
-        <v>1.563922047615051</v>
+        <v>5.280426979064941</v>
       </c>
       <c r="E127" t="n">
-        <v>6.923211097717285</v>
+        <v>5.013217926025391</v>
       </c>
       <c r="F127" t="n">
-        <v>-10.14363193511963</v>
+        <v>-7.049001693725586</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-7.6900954246521</v>
+        <v>-9.993416786193848</v>
       </c>
       <c r="B128" t="n">
-        <v>3.625887632369995</v>
+        <v>38.61045837402344</v>
       </c>
       <c r="C128" t="n">
-        <v>4.227310657501221</v>
+        <v>6.335953712463379</v>
       </c>
       <c r="D128" t="n">
-        <v>4.404373168945312</v>
+        <v>7.010018348693848</v>
       </c>
       <c r="E128" t="n">
-        <v>4.619311809539795</v>
+        <v>3.872746467590332</v>
       </c>
       <c r="F128" t="n">
-        <v>-10.24539375305176</v>
+        <v>-8.091368675231934</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-7.650655269622803</v>
+        <v>-10.35807514190674</v>
       </c>
       <c r="B129" t="n">
-        <v>3.484801054000854</v>
+        <v>38.37963485717773</v>
       </c>
       <c r="C129" t="n">
-        <v>6.931064605712891</v>
+        <v>8.214667320251465</v>
       </c>
       <c r="D129" t="n">
-        <v>6.174643039703369</v>
+        <v>8.386578559875488</v>
       </c>
       <c r="E129" t="n">
-        <v>2.619105577468872</v>
+        <v>2.819662094116211</v>
       </c>
       <c r="F129" t="n">
-        <v>-10.48311710357666</v>
+        <v>-8.864867210388184</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-7.290870189666748</v>
+        <v>-10.36314868927002</v>
       </c>
       <c r="B130" t="n">
-        <v>3.397364377975464</v>
+        <v>36.8580322265625</v>
       </c>
       <c r="C130" t="n">
-        <v>10.44258689880371</v>
+        <v>10.44929981231689</v>
       </c>
       <c r="D130" t="n">
-        <v>8.520481109619141</v>
+        <v>9.290169715881348</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.09413707256317139</v>
+        <v>0.4420547485351562</v>
       </c>
       <c r="F130" t="n">
-        <v>-11.22025680541992</v>
+        <v>-10.07862663269043</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-6.428479671478271</v>
+        <v>-9.723008155822754</v>
       </c>
       <c r="B131" t="n">
-        <v>3.336577177047729</v>
+        <v>35.24642944335938</v>
       </c>
       <c r="C131" t="n">
-        <v>14.92258739471436</v>
+        <v>14.09621047973633</v>
       </c>
       <c r="D131" t="n">
-        <v>11.35866737365723</v>
+        <v>11.02672958374023</v>
       </c>
       <c r="E131" t="n">
-        <v>-3.056004762649536</v>
+        <v>-3.98675799369812</v>
       </c>
       <c r="F131" t="n">
-        <v>-14.78174209594727</v>
+        <v>-10.58993244171143</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-3.635273456573486</v>
+        <v>-8.101719856262207</v>
       </c>
       <c r="B132" t="n">
-        <v>3.367645978927612</v>
+        <v>33.90079116821289</v>
       </c>
       <c r="C132" t="n">
-        <v>20.34626007080078</v>
+        <v>19.38477897644043</v>
       </c>
       <c r="D132" t="n">
-        <v>14.75980567932129</v>
+        <v>13.74433994293213</v>
       </c>
       <c r="E132" t="n">
-        <v>-5.862422943115234</v>
+        <v>-7.983761787414551</v>
       </c>
       <c r="F132" t="n">
-        <v>-17.93294143676758</v>
+        <v>-8.457192420959473</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-1.375381469726562</v>
+        <v>-5.384686946868896</v>
       </c>
       <c r="B133" t="n">
-        <v>3.830553770065308</v>
+        <v>31.98331260681152</v>
       </c>
       <c r="C133" t="n">
-        <v>26.5029125213623</v>
+        <v>25.7855110168457</v>
       </c>
       <c r="D133" t="n">
-        <v>18.97686386108398</v>
+        <v>16.00913619995117</v>
       </c>
       <c r="E133" t="n">
-        <v>-8.43204402923584</v>
+        <v>-9.846466064453125</v>
       </c>
       <c r="F133" t="n">
-        <v>-21.57096862792969</v>
+        <v>-4.177664756774902</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.686708688735962</v>
+        <v>-1.831273555755615</v>
       </c>
       <c r="B134" t="n">
-        <v>6.466233253479004</v>
+        <v>29.16202545166016</v>
       </c>
       <c r="C134" t="n">
-        <v>33.10007858276367</v>
+        <v>32.84794998168945</v>
       </c>
       <c r="D134" t="n">
-        <v>24.23961448669434</v>
+        <v>16.7682991027832</v>
       </c>
       <c r="E134" t="n">
-        <v>-10.73036193847656</v>
+        <v>-10.97262859344482</v>
       </c>
       <c r="F134" t="n">
-        <v>-24.18235397338867</v>
+        <v>-0.07583577185869217</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>5.28553581237793</v>
+        <v>2.287436008453369</v>
       </c>
       <c r="B135" t="n">
-        <v>8.625284194946289</v>
+        <v>26.03243637084961</v>
       </c>
       <c r="C135" t="n">
-        <v>39.81180572509766</v>
+        <v>40.40592956542969</v>
       </c>
       <c r="D135" t="n">
-        <v>30.42894744873047</v>
+        <v>16.30412101745605</v>
       </c>
       <c r="E135" t="n">
-        <v>-12.43531322479248</v>
+        <v>-12.7169361114502</v>
       </c>
       <c r="F135" t="n">
-        <v>-24.18235397338867</v>
+        <v>2.375637054443359</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9.166820526123047</v>
+        <v>6.873560428619385</v>
       </c>
       <c r="B136" t="n">
-        <v>11.1832218170166</v>
+        <v>23.25503730773926</v>
       </c>
       <c r="C136" t="n">
-        <v>46.22898483276367</v>
+        <v>48.14787673950195</v>
       </c>
       <c r="D136" t="n">
-        <v>37.11405181884766</v>
+        <v>15.36919689178467</v>
       </c>
       <c r="E136" t="n">
-        <v>-12.43531322479248</v>
+        <v>-14.4448299407959</v>
       </c>
       <c r="F136" t="n">
-        <v>-23.83603096008301</v>
+        <v>3.43433666229248</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>13.06465721130371</v>
+        <v>11.71757221221924</v>
       </c>
       <c r="B137" t="n">
-        <v>13.78423023223877</v>
+        <v>20.831787109375</v>
       </c>
       <c r="C137" t="n">
-        <v>51.83090591430664</v>
+        <v>55.18271255493164</v>
       </c>
       <c r="D137" t="n">
-        <v>43.76023864746094</v>
+        <v>14.21433544158936</v>
       </c>
       <c r="E137" t="n">
-        <v>-13.97343921661377</v>
+        <v>-14.89317798614502</v>
       </c>
       <c r="F137" t="n">
-        <v>-21.16269302368164</v>
+        <v>4.014447212219238</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>16.69303703308105</v>
+        <v>16.34917831420898</v>
       </c>
       <c r="B138" t="n">
-        <v>16.25859451293945</v>
+        <v>18.44928359985352</v>
       </c>
       <c r="C138" t="n">
-        <v>56.11079406738281</v>
+        <v>60.31448364257812</v>
       </c>
       <c r="D138" t="n">
-        <v>49.83809661865234</v>
+        <v>12.76126098632812</v>
       </c>
       <c r="E138" t="n">
-        <v>-12.87371063232422</v>
+        <v>-13.96631145477295</v>
       </c>
       <c r="F138" t="n">
-        <v>-18.12507247924805</v>
+        <v>4.481387138366699</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>19.8057861328125</v>
+        <v>20.24773216247559</v>
       </c>
       <c r="B139" t="n">
-        <v>18.5683479309082</v>
+        <v>16.02854919433594</v>
       </c>
       <c r="C139" t="n">
-        <v>58.77009963989258</v>
+        <v>62.58466720581055</v>
       </c>
       <c r="D139" t="n">
-        <v>54.80477142333984</v>
+        <v>11.0388765335083</v>
       </c>
       <c r="E139" t="n">
-        <v>-11.29631900787354</v>
+        <v>-12.28799343109131</v>
       </c>
       <c r="F139" t="n">
-        <v>-15.22212409973145</v>
+        <v>4.734962463378906</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>22.27467346191406</v>
+        <v>23.13278198242188</v>
       </c>
       <c r="B140" t="n">
-        <v>20.7326488494873</v>
+        <v>13.80662059783936</v>
       </c>
       <c r="C140" t="n">
-        <v>59.79013061523438</v>
+        <v>61.67763137817383</v>
       </c>
       <c r="D140" t="n">
-        <v>58.13629913330078</v>
+        <v>9.35068416595459</v>
       </c>
       <c r="E140" t="n">
-        <v>-8.223968505859375</v>
+        <v>-10.08430194854736</v>
       </c>
       <c r="F140" t="n">
-        <v>-12.60952186584473</v>
+        <v>4.783548355102539</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>24.12481498718262</v>
+        <v>25.11625480651855</v>
       </c>
       <c r="B141" t="n">
-        <v>22.75783538818359</v>
+        <v>11.9557933807373</v>
       </c>
       <c r="C141" t="n">
-        <v>59.79013061523438</v>
+        <v>58.05046463012695</v>
       </c>
       <c r="D141" t="n">
-        <v>59.46525955200195</v>
+        <v>7.964657783508301</v>
       </c>
       <c r="E141" t="n">
-        <v>-6.389925003051758</v>
+        <v>-7.263195514678955</v>
       </c>
       <c r="F141" t="n">
-        <v>-10.22814178466797</v>
+        <v>4.838616371154785</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>25.48456573486328</v>
+        <v>26.6220760345459</v>
       </c>
       <c r="B142" t="n">
-        <v>24.5820255279541</v>
+        <v>10.29771709442139</v>
       </c>
       <c r="C142" t="n">
-        <v>57.1090087890625</v>
+        <v>52.67342758178711</v>
       </c>
       <c r="D142" t="n">
-        <v>59.46525955200195</v>
+        <v>6.817154884338379</v>
       </c>
       <c r="E142" t="n">
-        <v>-4.251313209533691</v>
+        <v>-4.04847240447998</v>
       </c>
       <c r="F142" t="n">
-        <v>-8.019606590270996</v>
+        <v>4.995956420898438</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>25.48456573486328</v>
+        <v>28.09951972961426</v>
       </c>
       <c r="B143" t="n">
-        <v>26.03634452819824</v>
+        <v>8.429387092590332</v>
       </c>
       <c r="C143" t="n">
-        <v>53.45398330688477</v>
+        <v>46.48810577392578</v>
       </c>
       <c r="D143" t="n">
-        <v>54.93001556396484</v>
+        <v>5.58327579498291</v>
       </c>
       <c r="E143" t="n">
-        <v>-2.16013503074646</v>
+        <v>-1.069630146026611</v>
       </c>
       <c r="F143" t="n">
-        <v>-6.048619747161865</v>
+        <v>5.103266716003418</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>27.47392463684082</v>
+        <v>29.73882484436035</v>
       </c>
       <c r="B144" t="n">
-        <v>26.03634452819824</v>
+        <v>6.065232276916504</v>
       </c>
       <c r="C144" t="n">
-        <v>47.13755798339844</v>
+        <v>39.9634895324707</v>
       </c>
       <c r="D144" t="n">
-        <v>49.04137420654297</v>
+        <v>3.982016801834106</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.4187291860580444</v>
+        <v>1.009148597717285</v>
       </c>
       <c r="F144" t="n">
-        <v>-4.503463745117188</v>
+        <v>5.016717910766602</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>27.81958961486816</v>
+        <v>31.30856895446777</v>
       </c>
       <c r="B145" t="n">
-        <v>27.72588920593262</v>
+        <v>3.331206083297729</v>
       </c>
       <c r="C145" t="n">
-        <v>37.86148071289062</v>
+        <v>33.12446975708008</v>
       </c>
       <c r="D145" t="n">
-        <v>40.2910270690918</v>
+        <v>2.066970109939575</v>
       </c>
       <c r="E145" t="n">
-        <v>0.7712319493293762</v>
+        <v>1.933601379394531</v>
       </c>
       <c r="F145" t="n">
-        <v>-3.478379249572754</v>
+        <v>4.792731285095215</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>27.7614574432373</v>
+        <v>32.35393142700195</v>
       </c>
       <c r="B146" t="n">
-        <v>27.44217109680176</v>
+        <v>0.678488552570343</v>
       </c>
       <c r="C146" t="n">
-        <v>27.32564163208008</v>
+        <v>25.97493553161621</v>
       </c>
       <c r="D146" t="n">
-        <v>30.63615417480469</v>
+        <v>0.17219078540802</v>
       </c>
       <c r="E146" t="n">
-        <v>0.7712319493293762</v>
+        <v>1.894328117370605</v>
       </c>
       <c r="F146" t="n">
-        <v>-3.478379249572754</v>
+        <v>4.634374618530273</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>27.45100784301758</v>
+        <v>32.48532104492188</v>
       </c>
       <c r="B147" t="n">
-        <v>27.93377113342285</v>
+        <v>-1.309705018997192</v>
       </c>
       <c r="C147" t="n">
-        <v>18.14288139343262</v>
+        <v>18.99161529541016</v>
       </c>
       <c r="D147" t="n">
-        <v>22.45519638061523</v>
+        <v>-1.197928309440613</v>
       </c>
       <c r="E147" t="n">
-        <v>1.998255729675293</v>
+        <v>1.457261085510254</v>
       </c>
       <c r="F147" t="n">
-        <v>-2.126718044281006</v>
+        <v>4.414238929748535</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>27.57260704040527</v>
+        <v>31.86029815673828</v>
       </c>
       <c r="B148" t="n">
-        <v>29.38667297363281</v>
+        <v>-2.642956972122192</v>
       </c>
       <c r="C148" t="n">
-        <v>11.64608764648438</v>
+        <v>12.84225654602051</v>
       </c>
       <c r="D148" t="n">
-        <v>16.63900375366211</v>
+        <v>-1.765231013298035</v>
       </c>
       <c r="E148" t="n">
-        <v>1.535150527954102</v>
+        <v>0.9192428588867188</v>
       </c>
       <c r="F148" t="n">
-        <v>-2.008468627929688</v>
+        <v>3.963109016418457</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>28.60477447509766</v>
+        <v>31.3881778717041</v>
       </c>
       <c r="B149" t="n">
-        <v>30.62345314025879</v>
+        <v>-4.122607231140137</v>
       </c>
       <c r="C149" t="n">
-        <v>7.850046634674072</v>
+        <v>7.803996086120605</v>
       </c>
       <c r="D149" t="n">
-        <v>12.84888648986816</v>
+        <v>-1.652996897697449</v>
       </c>
       <c r="E149" t="n">
-        <v>0.6748065948486328</v>
+        <v>-0.07987164705991745</v>
       </c>
       <c r="F149" t="n">
-        <v>-2.331746816635132</v>
+        <v>3.814346313476562</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>30.16400527954102</v>
+        <v>31.14076232910156</v>
       </c>
       <c r="B150" t="n">
-        <v>30.93676567077637</v>
+        <v>-5.152146339416504</v>
       </c>
       <c r="C150" t="n">
-        <v>6.190549850463867</v>
+        <v>4.64185619354248</v>
       </c>
       <c r="D150" t="n">
-        <v>10.43519973754883</v>
+        <v>-0.6994770765304565</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.1478099822998047</v>
+        <v>-1.208314895629883</v>
       </c>
       <c r="F150" t="n">
-        <v>-2.858408212661743</v>
+        <v>3.85823917388916</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>31.50608825683594</v>
+        <v>31.38255310058594</v>
       </c>
       <c r="B151" t="n">
-        <v>30.56323432922363</v>
+        <v>-5.74129581451416</v>
       </c>
       <c r="C151" t="n">
-        <v>6.190549850463867</v>
+        <v>3.427893400192261</v>
       </c>
       <c r="D151" t="n">
-        <v>8.973518371582031</v>
+        <v>0.9439917802810669</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.6582331657409668</v>
+        <v>-2.23641300201416</v>
       </c>
       <c r="F151" t="n">
-        <v>-3.346913576126099</v>
+        <v>4.352948188781738</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>32.18302917480469</v>
+        <v>32.20580673217773</v>
       </c>
       <c r="B152" t="n">
-        <v>30.05106544494629</v>
+        <v>-6.193724632263184</v>
       </c>
       <c r="C152" t="n">
-        <v>5.718846321105957</v>
+        <v>3.731613874435425</v>
       </c>
       <c r="D152" t="n">
-        <v>8.973518371582031</v>
+        <v>2.894490480422974</v>
       </c>
       <c r="E152" t="n">
-        <v>-1.22786283493042</v>
+        <v>-3.143327236175537</v>
       </c>
       <c r="F152" t="n">
-        <v>-4.025025844573975</v>
+        <v>5.214068412780762</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>32.24213409423828</v>
+        <v>33.34882736206055</v>
       </c>
       <c r="B153" t="n">
-        <v>29.71542930603027</v>
+        <v>-6.611725807189941</v>
       </c>
       <c r="C153" t="n">
-        <v>9.528738021850586</v>
+        <v>5.017878532409668</v>
       </c>
       <c r="D153" t="n">
-        <v>9.39881420135498</v>
+        <v>4.870661735534668</v>
       </c>
       <c r="E153" t="n">
-        <v>-2.472475528717041</v>
+        <v>-4.136682033538818</v>
       </c>
       <c r="F153" t="n">
-        <v>-5.261070728302002</v>
+        <v>5.819666862487793</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>31.84160614013672</v>
+        <v>34.82796859741211</v>
       </c>
       <c r="B154" t="n">
-        <v>23.7468433380127</v>
+        <v>-6.873171806335449</v>
       </c>
       <c r="C154" t="n">
-        <v>15.18905448913574</v>
+        <v>7.630364418029785</v>
       </c>
       <c r="D154" t="n">
-        <v>18.07257652282715</v>
+        <v>7.050248146057129</v>
       </c>
       <c r="E154" t="n">
-        <v>-6.559369087219238</v>
+        <v>-5.096628665924072</v>
       </c>
       <c r="F154" t="n">
-        <v>-6.950271129608154</v>
+        <v>5.094080924987793</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>31.91592216491699</v>
+        <v>37.10520172119141</v>
       </c>
       <c r="B155" t="n">
-        <v>17.92060470581055</v>
+        <v>6.694071769714355</v>
       </c>
       <c r="C155" t="n">
-        <v>16.44845581054688</v>
+        <v>16.84966659545898</v>
       </c>
       <c r="D155" t="n">
-        <v>22.40293884277344</v>
+        <v>25.52119827270508</v>
       </c>
       <c r="E155" t="n">
-        <v>-6.559369087219238</v>
+        <v>-15.13490962982178</v>
       </c>
       <c r="F155" t="n">
-        <v>-5.067746162414551</v>
+        <v>-2.118124961853027</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>31.91592216491699</v>
+        <v>43.41405868530273</v>
       </c>
       <c r="B156" t="n">
-        <v>15.5009651184082</v>
+        <v>-2.224976778030396</v>
       </c>
       <c r="C156" t="n">
-        <v>16.44845581054688</v>
+        <v>12.68418979644775</v>
       </c>
       <c r="D156" t="n">
-        <v>23.78532028198242</v>
+        <v>27.04282760620117</v>
       </c>
       <c r="E156" t="n">
-        <v>-5.921548843383789</v>
+        <v>-19.62202644348145</v>
       </c>
       <c r="F156" t="n">
-        <v>-5.919684410095215</v>
+        <v>-4.695438385009766</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>29.50448989868164</v>
+        <v>39.36831283569336</v>
       </c>
       <c r="B157" t="n">
-        <v>15.5009651184082</v>
+        <v>3.10481333732605</v>
       </c>
       <c r="C157" t="n">
-        <v>13.35061359405518</v>
+        <v>15.3821907043457</v>
       </c>
       <c r="D157" t="n">
-        <v>22.70064926147461</v>
+        <v>31.95386505126953</v>
       </c>
       <c r="E157" t="n">
-        <v>-2.828783512115479</v>
+        <v>-16.02445030212402</v>
       </c>
       <c r="F157" t="n">
-        <v>-6.580348491668701</v>
+        <v>-14.55771923065186</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>26.80243873596191</v>
+        <v>36.60736465454102</v>
       </c>
       <c r="B158" t="n">
-        <v>18.90573501586914</v>
+        <v>5.201144218444824</v>
       </c>
       <c r="C158" t="n">
-        <v>10.89472579956055</v>
+        <v>15.34623432159424</v>
       </c>
       <c r="D158" t="n">
-        <v>19.85876846313477</v>
+        <v>35.44686508178711</v>
       </c>
       <c r="E158" t="n">
-        <v>0.5475423336029053</v>
+        <v>-11.22485446929932</v>
       </c>
       <c r="F158" t="n">
-        <v>-6.296797752380371</v>
+        <v>-20.82647514343262</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>24.00795745849609</v>
+        <v>32.45122146606445</v>
       </c>
       <c r="B159" t="n">
-        <v>22.28128242492676</v>
+        <v>7.232697486877441</v>
       </c>
       <c r="C159" t="n">
-        <v>8.105379104614258</v>
+        <v>13.69762897491455</v>
       </c>
       <c r="D159" t="n">
-        <v>16.24234008789062</v>
+        <v>37.51350021362305</v>
       </c>
       <c r="E159" t="n">
-        <v>3.274301528930664</v>
+        <v>-4.809364795684814</v>
       </c>
       <c r="F159" t="n">
-        <v>-5.335849761962891</v>
+        <v>-25.5687313079834</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>21.78086090087891</v>
+        <v>27.32587051391602</v>
       </c>
       <c r="B160" t="n">
-        <v>25.72432327270508</v>
+        <v>10.11754035949707</v>
       </c>
       <c r="C160" t="n">
-        <v>5.250868320465088</v>
+        <v>11.12777042388916</v>
       </c>
       <c r="D160" t="n">
-        <v>12.75522041320801</v>
+        <v>39.67714309692383</v>
       </c>
       <c r="E160" t="n">
-        <v>4.725398063659668</v>
+        <v>0.6459999084472656</v>
       </c>
       <c r="F160" t="n">
-        <v>-2.510570287704468</v>
+        <v>-28.31727600097656</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>20.4155387878418</v>
+        <v>22.13198280334473</v>
       </c>
       <c r="B161" t="n">
-        <v>28.21662139892578</v>
+        <v>14.5891637802124</v>
       </c>
       <c r="C161" t="n">
-        <v>2.407860517501831</v>
+        <v>8.791096687316895</v>
       </c>
       <c r="D161" t="n">
-        <v>9.973363876342773</v>
+        <v>43.16904067993164</v>
       </c>
       <c r="E161" t="n">
-        <v>4.725398063659668</v>
+        <v>3.006594657897949</v>
       </c>
       <c r="F161" t="n">
-        <v>-0.1850827932357788</v>
+        <v>-27.08175468444824</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>20.4155387878418</v>
+        <v>17.92805862426758</v>
       </c>
       <c r="B162" t="n">
-        <v>28.21662139892578</v>
+        <v>20.07965278625488</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.1623299121856689</v>
+        <v>7.478854179382324</v>
       </c>
       <c r="D162" t="n">
-        <v>8.134267807006836</v>
+        <v>47.92013549804688</v>
       </c>
       <c r="E162" t="n">
-        <v>4.761947631835938</v>
+        <v>2.569726943969727</v>
       </c>
       <c r="F162" t="n">
-        <v>2.651423692703247</v>
+        <v>-21.77115058898926</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>18.66274833679199</v>
+        <v>15.1961727142334</v>
       </c>
       <c r="B163" t="n">
-        <v>26.93705368041992</v>
+        <v>25.16147232055664</v>
       </c>
       <c r="C163" t="n">
-        <v>-1.549883127212524</v>
+        <v>7.399661064147949</v>
       </c>
       <c r="D163" t="n">
-        <v>8.134267807006836</v>
+        <v>52.3615837097168</v>
       </c>
       <c r="E163" t="n">
-        <v>2.872224807739258</v>
+        <v>1.738648414611816</v>
       </c>
       <c r="F163" t="n">
-        <v>4.556682586669922</v>
+        <v>-15.11979484558105</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>14.7799596786499</v>
+        <v>13.51163959503174</v>
       </c>
       <c r="B164" t="n">
-        <v>22.42246055603027</v>
+        <v>28.8956470489502</v>
       </c>
       <c r="C164" t="n">
-        <v>-1.549883127212524</v>
+        <v>8.01120662689209</v>
       </c>
       <c r="D164" t="n">
-        <v>6.590262413024902</v>
+        <v>54.72477722167969</v>
       </c>
       <c r="E164" t="n">
-        <v>2.073042869567871</v>
+        <v>1.874468803405762</v>
       </c>
       <c r="F164" t="n">
-        <v>4.556682586669922</v>
+        <v>-10.10479068756104</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>11.66531562805176</v>
+        <v>11.89157676696777</v>
       </c>
       <c r="B165" t="n">
-        <v>17.68777084350586</v>
+        <v>31.4285774230957</v>
       </c>
       <c r="C165" t="n">
-        <v>1.605962514877319</v>
+        <v>8.056254386901855</v>
       </c>
       <c r="D165" t="n">
-        <v>8.03547191619873</v>
+        <v>54.33333969116211</v>
       </c>
       <c r="E165" t="n">
-        <v>2.851395606994629</v>
+        <v>2.225802421569824</v>
       </c>
       <c r="F165" t="n">
-        <v>2.214921474456787</v>
+        <v>-7.646579742431641</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>8.224061965942383</v>
+        <v>9.49028491973877</v>
       </c>
       <c r="B166" t="n">
-        <v>14.65427589416504</v>
+        <v>33.51839828491211</v>
       </c>
       <c r="C166" t="n">
-        <v>2.774113893508911</v>
+        <v>6.483092308044434</v>
       </c>
       <c r="D166" t="n">
-        <v>9.312918663024902</v>
+        <v>51.61341857910156</v>
       </c>
       <c r="E166" t="n">
-        <v>4.27457332611084</v>
+        <v>1.862577438354492</v>
       </c>
       <c r="F166" t="n">
-        <v>0.3144583106040955</v>
+        <v>-6.767160415649414</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>4.882221221923828</v>
+        <v>6.199362277984619</v>
       </c>
       <c r="B167" t="n">
-        <v>13.64899635314941</v>
+        <v>35.63319778442383</v>
       </c>
       <c r="C167" t="n">
-        <v>2.774113893508911</v>
+        <v>3.379875898361206</v>
       </c>
       <c r="D167" t="n">
-        <v>7.661763191223145</v>
+        <v>47.46229934692383</v>
       </c>
       <c r="E167" t="n">
-        <v>5.932390213012695</v>
+        <v>1.453372001647949</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.9251416921615601</v>
+        <v>-6.09699821472168</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.851825952529907</v>
+        <v>2.711416721343994</v>
       </c>
       <c r="B168" t="n">
-        <v>13.64899635314941</v>
+        <v>37.52837371826172</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.880720317363739</v>
+        <v>-0.1301128268241882</v>
       </c>
       <c r="D168" t="n">
-        <v>5.436518669128418</v>
+        <v>42.60791015625</v>
       </c>
       <c r="E168" t="n">
-        <v>7.750417709350586</v>
+        <v>2.073605537414551</v>
       </c>
       <c r="F168" t="n">
-        <v>-0.9251416921615601</v>
+        <v>-4.962198734283447</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-0.6432090997695923</v>
+        <v>-0.2129930853843689</v>
       </c>
       <c r="B169" t="n">
-        <v>13.95221042633057</v>
+        <v>38.7299690246582</v>
       </c>
       <c r="C169" t="n">
-        <v>-3.880811214447021</v>
+        <v>-3.031144380569458</v>
       </c>
       <c r="D169" t="n">
-        <v>2.928296089172363</v>
+        <v>37.35722351074219</v>
       </c>
       <c r="E169" t="n">
-        <v>9.165009498596191</v>
+        <v>3.279585838317871</v>
       </c>
       <c r="F169" t="n">
-        <v>-2.421080112457275</v>
+        <v>-3.426541328430176</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-2.390152454376221</v>
+        <v>-2.27814245223999</v>
       </c>
       <c r="B170" t="n">
-        <v>14.233323097229</v>
+        <v>39.11373901367188</v>
       </c>
       <c r="C170" t="n">
-        <v>-6.205699920654297</v>
+        <v>-4.758736610412598</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9397135376930237</v>
+        <v>31.97626495361328</v>
       </c>
       <c r="E170" t="n">
-        <v>9.637532234191895</v>
+        <v>4.140377044677734</v>
       </c>
       <c r="F170" t="n">
-        <v>-3.27231240272522</v>
+        <v>-2.129908323287964</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-2.390152454376221</v>
+        <v>-3.600280284881592</v>
       </c>
       <c r="B171" t="n">
-        <v>13.20499610900879</v>
+        <v>38.84722900390625</v>
       </c>
       <c r="C171" t="n">
-        <v>-6.205699920654297</v>
+        <v>-5.210549354553223</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.2070492804050446</v>
+        <v>26.68453979492188</v>
       </c>
       <c r="E171" t="n">
-        <v>9.327784538269043</v>
+        <v>4.163577079772949</v>
       </c>
       <c r="F171" t="n">
-        <v>-6.079484939575195</v>
+        <v>-1.460909962654114</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-4.314097881317139</v>
+        <v>-4.470296382904053</v>
       </c>
       <c r="B172" t="n">
-        <v>11.38275814056396</v>
+        <v>38.18722534179688</v>
       </c>
       <c r="C172" t="n">
-        <v>-6.753056526184082</v>
+        <v>-4.578948020935059</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.2070492804050446</v>
+        <v>21.59901809692383</v>
       </c>
       <c r="E172" t="n">
-        <v>8.898146629333496</v>
+        <v>3.849001884460449</v>
       </c>
       <c r="F172" t="n">
-        <v>-7.477720260620117</v>
+        <v>-1.422783970832825</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-4.215701580047607</v>
+        <v>-5.152801036834717</v>
       </c>
       <c r="B173" t="n">
-        <v>9.562016487121582</v>
+        <v>37.32976150512695</v>
       </c>
       <c r="C173" t="n">
-        <v>-5.289666175842285</v>
+        <v>-3.263518571853638</v>
       </c>
       <c r="D173" t="n">
-        <v>-1.245987772941589</v>
+        <v>16.7800235748291</v>
       </c>
       <c r="E173" t="n">
-        <v>8.774601936340332</v>
+        <v>3.927607536315918</v>
       </c>
       <c r="F173" t="n">
-        <v>-8.74072265625</v>
+        <v>-1.809639096260071</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-4.408395290374756</v>
+        <v>-5.79779577255249</v>
       </c>
       <c r="B174" t="n">
-        <v>8.285429000854492</v>
+        <v>36.47004318237305</v>
       </c>
       <c r="C174" t="n">
-        <v>-3.866865158081055</v>
+        <v>-1.655783772468567</v>
       </c>
       <c r="D174" t="n">
-        <v>-1.183403849601746</v>
+        <v>12.42717456817627</v>
       </c>
       <c r="E174" t="n">
-        <v>8.907105445861816</v>
+        <v>4.511149406433105</v>
       </c>
       <c r="F174" t="n">
-        <v>-9.792856216430664</v>
+        <v>-2.498630285263062</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-5.017852306365967</v>
+        <v>-6.447700023651123</v>
       </c>
       <c r="B175" t="n">
-        <v>7.638171195983887</v>
+        <v>35.87694931030273</v>
       </c>
       <c r="C175" t="n">
-        <v>-2.564782619476318</v>
+        <v>0.06167298555374146</v>
       </c>
       <c r="D175" t="n">
-        <v>-1.055283427238464</v>
+        <v>8.932944297790527</v>
       </c>
       <c r="E175" t="n">
-        <v>9.035433769226074</v>
+        <v>5.192761421203613</v>
       </c>
       <c r="F175" t="n">
-        <v>-9.792856216430664</v>
+        <v>-3.45128321647644</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-5.76828145980835</v>
+        <v>-7.093272686004639</v>
       </c>
       <c r="B176" t="n">
-        <v>7.378701210021973</v>
+        <v>35.78930282592773</v>
       </c>
       <c r="C176" t="n">
-        <v>-1.19328248500824</v>
+        <v>1.885674357414246</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.5518635511398315</v>
+        <v>6.67780590057373</v>
       </c>
       <c r="E176" t="n">
-        <v>8.932568550109863</v>
+        <v>5.599344253540039</v>
       </c>
       <c r="F176" t="n">
-        <v>-11.61230278015137</v>
+        <v>-4.621557712554932</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-6.334420680999756</v>
+        <v>-7.709290981292725</v>
       </c>
       <c r="B177" t="n">
-        <v>7.20972728729248</v>
+        <v>36.272216796875</v>
       </c>
       <c r="C177" t="n">
-        <v>0.4307906031608582</v>
+        <v>3.846386671066284</v>
       </c>
       <c r="D177" t="n">
-        <v>0.4639331102371216</v>
+        <v>5.823029518127441</v>
       </c>
       <c r="E177" t="n">
-        <v>8.495469093322754</v>
+        <v>5.596044540405273</v>
       </c>
       <c r="F177" t="n">
-        <v>-12.24625301361084</v>
+        <v>-5.910056591033936</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-6.587380886077881</v>
+        <v>-8.274144172668457</v>
       </c>
       <c r="B178" t="n">
-        <v>6.986210823059082</v>
+        <v>37.20251083374023</v>
       </c>
       <c r="C178" t="n">
-        <v>2.366988897323608</v>
+        <v>5.912261009216309</v>
       </c>
       <c r="D178" t="n">
-        <v>1.904700398445129</v>
+        <v>6.27779483795166</v>
       </c>
       <c r="E178" t="n">
-        <v>7.65452766418457</v>
+        <v>5.12041187286377</v>
       </c>
       <c r="F178" t="n">
-        <v>-12.62215995788574</v>
+        <v>-7.194005489349365</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-6.583652019500732</v>
+        <v>-8.765255928039551</v>
       </c>
       <c r="B179" t="n">
-        <v>6.752499580383301</v>
+        <v>38.33087539672852</v>
       </c>
       <c r="C179" t="n">
-        <v>4.628780841827393</v>
+        <v>7.991917610168457</v>
       </c>
       <c r="D179" t="n">
-        <v>3.635363817214966</v>
+        <v>7.795607566833496</v>
       </c>
       <c r="E179" t="n">
-        <v>5.217966556549072</v>
+        <v>4.050982475280762</v>
       </c>
       <c r="F179" t="n">
-        <v>-12.73554515838623</v>
+        <v>-8.287620544433594</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-6.399890422821045</v>
+        <v>-9.099747657775879</v>
       </c>
       <c r="B180" t="n">
-        <v>6.588286399841309</v>
+        <v>38.76068878173828</v>
       </c>
       <c r="C180" t="n">
-        <v>7.320845603942871</v>
+        <v>9.78193187713623</v>
       </c>
       <c r="D180" t="n">
-        <v>6.742043495178223</v>
+        <v>9.358479499816895</v>
       </c>
       <c r="E180" t="n">
-        <v>3.233122110366821</v>
+        <v>3.057518005371094</v>
       </c>
       <c r="F180" t="n">
-        <v>-12.8164119720459</v>
+        <v>-9.027300834655762</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-5.989293575286865</v>
+        <v>-9.203503608703613</v>
       </c>
       <c r="B181" t="n">
-        <v>6.516718864440918</v>
+        <v>37.95248413085938</v>
       </c>
       <c r="C181" t="n">
-        <v>10.69159984588623</v>
+        <v>11.45185089111328</v>
       </c>
       <c r="D181" t="n">
-        <v>8.642448425292969</v>
+        <v>10.2704029083252</v>
       </c>
       <c r="E181" t="n">
-        <v>0.5584021806716919</v>
+        <v>1.279946327209473</v>
       </c>
       <c r="F181" t="n">
-        <v>-13.24705505371094</v>
+        <v>-9.99305534362793</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-5.176639080047607</v>
+        <v>-8.81978702545166</v>
       </c>
       <c r="B182" t="n">
-        <v>6.474783897399902</v>
+        <v>36.56188201904297</v>
       </c>
       <c r="C182" t="n">
-        <v>14.98572731018066</v>
+        <v>13.91131401062012</v>
       </c>
       <c r="D182" t="n">
-        <v>11.12368965148926</v>
+        <v>11.37871074676514</v>
       </c>
       <c r="E182" t="n">
-        <v>-2.355826377868652</v>
+        <v>-2.793009281158447</v>
       </c>
       <c r="F182" t="n">
-        <v>-16.06825065612793</v>
+        <v>-10.80178070068359</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-2.525144100189209</v>
+        <v>-7.510396480560303</v>
       </c>
       <c r="B183" t="n">
-        <v>6.421488761901855</v>
+        <v>35.33152770996094</v>
       </c>
       <c r="C183" t="n">
-        <v>20.25527954101562</v>
+        <v>17.98007774353027</v>
       </c>
       <c r="D183" t="n">
-        <v>14.1866512298584</v>
+        <v>13.56250858306885</v>
       </c>
       <c r="E183" t="n">
-        <v>-5.123949527740479</v>
+        <v>-7.382127285003662</v>
       </c>
       <c r="F183" t="n">
-        <v>-18.78708267211914</v>
+        <v>-9.425393104553223</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-0.3354592323303223</v>
+        <v>-4.928075313568115</v>
       </c>
       <c r="B184" t="n">
-        <v>6.630661964416504</v>
+        <v>33.6783447265625</v>
       </c>
       <c r="C184" t="n">
-        <v>26.29818153381348</v>
+        <v>23.64212608337402</v>
       </c>
       <c r="D184" t="n">
-        <v>18.04352569580078</v>
+        <v>15.89863872528076</v>
       </c>
       <c r="E184" t="n">
-        <v>-7.691445350646973</v>
+        <v>-9.511805534362793</v>
       </c>
       <c r="F184" t="n">
-        <v>-21.97008514404297</v>
+        <v>-5.198297500610352</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.633511543273926</v>
+        <v>-1.205489635467529</v>
       </c>
       <c r="B185" t="n">
-        <v>8.801950454711914</v>
+        <v>30.85262870788574</v>
       </c>
       <c r="C185" t="n">
-        <v>32.7747917175293</v>
+        <v>30.4649829864502</v>
       </c>
       <c r="D185" t="n">
-        <v>22.94293212890625</v>
+        <v>16.8637523651123</v>
       </c>
       <c r="E185" t="n">
-        <v>-10.04120063781738</v>
+        <v>-9.937460899353027</v>
       </c>
       <c r="F185" t="n">
-        <v>-24.20938301086426</v>
+        <v>-0.2678280472755432</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>6.12600040435791</v>
+        <v>3.175512790679932</v>
       </c>
       <c r="B186" t="n">
-        <v>10.79229927062988</v>
+        <v>27.32166862487793</v>
       </c>
       <c r="C186" t="n">
-        <v>39.33447265625</v>
+        <v>38.13228225708008</v>
       </c>
       <c r="D186" t="n">
-        <v>28.81828117370605</v>
+        <v>16.31648063659668</v>
       </c>
       <c r="E186" t="n">
-        <v>-11.80247020721436</v>
+        <v>-11.17529487609863</v>
       </c>
       <c r="F186" t="n">
-        <v>-24.20938301086426</v>
+        <v>2.921854019165039</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>9.92613697052002</v>
+        <v>7.902000904083252</v>
       </c>
       <c r="B187" t="n">
-        <v>13.16318321228027</v>
+        <v>24.14629173278809</v>
       </c>
       <c r="C187" t="n">
-        <v>45.61553955078125</v>
+        <v>46.28364181518555</v>
       </c>
       <c r="D187" t="n">
-        <v>35.27254104614258</v>
+        <v>15.22931671142578</v>
       </c>
       <c r="E187" t="n">
-        <v>-11.80247020721436</v>
+        <v>-13.34826850891113</v>
       </c>
       <c r="F187" t="n">
-        <v>-23.34895896911621</v>
+        <v>3.975286483764648</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>13.80278396606445</v>
+        <v>12.78679084777832</v>
       </c>
       <c r="B188" t="n">
-        <v>15.53062438964844</v>
+        <v>21.66349029541016</v>
       </c>
       <c r="C188" t="n">
-        <v>51.17020416259766</v>
+        <v>53.96856307983398</v>
       </c>
       <c r="D188" t="n">
-        <v>41.79042816162109</v>
+        <v>14.19136333465576</v>
       </c>
       <c r="E188" t="n">
-        <v>-13.31668472290039</v>
+        <v>-14.47429656982422</v>
       </c>
       <c r="F188" t="n">
-        <v>-20.65772819519043</v>
+        <v>4.20789623260498</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>17.46477317810059</v>
+        <v>17.49001693725586</v>
       </c>
       <c r="B189" t="n">
-        <v>17.7060546875</v>
+        <v>19.39931106567383</v>
       </c>
       <c r="C189" t="n">
-        <v>55.51190185546875</v>
+        <v>59.83747863769531</v>
       </c>
       <c r="D189" t="n">
-        <v>47.88872146606445</v>
+        <v>13.04316425323486</v>
       </c>
       <c r="E189" t="n">
-        <v>-12.04963684082031</v>
+        <v>-13.67731380462646</v>
       </c>
       <c r="F189" t="n">
-        <v>-17.60960960388184</v>
+        <v>4.57642936706543</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>20.60617446899414</v>
+        <v>21.4883975982666</v>
       </c>
       <c r="B190" t="n">
-        <v>19.65181732177734</v>
+        <v>17.00214385986328</v>
       </c>
       <c r="C190" t="n">
-        <v>58.28073120117188</v>
+        <v>62.74752044677734</v>
       </c>
       <c r="D190" t="n">
-        <v>53.09212493896484</v>
+        <v>11.53736877441406</v>
       </c>
       <c r="E190" t="n">
-        <v>-10.3631534576416</v>
+        <v>-11.79270076751709</v>
       </c>
       <c r="F190" t="n">
-        <v>-14.7499532699585</v>
+        <v>4.952215194702148</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>23.00689697265625</v>
+        <v>24.34018325805664</v>
       </c>
       <c r="B191" t="n">
-        <v>21.4010124206543</v>
+        <v>14.66396522521973</v>
       </c>
       <c r="C191" t="n">
-        <v>59.38024520874023</v>
+        <v>62.16918563842773</v>
       </c>
       <c r="D191" t="n">
-        <v>56.88387298583984</v>
+        <v>9.851618766784668</v>
       </c>
       <c r="E191" t="n">
-        <v>-7.47221851348877</v>
+        <v>-9.555020332336426</v>
       </c>
       <c r="F191" t="n">
-        <v>-12.28228569030762</v>
+        <v>5.038256645202637</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>24.62242889404297</v>
+        <v>25.97033309936523</v>
       </c>
       <c r="B192" t="n">
-        <v>22.98798370361328</v>
+        <v>12.70173931121826</v>
       </c>
       <c r="C192" t="n">
-        <v>59.38024520874023</v>
+        <v>58.35662841796875</v>
       </c>
       <c r="D192" t="n">
-        <v>58.80048751831055</v>
+        <v>8.356032371520996</v>
       </c>
       <c r="E192" t="n">
-        <v>-5.858509063720703</v>
+        <v>-6.93215799331665</v>
       </c>
       <c r="F192" t="n">
-        <v>-10.14265823364258</v>
+        <v>4.953799247741699</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>24.62242889404297</v>
+        <v>26.77593803405762</v>
       </c>
       <c r="B193" t="n">
-        <v>24.38994216918945</v>
+        <v>11.06990432739258</v>
       </c>
       <c r="C193" t="n">
-        <v>56.98533630371094</v>
+        <v>52.28036499023438</v>
       </c>
       <c r="D193" t="n">
-        <v>58.80048751831055</v>
+        <v>7.169192314147949</v>
       </c>
       <c r="E193" t="n">
-        <v>-3.982462406158447</v>
+        <v>-3.884966611862183</v>
       </c>
       <c r="F193" t="n">
-        <v>-8.21589469909668</v>
+        <v>4.950310707092285</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>26.5438117980957</v>
+        <v>27.42626762390137</v>
       </c>
       <c r="B194" t="n">
-        <v>25.45698547363281</v>
+        <v>9.352486610412598</v>
       </c>
       <c r="C194" t="n">
-        <v>53.82035064697266</v>
+        <v>45.20930480957031</v>
       </c>
       <c r="D194" t="n">
-        <v>55.73971176147461</v>
+        <v>6.060280799865723</v>
       </c>
       <c r="E194" t="n">
-        <v>-2.139593839645386</v>
+        <v>-0.897493839263916</v>
       </c>
       <c r="F194" t="n">
-        <v>-6.504456043243408</v>
+        <v>5.026586532592773</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>26.58820724487305</v>
+        <v>28.48220252990723</v>
       </c>
       <c r="B195" t="n">
-        <v>25.45698547363281</v>
+        <v>7.120047569274902</v>
       </c>
       <c r="C195" t="n">
-        <v>48.23212432861328</v>
+        <v>38.12569046020508</v>
       </c>
       <c r="D195" t="n">
-        <v>50.08502578735352</v>
+        <v>4.722502708435059</v>
       </c>
       <c r="E195" t="n">
-        <v>-0.589776873588562</v>
+        <v>1.244163513183594</v>
       </c>
       <c r="F195" t="n">
-        <v>-5.186621189117432</v>
+        <v>5.037657737731934</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>26.43081092834473</v>
+        <v>29.99952125549316</v>
       </c>
       <c r="B196" t="n">
-        <v>26.2952995300293</v>
+        <v>4.350478172302246</v>
       </c>
       <c r="C196" t="n">
-        <v>39.21511077880859</v>
+        <v>31.40393829345703</v>
       </c>
       <c r="D196" t="n">
-        <v>40.9625244140625</v>
+        <v>3.090829133987427</v>
       </c>
       <c r="E196" t="n">
-        <v>0.513893187046051</v>
+        <v>2.105053901672363</v>
       </c>
       <c r="F196" t="n">
-        <v>-5.186621189117432</v>
+        <v>4.942298889160156</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>25.95249176025391</v>
+        <v>31.48736763000488</v>
       </c>
       <c r="B197" t="n">
-        <v>25.30271339416504</v>
+        <v>1.573920011520386</v>
       </c>
       <c r="C197" t="n">
-        <v>28.09538269042969</v>
+        <v>25.03162574768066</v>
       </c>
       <c r="D197" t="n">
-        <v>30.39768600463867</v>
+        <v>1.415852665901184</v>
       </c>
       <c r="E197" t="n">
-        <v>0.513893187046051</v>
+        <v>1.835959434509277</v>
       </c>
       <c r="F197" t="n">
-        <v>-3.573078155517578</v>
+        <v>4.929867744445801</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>25.2171630859375</v>
+        <v>32.18518447875977</v>
       </c>
       <c r="B198" t="n">
-        <v>26.84118270874023</v>
+        <v>-0.3769351840019226</v>
       </c>
       <c r="C198" t="n">
-        <v>18.14422416687012</v>
+        <v>19.10827827453613</v>
       </c>
       <c r="D198" t="n">
-        <v>21.58911514282227</v>
+        <v>0.1714335680007935</v>
       </c>
       <c r="E198" t="n">
-        <v>1.97312068939209</v>
+        <v>1.197240829467773</v>
       </c>
       <c r="F198" t="n">
-        <v>-3.180780410766602</v>
+        <v>4.882603645324707</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>25.1383228302002</v>
+        <v>31.90851783752441</v>
       </c>
       <c r="B199" t="n">
-        <v>28.62811279296875</v>
+        <v>-1.457120180130005</v>
       </c>
       <c r="C199" t="n">
-        <v>11.18518447875977</v>
+        <v>13.78691482543945</v>
       </c>
       <c r="D199" t="n">
-        <v>15.75736618041992</v>
+        <v>-0.4078434705734253</v>
       </c>
       <c r="E199" t="n">
-        <v>1.870716094970703</v>
+        <v>0.6820964813232422</v>
       </c>
       <c r="F199" t="n">
-        <v>-2.807399988174438</v>
+        <v>4.544890403747559</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>27.70076751708984</v>
+        <v>31.55760765075684</v>
       </c>
       <c r="B200" t="n">
-        <v>29.99215126037598</v>
+        <v>-2.821427583694458</v>
       </c>
       <c r="C200" t="n">
-        <v>7.357183933258057</v>
+        <v>8.921257972717285</v>
       </c>
       <c r="D200" t="n">
-        <v>12.40256118774414</v>
+        <v>-0.4992932081222534</v>
       </c>
       <c r="E200" t="n">
-        <v>0.9463033676147461</v>
+        <v>-0.2812008857727051</v>
       </c>
       <c r="F200" t="n">
-        <v>-3.123236894607544</v>
+        <v>4.520736694335938</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>29.53854370117188</v>
+        <v>31.16632080078125</v>
       </c>
       <c r="B201" t="n">
-        <v>29.99215126037598</v>
+        <v>-3.767035722732544</v>
       </c>
       <c r="C201" t="n">
-        <v>6.06308650970459</v>
+        <v>5.462145805358887</v>
       </c>
       <c r="D201" t="n">
-        <v>10.5161247253418</v>
+        <v>0.2298098802566528</v>
       </c>
       <c r="E201" t="n">
-        <v>-0.2720203399658203</v>
+        <v>-1.447706699371338</v>
       </c>
       <c r="F201" t="n">
-        <v>-3.840134382247925</v>
+        <v>4.524120330810547</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>31.20134735107422</v>
+        <v>31.19454002380371</v>
       </c>
       <c r="B202" t="n">
-        <v>30.89033126831055</v>
+        <v>-4.245657920837402</v>
       </c>
       <c r="C202" t="n">
-        <v>6.06308650970459</v>
+        <v>3.838848829269409</v>
       </c>
       <c r="D202" t="n">
-        <v>9.349035263061523</v>
+        <v>1.809893727302551</v>
       </c>
       <c r="E202" t="n">
-        <v>-1.013870239257812</v>
+        <v>-2.645936965942383</v>
       </c>
       <c r="F202" t="n">
-        <v>-4.278374671936035</v>
+        <v>4.999038696289062</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>31.20134735107422</v>
+        <v>31.98450660705566</v>
       </c>
       <c r="B203" t="n">
-        <v>29.87692070007324</v>
+        <v>-4.591948509216309</v>
       </c>
       <c r="C203" t="n">
-        <v>6.694388389587402</v>
+        <v>3.891779661178589</v>
       </c>
       <c r="D203" t="n">
-        <v>9.349035263061523</v>
+        <v>3.89135479927063</v>
       </c>
       <c r="E203" t="n">
-        <v>-1.432661056518555</v>
+        <v>-3.721545934677124</v>
       </c>
       <c r="F203" t="n">
-        <v>-4.477692604064941</v>
+        <v>6.063034057617188</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>31.93594169616699</v>
+        <v>33.38826370239258</v>
       </c>
       <c r="B204" t="n">
-        <v>27.16913414001465</v>
+        <v>-4.964968681335449</v>
       </c>
       <c r="C204" t="n">
-        <v>11.62117004394531</v>
+        <v>5.161158561706543</v>
       </c>
       <c r="D204" t="n">
-        <v>11.6502628326416</v>
+        <v>6.054329872131348</v>
       </c>
       <c r="E204" t="n">
-        <v>-2.354685306549072</v>
+        <v>-4.65411901473999</v>
       </c>
       <c r="F204" t="n">
-        <v>-5.122570991516113</v>
+        <v>6.987795829772949</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>31.93594169616699</v>
+        <v>36.22259521484375</v>
       </c>
       <c r="B205" t="n">
-        <v>27.16913414001465</v>
+        <v>36.22259521484375</v>
       </c>
       <c r="C205" t="n">
-        <v>11.62117004394531</v>
+        <v>36.22259521484375</v>
       </c>
       <c r="D205" t="n">
-        <v>11.6502628326416</v>
+        <v>36.22259521484375</v>
       </c>
       <c r="E205" t="n">
-        <v>-4.163606643676758</v>
+        <v>36.22259521484375</v>
       </c>
       <c r="F205" t="n">
-        <v>-6.489306926727295</v>
+        <v>36.22259521484375</v>
       </c>
     </row>
   </sheetData>
